--- a/dados/radicalsom shop.xlsx
+++ b/dados/radicalsom shop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E236"/>
+  <dimension ref="A1:G236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:98447332#searchVariation=MLB27685629&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=5c79ee08-4f87-4ea4-b0f7-4b017cf1d52b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:98447332#searchVariation=MLB27685629&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
         </is>
       </c>
     </row>
@@ -496,17 +512,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:98447332#searchVariation=MLB27970249&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=5c79ee08-4f87-4ea4-b0f7-4b017cf1d52b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:98447332#searchVariation=MLB27970249&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
         </is>
       </c>
     </row>
@@ -521,17 +543,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:98447332#searchVariation=MLB28557249&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=5c79ee08-4f87-4ea4-b0f7-4b017cf1d52b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:98447332#searchVariation=MLB28557249&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
         </is>
       </c>
     </row>
@@ -546,17 +574,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:98447332#searchVariation=MLB27687422&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=5c79ee08-4f87-4ea4-b0f7-4b017cf1d52b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:98447332#searchVariation=MLB27687422&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
         </is>
       </c>
     </row>
@@ -571,17 +605,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:98447332#searchVariation=MLB32364344&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=5c79ee08-4f87-4ea4-b0f7-4b017cf1d52b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:98447332#searchVariation=MLB32364344&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
         </is>
       </c>
     </row>
@@ -596,17 +636,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:98447332#searchVariation=MLB21392652&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=5c79ee08-4f87-4ea4-b0f7-4b017cf1d52b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:98447332#searchVariation=MLB21392652&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
         </is>
       </c>
     </row>
@@ -621,17 +671,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:98447332#searchVariation=MLB24006449&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=5c79ee08-4f87-4ea4-b0f7-4b017cf1d52b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:98447332#searchVariation=MLB24006449&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
         </is>
       </c>
     </row>
@@ -646,17 +702,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:98447332#searchVariation=MLB22144397&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=5c79ee08-4f87-4ea4-b0f7-4b017cf1d52b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:98447332#searchVariation=MLB22144397&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
         </is>
       </c>
     </row>
@@ -671,17 +733,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:98447332#searchVariation=MLB21348561&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=5c79ee08-4f87-4ea4-b0f7-4b017cf1d52b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:98447332#searchVariation=MLB21348561&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
         </is>
       </c>
     </row>
@@ -696,17 +768,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:98447332#searchVariation=MLB34210379&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=5c79ee08-4f87-4ea4-b0f7-4b017cf1d52b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:98447332#searchVariation=MLB34210379&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
         </is>
       </c>
     </row>
@@ -721,17 +799,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:98447332#searchVariation=MLB24154371&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=5c79ee08-4f87-4ea4-b0f7-4b017cf1d52b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:98447332#searchVariation=MLB24154371&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
         </is>
       </c>
     </row>
@@ -746,17 +834,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:98447332#searchVariation=MLB24834408&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=5c79ee08-4f87-4ea4-b0f7-4b017cf1d52b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:98447332#searchVariation=MLB24834408&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
         </is>
       </c>
     </row>
@@ -771,17 +865,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:98447332#searchVariation=MLB28687615&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=5c79ee08-4f87-4ea4-b0f7-4b017cf1d52b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:98447332#searchVariation=MLB28687615&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
         </is>
       </c>
     </row>
@@ -796,17 +896,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:98447332#searchVariation=MLB28722231&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=5c79ee08-4f87-4ea4-b0f7-4b017cf1d52b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:98447332#searchVariation=MLB28722231&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
         </is>
       </c>
     </row>
@@ -821,17 +927,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-k600-combo-5-pecas-longa-distancia-cores-variadas/p/MLB27993263?pdp_filters=seller_id:98447332#searchVariation=MLB27993263&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=5c79ee08-4f87-4ea4-b0f7-4b017cf1d52b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-k600-combo-5-pecas-longa-distancia-cores-variadas/p/MLB27993263?pdp_filters=seller_id:98447332#searchVariation=MLB27993263&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
         </is>
       </c>
     </row>
@@ -846,17 +958,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:98447332#searchVariation=MLB21562641&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=5c79ee08-4f87-4ea4-b0f7-4b017cf1d52b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:98447332#searchVariation=MLB21562641&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
         </is>
       </c>
     </row>
@@ -871,17 +993,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:98447332#searchVariation=MLB21455208&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=5c79ee08-4f87-4ea4-b0f7-4b017cf1d52b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:98447332#searchVariation=MLB21455208&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
         </is>
       </c>
     </row>
@@ -896,17 +1024,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:98447332#searchVariation=MLB21320712&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=5c79ee08-4f87-4ea4-b0f7-4b017cf1d52b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:98447332#searchVariation=MLB21320712&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
         </is>
       </c>
     </row>
@@ -921,17 +1059,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:98447332#searchVariation=MLB32381086&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=74b128e0-e59f-441b-aa87-4548d36e9484</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:98447332#searchVariation=MLB32381086&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=25981631-55e2-455c-8435-6e37ee401827</t>
         </is>
       </c>
     </row>
@@ -946,17 +1090,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:98447332#searchVariation=MLB31403178&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=74b128e0-e59f-441b-aa87-4548d36e9484</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:98447332#searchVariation=MLB31403178&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=25981631-55e2-455c-8435-6e37ee401827</t>
         </is>
       </c>
     </row>
@@ -971,17 +1121,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1968888369-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D74b128e0-e59f-441b-aa87-4548d36e9484</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1968888369-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25981631-55e2-455c-8435-6e37ee401827</t>
         </is>
       </c>
     </row>
@@ -996,17 +1152,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498563162-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D74b128e0-e59f-441b-aa87-4548d36e9484</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498563162-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25981631-55e2-455c-8435-6e37ee401827</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1183,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305184466-fonte-carregador-automotivo-jfa-120a-sci-redline-red-line-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D74b128e0-e59f-441b-aa87-4548d36e9484</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305184466-fonte-carregador-automotivo-jfa-120a-sci-redline-red-line-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25981631-55e2-455c-8435-6e37ee401827</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1218,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305212758-fonte-carregador-jfa-200a-sci-redline-voltamp-110-220v-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D74b128e0-e59f-441b-aa87-4548d36e9484</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305212758-fonte-carregador-jfa-200a-sci-redline-voltamp-110-220v-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25981631-55e2-455c-8435-6e37ee401827</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1249,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1096690111-jfa-60-a-fonte-carregador-bateria-inteligente-estabilizada-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09ddf5be-4e72-4a10-8a49-b5355a754a74</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1096690111-jfa-60-a-fonte-carregador-bateria-inteligente-estabilizada-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1280,23 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717157810-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09ddf5be-4e72-4a10-8a49-b5355a754a74</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717157810-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1311,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1331581740-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09ddf5be-4e72-4a10-8a49-b5355a754a74</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1331581740-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
         </is>
       </c>
     </row>
@@ -1146,17 +1342,23 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717143773-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09ddf5be-4e72-4a10-8a49-b5355a754a74</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717143773-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1373,23 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1470305278-controle-longa-distancia-jfa-k1200-vermelho-similar-stetsom-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09ddf5be-4e72-4a10-8a49-b5355a754a74</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1470305278-controle-longa-distancia-jfa-k1200-vermelho-similar-stetsom-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1404,23 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569053-fonte-carregador-jfa-200a-sci-redline-voltimetro-bivolt-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09ddf5be-4e72-4a10-8a49-b5355a754a74</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569053-fonte-carregador-jfa-200a-sci-redline-voltimetro-bivolt-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1435,23 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1049919967-fonte-automotiva-200-amperes-jfa-carregador-original-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09ddf5be-4e72-4a10-8a49-b5355a754a74</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1049919967-fonte-automotiva-200-amperes-jfa-carregador-original-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
         </is>
       </c>
     </row>
@@ -1246,17 +1466,23 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182758232-fonte-carregador-jfa-200-amperes-sci-mais-vendido-do-brasil-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09ddf5be-4e72-4a10-8a49-b5355a754a74</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1182758232-fonte-carregador-jfa-200-amperes-sci-mais-vendido-do-brasil-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1497,23 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174612894-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09ddf5be-4e72-4a10-8a49-b5355a754a74</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174612894-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1528,23 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498563555-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09ddf5be-4e72-4a10-8a49-b5355a754a74</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498563555-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1559,23 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569128-fonte-carregador-jfa-200a-sci-digital-bivolt-110-220v-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09ddf5be-4e72-4a10-8a49-b5355a754a74</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569128-fonte-carregador-jfa-200a-sci-digital-bivolt-110-220v-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
         </is>
       </c>
     </row>
@@ -1346,17 +1590,23 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174611533-fonte-carregador-jfa-storm-200a-bivolt-flutuaco-proteco-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7d047cf-5f2c-43f8-a848-5898412700d6</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174611533-fonte-carregador-jfa-storm-200a-bivolt-flutuaco-proteco-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
         </is>
       </c>
     </row>
@@ -1371,17 +1621,23 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566936-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-digital-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7d047cf-5f2c-43f8-a848-5898412700d6</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566936-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-digital-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1652,23 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569066-fonte-carregador-automotivo-jfa-120a-sci-redline-red-line-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7d047cf-5f2c-43f8-a848-5898412700d6</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569066-fonte-carregador-automotivo-jfa-120a-sci-redline-red-line-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1683,23 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3603511670-melhor-fonte-200a-caixa-bob-jfa-200a-storm-lite-110220v-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7d047cf-5f2c-43f8-a848-5898412700d6</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3603511670-melhor-fonte-200a-caixa-bob-jfa-200a-storm-lite-110220v-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
         </is>
       </c>
     </row>
@@ -1446,17 +1714,23 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1046249773-fonte-automotiva-spark-usina-120a-controle-jfa-k600-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7d047cf-5f2c-43f8-a848-5898412700d6</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1046249773-fonte-automotiva-spark-usina-120a-controle-jfa-k600-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
         </is>
       </c>
     </row>
@@ -1471,17 +1745,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237796256-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2019-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7d047cf-5f2c-43f8-a848-5898412700d6</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237796256-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2019-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1780,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1564745106-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digital-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7d047cf-5f2c-43f8-a848-5898412700d6</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1564745106-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digital-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
         </is>
       </c>
     </row>
@@ -1521,17 +1815,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305190307-fonte-carregador-jfa-120-amperes-sci-redline-voltamp-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7d047cf-5f2c-43f8-a848-5898412700d6</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305190307-fonte-carregador-jfa-120-amperes-sci-redline-voltamp-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
         </is>
       </c>
     </row>
@@ -1546,17 +1850,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569100-fonte-carregador-automotivo-120a-jfa-digital-sci-bivolt-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7d047cf-5f2c-43f8-a848-5898412700d6</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569100-fonte-carregador-automotivo-120a-jfa-digital-sci-bivolt-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
         </is>
       </c>
     </row>
@@ -1571,17 +1885,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1046393142-fonte-automotiva-120-a-jfa-carregador-sci-automatico-2019-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7d047cf-5f2c-43f8-a848-5898412700d6</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1046393142-fonte-automotiva-120-a-jfa-carregador-sci-automatico-2019-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
         </is>
       </c>
     </row>
@@ -1596,17 +1920,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305188255-fonte-carregador-jfa-120a-sci-redline-digital-pwm-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7d047cf-5f2c-43f8-a848-5898412700d6</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305188255-fonte-carregador-jfa-120a-sci-redline-digital-pwm-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
         </is>
       </c>
     </row>
@@ -1621,17 +1955,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569093-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2020-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7d047cf-5f2c-43f8-a848-5898412700d6</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569093-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2020-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
         </is>
       </c>
     </row>
@@ -1646,17 +1990,23 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1186951471-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7d047cf-5f2c-43f8-a848-5898412700d6</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1186951471-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
         </is>
       </c>
     </row>
@@ -1671,17 +2021,23 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1186960628-fonte-carregador-jfa-70a-sci-slim-bivolt-volt-amp-oferta-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7d047cf-5f2c-43f8-a848-5898412700d6</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1186960628-fonte-carregador-jfa-70a-sci-slim-bivolt-volt-amp-oferta-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
         </is>
       </c>
     </row>
@@ -1696,17 +2052,23 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562481526-fonte-carregador-para-sistema-solar-jfa-70a-110220v-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7d047cf-5f2c-43f8-a848-5898412700d6</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1562481526-fonte-carregador-para-sistema-solar-jfa-70a-110220v-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
         </is>
       </c>
     </row>
@@ -1721,17 +2083,23 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164536163-fonte-carregador-jfa-storm-70a-carga-lenta-motor-home-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7d047cf-5f2c-43f8-a848-5898412700d6</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164536163-fonte-carregador-jfa-storm-70a-carga-lenta-motor-home-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
         </is>
       </c>
     </row>
@@ -1746,17 +2114,23 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1096690112-jfa-60-a-slim-sci-fonte-carregador-bateria-12v-inteligente-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7d047cf-5f2c-43f8-a848-5898412700d6</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1096690112-jfa-60-a-slim-sci-fonte-carregador-bateria-12v-inteligente-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
         </is>
       </c>
     </row>
@@ -1771,17 +2145,23 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1096690109-melhor-fonte-automotiva-60a-jfa-carregador-inteligente-fret-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7d047cf-5f2c-43f8-a848-5898412700d6</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1096690109-melhor-fonte-automotiva-60a-jfa-carregador-inteligente-fret-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
         </is>
       </c>
     </row>
@@ -1796,17 +2176,23 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562481066-fonte-carregador-bateria-estacionaria-jfa-60a-slim-110220v-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7d047cf-5f2c-43f8-a848-5898412700d6</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1562481066-fonte-carregador-bateria-estacionaria-jfa-60a-slim-110220v-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
         </is>
       </c>
     </row>
@@ -1821,17 +2207,23 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164404273-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7d047cf-5f2c-43f8-a848-5898412700d6</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164404273-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
         </is>
       </c>
     </row>
@@ -1846,17 +2238,23 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312769683-melhor-fonte-70a-caixa-bob-jfa-70a-storm-lite-110220v-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99066a80-7af3-4dad-a0a9-49d548a98750</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3312769683-melhor-fonte-70a-caixa-bob-jfa-70a-storm-lite-110220v-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De8848868-22f9-421f-80ff-4a48ae903992</t>
         </is>
       </c>
     </row>
@@ -1871,17 +2269,23 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312798635-fonte-carregador-jfa-70a-storm-lite-bivolt-p-caixa-bob-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99066a80-7af3-4dad-a0a9-49d548a98750</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3312798635-fonte-carregador-jfa-70a-storm-lite-bivolt-p-caixa-bob-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De8848868-22f9-421f-80ff-4a48ae903992</t>
         </is>
       </c>
     </row>
@@ -1896,17 +2300,23 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474108302-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-digital-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99066a80-7af3-4dad-a0a9-49d548a98750</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474108302-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-digital-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De8848868-22f9-421f-80ff-4a48ae903992</t>
         </is>
       </c>
     </row>
@@ -1921,17 +2331,23 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498563524-fonte-caregador-jfa-60a-voltimetro-amp-redline-sci-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99066a80-7af3-4dad-a0a9-49d548a98750</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498563524-fonte-caregador-jfa-60a-voltimetro-amp-redline-sci-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De8848868-22f9-421f-80ff-4a48ae903992</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2362,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305130684-fonte-caregador-jfa-60a-voltimetro-amp-redline-sci-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99066a80-7af3-4dad-a0a9-49d548a98750</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305130684-fonte-caregador-jfa-60a-voltimetro-amp-redline-sci-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De8848868-22f9-421f-80ff-4a48ae903992</t>
         </is>
       </c>
     </row>
@@ -1971,17 +2397,23 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566625-kit-5-unid-controle-loga-distancia-jfa-k600-cores-variadas-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99066a80-7af3-4dad-a0a9-49d548a98750</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566625-kit-5-unid-controle-loga-distancia-jfa-k600-cores-variadas-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De8848868-22f9-421f-80ff-4a48ae903992</t>
         </is>
       </c>
     </row>
@@ -1996,17 +2428,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927400034-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e05b723-8556-4fbe-b5d9-1b922fb3b50c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2927400034-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4950312c-9a34-4eb2-bb19-d8dfa4f5c1ac</t>
         </is>
       </c>
     </row>
@@ -2021,17 +2463,23 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1096687395-jfa-60-a-slim-sci-fonte-carregador-bateria-12v-inteligente-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e05b723-8556-4fbe-b5d9-1b922fb3b50c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1096687395-jfa-60-a-slim-sci-fonte-carregador-bateria-12v-inteligente-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4950312c-9a34-4eb2-bb19-d8dfa4f5c1ac</t>
         </is>
       </c>
     </row>
@@ -2046,17 +2494,23 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569129-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e05b723-8556-4fbe-b5d9-1b922fb3b50c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569129-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4950312c-9a34-4eb2-bb19-d8dfa4f5c1ac</t>
         </is>
       </c>
     </row>
@@ -2071,17 +2525,23 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1046354083-fonte-carregador-automotiva-200-a-jfa-sci-2019-oferta-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e05b723-8556-4fbe-b5d9-1b922fb3b50c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1046354083-fonte-carregador-automotiva-200-a-jfa-sci-2019-oferta-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4950312c-9a34-4eb2-bb19-d8dfa4f5c1ac</t>
         </is>
       </c>
     </row>
@@ -2096,17 +2556,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562506276-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e05b723-8556-4fbe-b5d9-1b922fb3b50c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1562506276-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4950312c-9a34-4eb2-bb19-d8dfa4f5c1ac</t>
         </is>
       </c>
     </row>
@@ -2121,17 +2591,23 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164410356-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d85ada4-ae14-4fa2-b57c-2e47303c6e28</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164410356-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
         </is>
       </c>
     </row>
@@ -2146,17 +2622,23 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562477727-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d85ada4-ae14-4fa2-b57c-2e47303c6e28</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1562477727-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
         </is>
       </c>
     </row>
@@ -2171,17 +2653,23 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569281-voltimetro-sequenciado-jfa-digital-vs5hi-altabaixa-voltagem-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d85ada4-ae14-4fa2-b57c-2e47303c6e28</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569281-voltimetro-sequenciado-jfa-digital-vs5hi-altabaixa-voltagem-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
         </is>
       </c>
     </row>
@@ -2196,17 +2684,23 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1968888554-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d85ada4-ae14-4fa2-b57c-2e47303c6e28</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1968888554-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
         </is>
       </c>
     </row>
@@ -2221,17 +2715,23 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1331585000-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d85ada4-ae14-4fa2-b57c-2e47303c6e28</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1331585000-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
         </is>
       </c>
     </row>
@@ -2246,17 +2746,23 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1186960840-fonte-carregador-jfa-70a-sci-slim-bivolt-volt-amp-oferta-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d85ada4-ae14-4fa2-b57c-2e47303c6e28</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1186960840-fonte-carregador-jfa-70a-sci-slim-bivolt-volt-amp-oferta-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
         </is>
       </c>
     </row>
@@ -2271,17 +2777,23 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717192566-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d85ada4-ae14-4fa2-b57c-2e47303c6e28</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717192566-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
         </is>
       </c>
     </row>
@@ -2296,17 +2808,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474104454-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d85ada4-ae14-4fa2-b57c-2e47303c6e28</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474104454-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
         </is>
       </c>
     </row>
@@ -2321,17 +2843,23 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1814402952-controle-de-suspenso-ar-jfa-air-control-black-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d85ada4-ae14-4fa2-b57c-2e47303c6e28</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1814402952-controle-de-suspenso-ar-jfa-air-control-black-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
         </is>
       </c>
     </row>
@@ -2346,17 +2874,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790206-fonte-carregador-120a-jfa-p-sistema-solar-estacionaria-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d85ada4-ae14-4fa2-b57c-2e47303c6e28</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790206-fonte-carregador-120a-jfa-p-sistema-solar-estacionaria-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
         </is>
       </c>
     </row>
@@ -2371,17 +2909,23 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1490301022-voltimetro-sequenciador-jfa-digital-vs5hi-altabaixa-voltage-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d85ada4-ae14-4fa2-b57c-2e47303c6e28</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1490301022-voltimetro-sequenciador-jfa-digital-vs5hi-altabaixa-voltage-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
         </is>
       </c>
     </row>
@@ -2396,17 +2940,23 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174593764-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d85ada4-ae14-4fa2-b57c-2e47303c6e28</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174593764-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
         </is>
       </c>
     </row>
@@ -2421,17 +2971,23 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1490301023-voltimetro-sequenciado-jfa-digital-vs5hi-altabaixa-voltagem-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d85ada4-ae14-4fa2-b57c-2e47303c6e28</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1490301023-voltimetro-sequenciado-jfa-digital-vs5hi-altabaixa-voltagem-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
         </is>
       </c>
     </row>
@@ -2446,17 +3002,23 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569191-melhor-fonte-automotiva-60a-jfa-carregador-inteligente-fret-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d85ada4-ae14-4fa2-b57c-2e47303c6e28</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569191-melhor-fonte-automotiva-60a-jfa-carregador-inteligente-fret-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
         </is>
       </c>
     </row>
@@ -2471,17 +3033,23 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1046440886-controle-jfa-suspenso-ar-air-control-longa-distancia-2019-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db62cdeb9-ff04-4c98-9e7d-0cf6bc146929</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1046440886-controle-jfa-suspenso-ar-air-control-longa-distancia-2019-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
         </is>
       </c>
     </row>
@@ -2496,17 +3064,23 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875306704-melhor-voltimetro-sequenciador-jfa-vs5hi-12v-vendido-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db62cdeb9-ff04-4c98-9e7d-0cf6bc146929</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1875306704-melhor-voltimetro-sequenciador-jfa-vs5hi-12v-vendido-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
         </is>
       </c>
     </row>
@@ -2521,17 +3095,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305194830-fonte-carregador-jfa-120-amperes-sci-red-line-voltampe-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db62cdeb9-ff04-4c98-9e7d-0cf6bc146929</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305194830-fonte-carregador-jfa-120-amperes-sci-red-line-voltampe-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
         </is>
       </c>
     </row>
@@ -2546,17 +3130,23 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569282-voltimetro-sequenciador-jfa-digital-vs5hi-altabaixa-voltage-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db62cdeb9-ff04-4c98-9e7d-0cf6bc146929</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569282-voltimetro-sequenciador-jfa-digital-vs5hi-altabaixa-voltage-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
         </is>
       </c>
     </row>
@@ -2571,17 +3161,23 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875294056-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db62cdeb9-ff04-4c98-9e7d-0cf6bc146929</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1875294056-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
         </is>
       </c>
     </row>
@@ -2596,17 +3192,23 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717191411-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db62cdeb9-ff04-4c98-9e7d-0cf6bc146929</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717191411-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3223,23 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1046357841-fonte-automotiva-200a-jfa-carregador-original-2019-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db62cdeb9-ff04-4c98-9e7d-0cf6bc146929</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1046357841-fonte-automotiva-200a-jfa-carregador-original-2019-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
         </is>
       </c>
     </row>
@@ -2646,17 +3254,23 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182755306-fonte-automotiva-200a-jfa-sci-carregador-automatico-full-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db62cdeb9-ff04-4c98-9e7d-0cf6bc146929</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1182755306-fonte-automotiva-200a-jfa-sci-carregador-automatico-full-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
         </is>
       </c>
     </row>
@@ -2671,17 +3285,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237799972-fonte-carregador-jfa-120a-sci-digital-automatica-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db62cdeb9-ff04-4c98-9e7d-0cf6bc146929</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237799972-fonte-carregador-jfa-120a-sci-digital-automatica-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
         </is>
       </c>
     </row>
@@ -2696,17 +3320,23 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567020-fonte-carregador-jfa-200a-sci-redline-bivolt-110220v-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db62cdeb9-ff04-4c98-9e7d-0cf6bc146929</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567020-fonte-carregador-jfa-200a-sci-redline-bivolt-110220v-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
         </is>
       </c>
     </row>
@@ -2721,17 +3351,23 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569097-fonte-carregador-jfa-120a-automotiva-pwm-sci-bivolt-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db62cdeb9-ff04-4c98-9e7d-0cf6bc146929</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569097-fonte-carregador-jfa-120a-automotiva-pwm-sci-bivolt-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
         </is>
       </c>
     </row>
@@ -2746,17 +3382,23 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2087198179-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db62cdeb9-ff04-4c98-9e7d-0cf6bc146929</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2087198179-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
         </is>
       </c>
     </row>
@@ -2771,17 +3413,23 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724243915-controle-longa-distncia-jfa-k1200-resistente-a-agua-branco-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d148532-e9fa-45ed-8cfe-1230663809f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2724243915-controle-longa-distncia-jfa-k1200-resistente-a-agua-branco-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
         </is>
       </c>
     </row>
@@ -2796,17 +3444,23 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927448002-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d148532-e9fa-45ed-8cfe-1230663809f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2927448002-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
         </is>
       </c>
     </row>
@@ -2821,17 +3475,23 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312850141-melhor-fonte-200a-caixa-bob-jfa-200a-storm-lite-110220v-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d148532-e9fa-45ed-8cfe-1230663809f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3312850141-melhor-fonte-200a-caixa-bob-jfa-200a-storm-lite-110220v-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
         </is>
       </c>
     </row>
@@ -2846,17 +3506,23 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1087811559-fonte-automotiva-spark-usina-120a-controle-jfa-k600-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d148532-e9fa-45ed-8cfe-1230663809f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1087811559-fonte-automotiva-spark-usina-120a-controle-jfa-k600-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
         </is>
       </c>
     </row>
@@ -2871,17 +3537,23 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305130707-fonte-automotiva-jfa-60a-slim-bivolt-voltimetro-redline-pwm-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d148532-e9fa-45ed-8cfe-1230663809f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305130707-fonte-automotiva-jfa-60a-slim-bivolt-voltimetro-redline-pwm-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
         </is>
       </c>
     </row>
@@ -2896,17 +3568,27 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305185086-fonte-carregador-jfa-120-amperes-sci-redline-pwm-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d148532-e9fa-45ed-8cfe-1230663809f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305185086-fonte-carregador-jfa-120-amperes-sci-redline-pwm-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
         </is>
       </c>
     </row>
@@ -2921,17 +3603,23 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1470305417-controle-longa-distancia-jfa-k1200-azul-similar-stetsom-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d148532-e9fa-45ed-8cfe-1230663809f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1470305417-controle-longa-distancia-jfa-k1200-azul-similar-stetsom-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
         </is>
       </c>
     </row>
@@ -2946,17 +3634,23 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566633-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d148532-e9fa-45ed-8cfe-1230663809f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566633-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
         </is>
       </c>
     </row>
@@ -2971,17 +3665,27 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569045-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d148532-e9fa-45ed-8cfe-1230663809f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569045-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
         </is>
       </c>
     </row>
@@ -2996,17 +3700,23 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562481180-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d148532-e9fa-45ed-8cfe-1230663809f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1562481180-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
         </is>
       </c>
     </row>
@@ -3021,17 +3731,23 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875293878-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d148532-e9fa-45ed-8cfe-1230663809f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1875293878-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
         </is>
       </c>
     </row>
@@ -3046,17 +3762,23 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875306853-melhor-voltimetro-com-sequenciador-jfa-vs5hi-hv-12v-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d148532-e9fa-45ed-8cfe-1230663809f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1875306853-melhor-voltimetro-com-sequenciador-jfa-vs5hi-hv-12v-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
         </is>
       </c>
     </row>
@@ -3071,17 +3793,23 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983201495-fonte-carregador-jfa-60a-redline-red-line-smart-cooler-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d148532-e9fa-45ed-8cfe-1230663809f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1983201495-fonte-carregador-jfa-60a-redline-red-line-smart-cooler-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
         </is>
       </c>
     </row>
@@ -3096,17 +3824,23 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2044232386-filtro-anti-ruido-jfa-rca-com-blindagem-p-som-automotivo-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d148532-e9fa-45ed-8cfe-1230663809f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2044232386-filtro-anti-ruido-jfa-rca-com-blindagem-p-som-automotivo-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
         </is>
       </c>
     </row>
@@ -3121,17 +3855,23 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164438433-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d148532-e9fa-45ed-8cfe-1230663809f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164438433-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
         </is>
       </c>
     </row>
@@ -3146,17 +3886,23 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724100903-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d148532-e9fa-45ed-8cfe-1230663809f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2724100903-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
         </is>
       </c>
     </row>
@@ -3171,17 +3917,23 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3284173925-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d148532-e9fa-45ed-8cfe-1230663809f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3284173925-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
         </is>
       </c>
     </row>
@@ -3196,17 +3948,23 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3284200713-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d148532-e9fa-45ed-8cfe-1230663809f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3284200713-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
         </is>
       </c>
     </row>
@@ -3221,42 +3979,54 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182764919-fonte-jfa-200a-slim-sci-carga-lenta-rapida-110220-volts-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d148532-e9fa-45ed-8cfe-1230663809f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1182764919-fonte-jfa-200a-slim-sci-carga-lenta-rapida-110220-volts-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Fonte Jfa 200a Slim Sci Carga Lenta / Rápida 110/220 Volts</t>
+          <t>Fonte Automotiva Jfa 70a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>895.1</v>
+        <v>548.24</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182764919-fonte-jfa-200a-slim-sci-carga-lenta-rapida-110220-volts-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8f9841e9-bded-4d41-ae84-38a6f828d778</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1186957553-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
         </is>
       </c>
     </row>
@@ -3271,17 +4041,23 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1186957553-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8f9841e9-bded-4d41-ae84-38a6f828d778</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1186957553-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
         </is>
       </c>
     </row>
@@ -3296,17 +4072,27 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237791569-fonte-carregador-jfa-120a-automotiva-pwm-sci-bivolt-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8f9841e9-bded-4d41-ae84-38a6f828d778</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237791569-fonte-carregador-jfa-120a-automotiva-pwm-sci-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
         </is>
       </c>
     </row>
@@ -3321,17 +4107,27 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237799937-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2019-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8f9841e9-bded-4d41-ae84-38a6f828d778</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237799937-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2019-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
         </is>
       </c>
     </row>
@@ -3346,17 +4142,23 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465503280-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8f9841e9-bded-4d41-ae84-38a6f828d778</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465503280-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
         </is>
       </c>
     </row>
@@ -3371,17 +4173,23 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566617-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8f9841e9-bded-4d41-ae84-38a6f828d778</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566617-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
         </is>
       </c>
     </row>
@@ -3396,17 +4204,23 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566631-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8f9841e9-bded-4d41-ae84-38a6f828d778</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566631-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
         </is>
       </c>
     </row>
@@ -3421,17 +4235,23 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567051-fonte-carregador-automotivo-jfa-60a-redline-110220v-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8f9841e9-bded-4d41-ae84-38a6f828d778</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567051-fonte-carregador-automotivo-jfa-60a-redline-110220v-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
         </is>
       </c>
     </row>
@@ -3446,17 +4266,23 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1976483717-fonte-carregador-jfa-120a-bivolt-brinde-strobo-rgb-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8f9841e9-bded-4d41-ae84-38a6f828d778</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1976483717-fonte-carregador-jfa-120a-bivolt-brinde-strobo-rgb-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
         </is>
       </c>
     </row>
@@ -3471,17 +4297,23 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983196761-fonte-carregador-automotivo-jfa-60a-redline-bivolt-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8f9841e9-bded-4d41-ae84-38a6f828d778</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1983196761-fonte-carregador-automotivo-jfa-60a-redline-bivolt-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
         </is>
       </c>
     </row>
@@ -3496,17 +4328,23 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2044206582-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8f9841e9-bded-4d41-ae84-38a6f828d778</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2044206582-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
         </is>
       </c>
     </row>
@@ -3521,17 +4359,27 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312829707-nova-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8f9841e9-bded-4d41-ae84-38a6f828d778</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3312829707-nova-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
         </is>
       </c>
     </row>
@@ -3546,17 +4394,23 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1046435472-controle-jfa-suspenso-ar-air-control-longa-distancia-2019-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e99ef69-d3c8-48d9-a8ac-783f806f028b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1046435472-controle-jfa-suspenso-ar-air-control-longa-distancia-2019-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
         </is>
       </c>
     </row>
@@ -3571,17 +4425,27 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790188-fonte-automotiva-120a-jfa-sci-carregador-slim-oferta-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e99ef69-d3c8-48d9-a8ac-783f806f028b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790188-fonte-automotiva-120a-jfa-sci-carregador-slim-oferta-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
         </is>
       </c>
     </row>
@@ -3596,17 +4460,27 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790634-fonte-carregador-120a-jfa-carregador-pwm-muito-forte-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e99ef69-d3c8-48d9-a8ac-783f806f028b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790634-fonte-carregador-120a-jfa-carregador-pwm-muito-forte-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
         </is>
       </c>
     </row>
@@ -3621,17 +4495,27 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790716-fonte-automotiva-120a-jfa-carregador-slim-pwm-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e99ef69-d3c8-48d9-a8ac-783f806f028b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790716-fonte-automotiva-120a-jfa-carregador-slim-pwm-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
         </is>
       </c>
     </row>
@@ -3646,17 +4530,27 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237795118-fonte-carregador-120a-jfa-sci-digital-pwm-muito-forte-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e99ef69-d3c8-48d9-a8ac-783f806f028b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237795118-fonte-carregador-120a-jfa-sci-digital-pwm-muito-forte-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
         </is>
       </c>
     </row>
@@ -3671,17 +4565,27 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237796310-carregador-bateria-inteligente-jfa-120a-sci-pwm-muito-forte-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e99ef69-d3c8-48d9-a8ac-783f806f028b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237796310-carregador-bateria-inteligente-jfa-120a-sci-pwm-muito-forte-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
         </is>
       </c>
     </row>
@@ -3696,17 +4600,23 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465516645-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e99ef69-d3c8-48d9-a8ac-783f806f028b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465516645-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
         </is>
       </c>
     </row>
@@ -3721,17 +4631,23 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474108877-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e99ef69-d3c8-48d9-a8ac-783f806f028b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474108877-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
         </is>
       </c>
     </row>
@@ -3746,17 +4662,23 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566632-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e99ef69-d3c8-48d9-a8ac-783f806f028b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566632-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
         </is>
       </c>
     </row>
@@ -3771,17 +4693,27 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567049-fonte-carregador-jfa-120a-sci-redline-bivolt-digital-pwm-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e99ef69-d3c8-48d9-a8ac-783f806f028b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567049-fonte-carregador-jfa-120a-sci-redline-bivolt-digital-pwm-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
         </is>
       </c>
     </row>
@@ -3796,17 +4728,27 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567068-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2020-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e99ef69-d3c8-48d9-a8ac-783f806f028b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567068-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2020-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
         </is>
       </c>
     </row>
@@ -3821,17 +4763,27 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567076-fonte-carregador-120a-jfa-p-sistema-solar-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e99ef69-d3c8-48d9-a8ac-783f806f028b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567076-fonte-carregador-120a-jfa-p-sistema-solar-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
         </is>
       </c>
     </row>
@@ -3846,17 +4798,27 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567214-fonte-automotiva-120-a-jfa-carregador-sci-automatico-2020-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e99ef69-d3c8-48d9-a8ac-783f806f028b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567214-fonte-automotiva-120-a-jfa-carregador-sci-automatico-2020-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
         </is>
       </c>
     </row>
@@ -3871,17 +4833,23 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498568735-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e99ef69-d3c8-48d9-a8ac-783f806f028b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498568735-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
         </is>
       </c>
     </row>
@@ -3896,17 +4864,23 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562475887-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d00639a-7dba-4153-a114-9916f83f3465</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1562475887-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
         </is>
       </c>
     </row>
@@ -3921,17 +4895,23 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562481255-fonte-carregador-jfa-70a-slim-mais-forte-que-60a-azul-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d00639a-7dba-4153-a114-9916f83f3465</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1562481255-fonte-carregador-jfa-70a-slim-mais-forte-que-60a-azul-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a874812-5690-4207-851b-72d4cbbc2870</t>
         </is>
       </c>
     </row>
@@ -3946,17 +4926,23 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875295364-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d00639a-7dba-4153-a114-9916f83f3465</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1875295364-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a874812-5690-4207-851b-72d4cbbc2870</t>
         </is>
       </c>
     </row>
@@ -3971,17 +4957,23 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875297661-voltimetro-digital-jfa-vs5hi-lancamento-3-em-1-som-paredo-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d00639a-7dba-4153-a114-9916f83f3465</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1875297661-voltimetro-digital-jfa-vs5hi-lancamento-3-em-1-som-paredo-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a874812-5690-4207-851b-72d4cbbc2870</t>
         </is>
       </c>
     </row>
@@ -3996,17 +4988,23 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875305674-voltimetro-jfa-vs5hi-hv12v-sequenciador-caixa-bob-paredo-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d00639a-7dba-4153-a114-9916f83f3465</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1875305674-voltimetro-jfa-vs5hi-hv12v-sequenciador-caixa-bob-paredo-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a874812-5690-4207-851b-72d4cbbc2870</t>
         </is>
       </c>
     </row>
@@ -4021,17 +5019,23 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875307435-voltimetro-jfa-vs5hi-hv12v-sequenciador-caixa-bob-paredo-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d00639a-7dba-4153-a114-9916f83f3465</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1875307435-voltimetro-jfa-vs5hi-hv12v-sequenciador-caixa-bob-paredo-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a874812-5690-4207-851b-72d4cbbc2870</t>
         </is>
       </c>
     </row>
@@ -4046,17 +5050,27 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1980641916-fonte-carregador-jfa-120a-sci-bivolt-mais-vendida-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d00639a-7dba-4153-a114-9916f83f3465</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1980641916-fonte-carregador-jfa-120a-sci-bivolt-mais-vendida-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a874812-5690-4207-851b-72d4cbbc2870</t>
         </is>
       </c>
     </row>
@@ -4071,17 +5085,23 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983200882-fonte-carregador-automotivo-jfa-60a-red-line-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d00639a-7dba-4153-a114-9916f83f3465</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1983200882-fonte-carregador-automotivo-jfa-60a-red-line-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a874812-5690-4207-851b-72d4cbbc2870</t>
         </is>
       </c>
     </row>
@@ -4096,17 +5116,23 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2087227820-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25d6db88-2069-4e19-8f02-2b57d0609dbd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2087227820-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
         </is>
       </c>
     </row>
@@ -4121,17 +5147,27 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161655203-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25d6db88-2069-4e19-8f02-2b57d0609dbd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2161655203-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
         </is>
       </c>
     </row>
@@ -4146,17 +5182,23 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164391968-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25d6db88-2069-4e19-8f02-2b57d0609dbd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164391968-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
         </is>
       </c>
     </row>
@@ -4171,17 +5213,23 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164486791-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25d6db88-2069-4e19-8f02-2b57d0609dbd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164486791-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
         </is>
       </c>
     </row>
@@ -4196,17 +5244,23 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174554291-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25d6db88-2069-4e19-8f02-2b57d0609dbd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174554291-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
         </is>
       </c>
     </row>
@@ -4221,17 +5275,23 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164397552-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25d6db88-2069-4e19-8f02-2b57d0609dbd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164397552-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
         </is>
       </c>
     </row>
@@ -4246,17 +5306,23 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164536185-fonte-carregador-jfa-storm-70a-carga-lenta-motor-home-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25d6db88-2069-4e19-8f02-2b57d0609dbd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164536185-fonte-carregador-jfa-storm-70a-carga-lenta-motor-home-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
         </is>
       </c>
     </row>
@@ -4271,17 +5337,23 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174580386-fonte-carregador-jfa-storm-200a-carga-lenta-motor-home-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25d6db88-2069-4e19-8f02-2b57d0609dbd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174580386-fonte-carregador-jfa-storm-200a-carga-lenta-motor-home-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
         </is>
       </c>
     </row>
@@ -4296,17 +5368,23 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174605405-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25d6db88-2069-4e19-8f02-2b57d0609dbd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174605405-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
         </is>
       </c>
     </row>
@@ -4321,17 +5399,23 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174611729-fonte-carregador-jfa-storm-200a-bivolt-flutuaco-proteco-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25d6db88-2069-4e19-8f02-2b57d0609dbd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174611729-fonte-carregador-jfa-storm-200a-bivolt-flutuaco-proteco-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
         </is>
       </c>
     </row>
@@ -4346,17 +5430,23 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717163730-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25d6db88-2069-4e19-8f02-2b57d0609dbd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717163730-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
         </is>
       </c>
     </row>
@@ -4371,17 +5461,23 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724250171-controle-longa-distancia-jfa-k1200-acqua-completo-top-branco-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25d6db88-2069-4e19-8f02-2b57d0609dbd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2724250171-controle-longa-distancia-jfa-k1200-acqua-completo-top-branco-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
         </is>
       </c>
     </row>
@@ -4396,17 +5492,23 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927430681-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25d6db88-2069-4e19-8f02-2b57d0609dbd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2927430681-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
         </is>
       </c>
     </row>
@@ -4421,17 +5523,23 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927505074-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25d6db88-2069-4e19-8f02-2b57d0609dbd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2927505074-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
         </is>
       </c>
     </row>
@@ -4446,17 +5554,23 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3311521185-controle-longa-jfa-k600-branco-cinza-central-universal-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4c538d9-92f9-43fa-9b1e-2a33dd32f775</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3311521185-controle-longa-jfa-k600-branco-cinza-central-universal-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
         </is>
       </c>
     </row>
@@ -4471,17 +5585,23 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182755295-fonte-automotiva-200-a-jfa-sci-carregador-automatico-slim-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4c538d9-92f9-43fa-9b1e-2a33dd32f775</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1182755295-fonte-automotiva-200-a-jfa-sci-carregador-automatico-slim-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
         </is>
       </c>
     </row>
@@ -4496,17 +5616,27 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790138-fonte-carregador-jfa-120a-automotiva-pwm-sci-bivolt-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4c538d9-92f9-43fa-9b1e-2a33dd32f775</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790138-fonte-carregador-jfa-120a-automotiva-pwm-sci-bivolt-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
         </is>
       </c>
     </row>
@@ -4521,17 +5651,23 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305139125-fonte-carregador-automotivo-jfa-60a-redline-pwm-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4c538d9-92f9-43fa-9b1e-2a33dd32f775</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305139125-fonte-carregador-automotivo-jfa-60a-redline-pwm-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
         </is>
       </c>
     </row>
@@ -4546,17 +5682,27 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311934406-fonte-automotiva-120-a-jfa-com-sistema-sci-flutuaco-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4c538d9-92f9-43fa-9b1e-2a33dd32f775</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1311934406-fonte-automotiva-120-a-jfa-com-sistema-sci-flutuaco-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
         </is>
       </c>
     </row>
@@ -4571,17 +5717,27 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311934437-fonte-carregador-120a-jfa-bivolt-com-sistema-sci-voltamp-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4c538d9-92f9-43fa-9b1e-2a33dd32f775</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1311934437-fonte-carregador-120a-jfa-bivolt-com-sistema-sci-voltamp-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
         </is>
       </c>
     </row>
@@ -4596,17 +5752,27 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311936409-fonte-automotiva-120-a-jfa-carregador-com-sistema-pwm-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4c538d9-92f9-43fa-9b1e-2a33dd32f775</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1311936409-fonte-automotiva-120-a-jfa-carregador-com-sistema-pwm-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
         </is>
       </c>
     </row>
@@ -4621,17 +5787,23 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465507273-controle-longa-distancia-completo-jfa-k600-preto-laranja-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4c538d9-92f9-43fa-9b1e-2a33dd32f775</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465507273-controle-longa-distancia-completo-jfa-k600-preto-laranja-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
         </is>
       </c>
     </row>
@@ -4646,17 +5818,23 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474108345-carregador-bateria-jfa-60a-slim-bivolt-2020-azul-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4c538d9-92f9-43fa-9b1e-2a33dd32f775</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474108345-carregador-bateria-jfa-60a-slim-bivolt-2020-azul-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
         </is>
       </c>
     </row>
@@ -4671,17 +5849,23 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474155591-fonte-carregador-para-sistema-solar-jfa-70a-bivolt-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4c538d9-92f9-43fa-9b1e-2a33dd32f775</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474155591-fonte-carregador-para-sistema-solar-jfa-70a-bivolt-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
         </is>
       </c>
     </row>
@@ -4696,17 +5880,27 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1485101170-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4c538d9-92f9-43fa-9b1e-2a33dd32f775</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1485101170-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
         </is>
       </c>
     </row>
@@ -4721,17 +5915,23 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498563111-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4c538d9-92f9-43fa-9b1e-2a33dd32f775</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498563111-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
         </is>
       </c>
     </row>
@@ -4746,17 +5946,23 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498563138-kit-5-unid-controle-loga-distancia-jfa-k600-cores-variadas-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4c538d9-92f9-43fa-9b1e-2a33dd32f775</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498563138-kit-5-unid-controle-loga-distancia-jfa-k600-cores-variadas-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
         </is>
       </c>
     </row>
@@ -4771,17 +5977,23 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566607-controle-longa-distancia-completo-jfa-k600-preto-verde-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4c538d9-92f9-43fa-9b1e-2a33dd32f775</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566607-controle-longa-distancia-completo-jfa-k600-preto-verde-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
         </is>
       </c>
     </row>
@@ -4796,17 +6008,27 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566856-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4c538d9-92f9-43fa-9b1e-2a33dd32f775</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566856-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
         </is>
       </c>
     </row>
@@ -4821,17 +6043,23 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498568726-controle-longa-distancia-completo-jfa-k600-preto-verde-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4c538d9-92f9-43fa-9b1e-2a33dd32f775</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498568726-controle-longa-distancia-completo-jfa-k600-preto-verde-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
         </is>
       </c>
     </row>
@@ -4846,17 +6074,23 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498568731-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4c538d9-92f9-43fa-9b1e-2a33dd32f775</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498568731-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
         </is>
       </c>
     </row>
@@ -4871,17 +6105,27 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562414197-fonte-carregador-120a-jfa-com-sistema-sci-voltamp-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6fe3fa95-760a-46c6-9528-2a192b5eabc4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1562414197-fonte-carregador-120a-jfa-com-sistema-sci-voltamp-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09aee6a3-ae6f-4751-9f5d-147451df144e</t>
         </is>
       </c>
     </row>
@@ -4896,17 +6140,23 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562475230-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6fe3fa95-760a-46c6-9528-2a192b5eabc4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1562475230-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09aee6a3-ae6f-4751-9f5d-147451df144e</t>
         </is>
       </c>
     </row>
@@ -4921,17 +6171,23 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562475864-fonte-carregador-jfa-70a-azul-slim-mais-forte-que-60a-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6fe3fa95-760a-46c6-9528-2a192b5eabc4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1562475864-fonte-carregador-jfa-70a-azul-slim-mais-forte-que-60a-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09aee6a3-ae6f-4751-9f5d-147451df144e</t>
         </is>
       </c>
     </row>
@@ -4946,17 +6202,23 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562477035-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6fe3fa95-760a-46c6-9528-2a192b5eabc4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1562477035-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09aee6a3-ae6f-4751-9f5d-147451df144e</t>
         </is>
       </c>
     </row>
@@ -4971,17 +6233,23 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562477596-fonte-carregador-jfa-70a-sistema-inteligente-para-bateria-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6fe3fa95-760a-46c6-9528-2a192b5eabc4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1562477596-fonte-carregador-jfa-70a-sistema-inteligente-para-bateria-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09aee6a3-ae6f-4751-9f5d-147451df144e</t>
         </is>
       </c>
     </row>
@@ -4996,17 +6264,23 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562480366-jfa-shop-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6fe3fa95-760a-46c6-9528-2a192b5eabc4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1562480366-jfa-shop-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09aee6a3-ae6f-4751-9f5d-147451df144e</t>
         </is>
       </c>
     </row>
@@ -5021,17 +6295,23 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562481544-fonte-carregador-jfa-70a-sistema-inteligente-para-bateria-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6fe3fa95-760a-46c6-9528-2a192b5eabc4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1562481544-fonte-carregador-jfa-70a-sistema-inteligente-para-bateria-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09aee6a3-ae6f-4751-9f5d-147451df144e</t>
         </is>
       </c>
     </row>
@@ -5046,17 +6326,27 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1564738805-fonte-carregadorjfa-120a-redline-voltimetro-digital-110220v-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6fe3fa95-760a-46c6-9528-2a192b5eabc4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1564738805-fonte-carregadorjfa-120a-redline-voltimetro-digital-110220v-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09aee6a3-ae6f-4751-9f5d-147451df144e</t>
         </is>
       </c>
     </row>
@@ -5071,17 +6361,23 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875290430-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6fe3fa95-760a-46c6-9528-2a192b5eabc4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1875290430-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09aee6a3-ae6f-4751-9f5d-147451df144e</t>
         </is>
       </c>
     </row>
@@ -5096,17 +6392,23 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875304180-voltimetro-digital-jfa-vs5hi-lancamento-3-em-1-som-paredo-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6fe3fa95-760a-46c6-9528-2a192b5eabc4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1875304180-voltimetro-digital-jfa-vs5hi-lancamento-3-em-1-som-paredo-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09aee6a3-ae6f-4751-9f5d-147451df144e</t>
         </is>
       </c>
     </row>
@@ -5121,17 +6423,23 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1976479269-fonte-carregador-jfa-120a-bivolt-brinde-strobo-rgb-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D106e6ad0-33b5-4767-a213-1f732efd7d9d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1976479269-fonte-carregador-jfa-120a-bivolt-brinde-strobo-rgb-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debc9e243-0959-48bd-af37-39ff0c452412</t>
         </is>
       </c>
     </row>
@@ -5146,17 +6454,23 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983196648-fonte-carregador-automotivo-jfa-60a-redline-bivolt-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D106e6ad0-33b5-4767-a213-1f732efd7d9d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1983196648-fonte-carregador-automotivo-jfa-60a-redline-bivolt-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debc9e243-0959-48bd-af37-39ff0c452412</t>
         </is>
       </c>
     </row>
@@ -5171,17 +6485,23 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983200742-fonte-carregador-automotivo-jfa-60a-redline-slim-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D106e6ad0-33b5-4767-a213-1f732efd7d9d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1983200742-fonte-carregador-automotivo-jfa-60a-redline-slim-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debc9e243-0959-48bd-af37-39ff0c452412</t>
         </is>
       </c>
     </row>
@@ -5196,17 +6516,23 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2044193699-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D106e6ad0-33b5-4767-a213-1f732efd7d9d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2044193699-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debc9e243-0959-48bd-af37-39ff0c452412</t>
         </is>
       </c>
     </row>
@@ -5221,17 +6547,27 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161597045-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfabf981b-0d31-4570-822d-43b5d5b72fcd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2161597045-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
         </is>
       </c>
     </row>
@@ -5246,17 +6582,23 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164409762-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfabf981b-0d31-4570-822d-43b5d5b72fcd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164409762-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
         </is>
       </c>
     </row>
@@ -5271,17 +6613,23 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164480855-fonte-carregador-jfa-storm-70a-bivolt-144v-sci-medidor-cca-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfabf981b-0d31-4570-822d-43b5d5b72fcd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164480855-fonte-carregador-jfa-storm-70a-bivolt-144v-sci-medidor-cca-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
         </is>
       </c>
     </row>
@@ -5296,17 +6644,23 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174573675-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfabf981b-0d31-4570-822d-43b5d5b72fcd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174573675-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
         </is>
       </c>
     </row>
@@ -5321,17 +6675,27 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161609580-nova-fonte-carregador-jfa-storm-120a-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfabf981b-0d31-4570-822d-43b5d5b72fcd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2161609580-nova-fonte-carregador-jfa-storm-120a-bivolt-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
         </is>
       </c>
     </row>
@@ -5346,17 +6710,23 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164411159-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfabf981b-0d31-4570-822d-43b5d5b72fcd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164411159-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
         </is>
       </c>
     </row>
@@ -5371,17 +6741,23 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164487978-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfabf981b-0d31-4570-822d-43b5d5b72fcd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164487978-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
         </is>
       </c>
     </row>
@@ -5396,17 +6772,23 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174594279-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfabf981b-0d31-4570-822d-43b5d5b72fcd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174594279-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
         </is>
       </c>
     </row>
@@ -5421,17 +6803,23 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161609777-melhor-fonte-120a-caixa-bob-jfa-120a-storm-110220v-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfabf981b-0d31-4570-822d-43b5d5b72fcd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2161609777-melhor-fonte-120a-caixa-bob-jfa-120a-storm-110220v-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
         </is>
       </c>
     </row>
@@ -5446,17 +6834,23 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164415644-carregador-jfa-storm-60a-144v-mais-completa-smart-cca-sci-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfabf981b-0d31-4570-822d-43b5d5b72fcd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164415644-carregador-jfa-storm-60a-144v-mais-completa-smart-cca-sci-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
         </is>
       </c>
     </row>
@@ -5471,17 +6865,23 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164523374-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfabf981b-0d31-4570-822d-43b5d5b72fcd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164523374-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
         </is>
       </c>
     </row>
@@ -5496,17 +6896,23 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174605702-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfabf981b-0d31-4570-822d-43b5d5b72fcd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174605702-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
         </is>
       </c>
     </row>
@@ -5521,17 +6927,23 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161654997-melhor-fonte-120a-caixa-bob-jfa-120a-storm-110220v-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ec925d3-91e4-4a71-8c8e-1aa0aed08916</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2161654997-melhor-fonte-120a-caixa-bob-jfa-120a-storm-110220v-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
         </is>
       </c>
     </row>
@@ -5546,17 +6958,23 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164523624-carregador-jfa-storm-70a-144v-mais-completa-smart-cca-sci-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ec925d3-91e4-4a71-8c8e-1aa0aed08916</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164523624-carregador-jfa-storm-70a-144v-mais-completa-smart-cca-sci-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
         </is>
       </c>
     </row>
@@ -5571,17 +6989,23 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174613433-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ec925d3-91e4-4a71-8c8e-1aa0aed08916</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174613433-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
         </is>
       </c>
     </row>
@@ -5596,17 +7020,23 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164529899-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ec925d3-91e4-4a71-8c8e-1aa0aed08916</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164529899-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
         </is>
       </c>
     </row>
@@ -5621,17 +7051,23 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164536144-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ec925d3-91e4-4a71-8c8e-1aa0aed08916</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164536144-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
         </is>
       </c>
     </row>
@@ -5646,17 +7082,23 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717118463-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ec925d3-91e4-4a71-8c8e-1aa0aed08916</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717118463-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
         </is>
       </c>
     </row>
@@ -5671,17 +7113,23 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724067657-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ec925d3-91e4-4a71-8c8e-1aa0aed08916</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2724067657-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
         </is>
       </c>
     </row>
@@ -5696,17 +7144,23 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717151233-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ec925d3-91e4-4a71-8c8e-1aa0aed08916</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717151233-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
         </is>
       </c>
     </row>
@@ -5721,17 +7175,23 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724073524-controle-longa-distncia-jfa-k1200-resistente-a-agua-preto-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ec925d3-91e4-4a71-8c8e-1aa0aed08916</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2724073524-controle-longa-distncia-jfa-k1200-resistente-a-agua-preto-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
         </is>
       </c>
     </row>
@@ -5746,17 +7206,23 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717157049-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ec925d3-91e4-4a71-8c8e-1aa0aed08916</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717157049-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
         </is>
       </c>
     </row>
@@ -5771,17 +7237,23 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724077994-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ec925d3-91e4-4a71-8c8e-1aa0aed08916</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2724077994-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
         </is>
       </c>
     </row>
@@ -5796,17 +7268,23 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717169947-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ec925d3-91e4-4a71-8c8e-1aa0aed08916</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717169947-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
         </is>
       </c>
     </row>
@@ -5821,17 +7299,23 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724101310-controle-longa-distncia-jfa-k1200-resistente-a-agua-preto-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ec925d3-91e4-4a71-8c8e-1aa0aed08916</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2724101310-controle-longa-distncia-jfa-k1200-resistente-a-agua-preto-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
         </is>
       </c>
     </row>
@@ -5846,17 +7330,23 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717191676-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ec925d3-91e4-4a71-8c8e-1aa0aed08916</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717191676-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
         </is>
       </c>
     </row>
@@ -5871,17 +7361,23 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724219332-controle-longa-distncia-jfa-k1200-resistente-a-agua-branco-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ec925d3-91e4-4a71-8c8e-1aa0aed08916</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2724219332-controle-longa-distncia-jfa-k1200-resistente-a-agua-branco-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
         </is>
       </c>
     </row>
@@ -5896,17 +7392,23 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717192368-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ec925d3-91e4-4a71-8c8e-1aa0aed08916</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717192368-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
         </is>
       </c>
     </row>
@@ -5921,17 +7423,23 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724231286-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ec925d3-91e4-4a71-8c8e-1aa0aed08916</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2724231286-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
         </is>
       </c>
     </row>
@@ -5946,17 +7454,23 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724250206-controle-longa-distancia-jfa-k1200-acqua-completo-top-branco-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ec925d3-91e4-4a71-8c8e-1aa0aed08916</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2724250206-controle-longa-distancia-jfa-k1200-acqua-completo-top-branco-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
         </is>
       </c>
     </row>
@@ -5971,17 +7485,23 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3311520957-controle-universal-longa-jfa-k600-branco-cinza-modo-aprender-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db368f91a-c34b-4e3d-b8ab-403c7cd16949</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3311520957-controle-universal-longa-jfa-k600-branco-cinza-modo-aprender-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db92b05bf-d2f0-450f-b21b-f86de5dc1495</t>
         </is>
       </c>
     </row>
@@ -5996,17 +7516,23 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3452375078-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db368f91a-c34b-4e3d-b8ab-403c7cd16949</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3452375078-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db92b05bf-d2f0-450f-b21b-f86de5dc1495</t>
         </is>
       </c>
     </row>
@@ -6021,17 +7547,23 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182763848-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98ecadfe-cfc0-471b-9e22-0330a7afee68</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1182763848-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D48a23f88-129d-4d72-bcbf-39042ed979de</t>
         </is>
       </c>
     </row>
@@ -6046,17 +7578,23 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465447643-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98ecadfe-cfc0-471b-9e22-0330a7afee68</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465447643-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D48a23f88-129d-4d72-bcbf-39042ed979de</t>
         </is>
       </c>
     </row>
@@ -6071,17 +7609,23 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927412551-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-110v-220v-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98ecadfe-cfc0-471b-9e22-0330a7afee68</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2927412551-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-110v-220v-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D48a23f88-129d-4d72-bcbf-39042ed979de</t>
         </is>
       </c>
     </row>
@@ -6096,17 +7640,23 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567196-fonte-automotiva-spark-usina-120a-controle-jfa-k600-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98ecadfe-cfc0-471b-9e22-0330a7afee68</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567196-fonte-automotiva-spark-usina-120a-controle-jfa-k600-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D48a23f88-129d-4d72-bcbf-39042ed979de</t>
         </is>
       </c>
     </row>
@@ -6121,17 +7671,23 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182763864-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98ecadfe-cfc0-471b-9e22-0330a7afee68</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1182763864-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D48a23f88-129d-4d72-bcbf-39042ed979de</t>
         </is>
       </c>
     </row>
@@ -6146,17 +7702,23 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465466759-jfa-k600-combo-5-pecas-longa-distancia-cores-variadas-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98ecadfe-cfc0-471b-9e22-0330a7afee68</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465466759-jfa-k600-combo-5-pecas-longa-distancia-cores-variadas-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D48a23f88-129d-4d72-bcbf-39042ed979de</t>
         </is>
       </c>
     </row>
@@ -6171,17 +7733,23 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182763875-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98ecadfe-cfc0-471b-9e22-0330a7afee68</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1182763875-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D48a23f88-129d-4d72-bcbf-39042ed979de</t>
         </is>
       </c>
     </row>
@@ -6196,17 +7764,27 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498563536-fonte-carregador-120a-jfa-sci-digital-pwm-muito-forte-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D31b32931-6751-4dff-b23f-715a7fabe9a5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498563536-fonte-carregador-120a-jfa-sci-digital-pwm-muito-forte-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D54c102e2-fb79-4a84-b3ec-0e057f07cb05</t>
         </is>
       </c>
     </row>
@@ -6221,17 +7799,23 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567121-fonte-automotiva-200-a-jfa-sci-carregador-automatico-slim-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D31b32931-6751-4dff-b23f-715a7fabe9a5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567121-fonte-automotiva-200-a-jfa-sci-carregador-automatico-slim-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D54c102e2-fb79-4a84-b3ec-0e057f07cb05</t>
         </is>
       </c>
     </row>
@@ -6246,17 +7830,27 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567012-fonte-automotiva-120-a-jfa-carregador-com-sistema-pwm-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D31b32931-6751-4dff-b23f-715a7fabe9a5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567012-fonte-automotiva-120-a-jfa-carregador-com-sistema-pwm-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D54c102e2-fb79-4a84-b3ec-0e057f07cb05</t>
         </is>
       </c>
     </row>
@@ -6271,17 +7865,27 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567073-fonte-automotiva-120a-jfa-carregador-slim-pwm-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D31b32931-6751-4dff-b23f-715a7fabe9a5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567073-fonte-automotiva-120a-jfa-carregador-slim-pwm-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D54c102e2-fb79-4a84-b3ec-0e057f07cb05</t>
         </is>
       </c>
     </row>
@@ -6296,17 +7900,27 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569101-fonte-automotiva-120a-jfa-sci-carregador-slim-oferta-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D31b32931-6751-4dff-b23f-715a7fabe9a5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569101-fonte-automotiva-120a-jfa-sci-carregador-slim-oferta-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D54c102e2-fb79-4a84-b3ec-0e057f07cb05</t>
         </is>
       </c>
     </row>
@@ -6321,17 +7935,23 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566645-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D31b32931-6751-4dff-b23f-715a7fabe9a5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566645-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D54c102e2-fb79-4a84-b3ec-0e057f07cb05</t>
         </is>
       </c>
     </row>

--- a/dados/radicalsom shop.xlsx
+++ b/dados/radicalsom shop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G236"/>
+  <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,13 +476,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>87.90000000000001</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:98447332#searchVariation=MLB27685629&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:98447332#searchVariation=MLB27685629&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
         </is>
       </c>
     </row>
@@ -507,13 +507,13 @@
           <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>54.99</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:98447332#searchVariation=MLB27970249&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:98447332#searchVariation=MLB27970249&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
         </is>
       </c>
     </row>
@@ -538,13 +538,13 @@
           <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>90.78</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:98447332#searchVariation=MLB28557249&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:98447332#searchVariation=MLB28557249&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
         </is>
       </c>
     </row>
@@ -569,13 +569,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>84.42</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:98447332#searchVariation=MLB27687422&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:98447332#searchVariation=MLB27687422&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
         </is>
       </c>
     </row>
@@ -600,13 +600,13 @@
           <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>54.99</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:98447332#searchVariation=MLB32364344&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:98447332#searchVariation=MLB32364344&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
         </is>
       </c>
     </row>
@@ -631,14 +631,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>634.4</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -656,7 +656,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:98447332#searchVariation=MLB21392652&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:98447332#searchVariation=MLB21392652&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
         </is>
       </c>
     </row>
@@ -666,13 +666,13 @@
           <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>860.98</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:98447332#searchVariation=MLB24006449&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:98447332#searchVariation=MLB24006449&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
         </is>
       </c>
     </row>
@@ -697,15 +697,19 @@
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>599.71</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>NA</t>
@@ -718,7 +722,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:98447332#searchVariation=MLB22144397&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:98447332#searchVariation=MLB22144397&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
         </is>
       </c>
     </row>
@@ -728,14 +732,14 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>845.87</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -753,7 +757,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:98447332#searchVariation=MLB21348561&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:98447332#searchVariation=MLB21348561&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
         </is>
       </c>
     </row>
@@ -763,13 +767,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>61.19</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -784,7 +788,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:98447332#searchVariation=MLB34210379&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:98447332#searchVariation=MLB34210379&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
         </is>
       </c>
     </row>
@@ -794,14 +798,14 @@
           <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>716.71</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -819,7 +823,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:98447332#searchVariation=MLB24154371&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:98447332#searchVariation=MLB24154371&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
         </is>
       </c>
     </row>
@@ -829,15 +833,19 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>693.7</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -850,7 +858,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:98447332#searchVariation=MLB24834408&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:98447332#searchVariation=MLB24834408&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
         </is>
       </c>
     </row>
@@ -860,13 +868,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>61.19</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -881,7 +889,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:98447332#searchVariation=MLB28687615&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:98447332#searchVariation=MLB28687615&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
         </is>
       </c>
     </row>
@@ -891,13 +899,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>61.19</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -912,25 +920,29 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:98447332#searchVariation=MLB28722231&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:98447332#searchVariation=MLB28722231&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jfa K600 - Combo 5 Peças Longa Distancia Cores Variadas</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>269</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>422.93</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -943,27 +955,27 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-k600-combo-5-pecas-longa-distancia-cores-variadas/p/MLB27993263?pdp_filters=seller_id:98447332#searchVariation=MLB27993263&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:98447332#searchVariation=MLB21562641&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>422.93</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
+          <t>Jfa K600 - Combo 5 Peças Longa Distancia Cores Variadas</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>269</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -978,7 +990,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:98447332#searchVariation=MLB21562641&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
+          <t>https://www.mercadolivre.com.br/jfa-k600-combo-5-pecas-longa-distancia-cores-variadas/p/MLB27993263?pdp_filters=seller_id:98447332#searchVariation=MLB27993263&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
         </is>
       </c>
     </row>
@@ -988,15 +1000,19 @@
           <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>548.24</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1009,7 +1025,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:98447332#searchVariation=MLB21455208&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:98447332#searchVariation=MLB21455208&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
         </is>
       </c>
     </row>
@@ -1019,14 +1035,14 @@
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>443.07</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1044,7 +1060,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:98447332#searchVariation=MLB21320712&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=0301f8fc-d4f5-424d-89de-f98ea748f700</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:98447332#searchVariation=MLB21320712&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
         </is>
       </c>
     </row>
@@ -1054,13 +1070,13 @@
           <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>54.99</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -1075,7 +1091,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:98447332#searchVariation=MLB32381086&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=25981631-55e2-455c-8435-6e37ee401827</t>
+          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:98447332#searchVariation=MLB32381086&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=db0c3ee1-841d-48f3-b5b5-8b8394af7ec8</t>
         </is>
       </c>
     </row>
@@ -1085,13 +1101,13 @@
           <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>73.90000000000001</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
@@ -1106,7 +1122,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:98447332#searchVariation=MLB31403178&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=25981631-55e2-455c-8435-6e37ee401827</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:98447332#searchVariation=MLB31403178&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=db0c3ee1-841d-48f3-b5b5-8b8394af7ec8</t>
         </is>
       </c>
     </row>
@@ -1116,13 +1132,13 @@
           <t>Fonte Usina 200ah Bivolt + Controle Jfa K600 Brinde</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>899</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -1137,25 +1153,29 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1968888369-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25981631-55e2-455c-8435-6e37ee401827</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1968888369-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddb0c3ee1-841d-48f3-b5b5-8b8394af7ec8</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Multimídia Import</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>99</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>Fonte Carregador Automotivo Jfa 120a Sci Redline Red Line</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1168,29 +1188,25 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498563162-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25981631-55e2-455c-8435-6e37ee401827</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305184466-fonte-carregador-automotivo-jfa-120a-sci-redline-red-line-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddb0c3ee1-841d-48f3-b5b5-8b8394af7ec8</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Sci Redline Red Line</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Fonte Carregador Jfa 200a Sci Redline Volt/amp 110 / 220v</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>805.59</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1198,28 +1214,28 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305184466-fonte-carregador-automotivo-jfa-120a-sci-redline-red-line-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25981631-55e2-455c-8435-6e37ee401827</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305212758-fonte-carregador-jfa-200a-sci-redline-voltamp-110-220v-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddb0c3ee1-841d-48f3-b5b5-8b8394af7ec8</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Sci Redline Volt/amp 110 / 220v</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Longa Distancia Jfa Redline Wr P Multimídia Import</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>99</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
@@ -1229,12 +1245,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305212758-fonte-carregador-jfa-200a-sci-redline-voltamp-110-220v-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25981631-55e2-455c-8435-6e37ee401827</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498563162-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddb0c3ee1-841d-48f3-b5b5-8b8394af7ec8</t>
         </is>
       </c>
     </row>
@@ -1244,15 +1260,19 @@
           <t>Jfa 60 A - Fonte Carregador Bateria Inteligente Estabilizada</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>492.3</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1265,23 +1285,23 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1096690111-jfa-60-a-fonte-carregador-bateria-inteligente-estabilizada-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1096690111-jfa-60-a-fonte-carregador-bateria-inteligente-estabilizada-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddb0c3ee1-841d-48f3-b5b5-8b8394af7ec8</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>772.02</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Longa Distancia Jfa Redline Wr P Multimídia Import</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>100.98</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
@@ -1296,25 +1316,29 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717157810-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1331581740-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b4307f1-c585-4cc5-b1ec-85cbcd5b7a28</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Multimídia Import</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>100.98</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>772.02</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1327,7 +1351,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1331581740-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717157810-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b4307f1-c585-4cc5-b1ec-85cbcd5b7a28</t>
         </is>
       </c>
     </row>
@@ -1337,15 +1361,19 @@
           <t>Fonte Jfa Para Caixa Bob Esponja Storm 200a Bivolt Forte</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>772.02</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1358,7 +1386,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717143773-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717143773-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b4307f1-c585-4cc5-b1ec-85cbcd5b7a28</t>
         </is>
       </c>
     </row>
@@ -1368,13 +1396,13 @@
           <t>Controle Longa Distancia Jfa K1200 Vermelho Similar  Stetsom</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>64.90000000000001</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
@@ -1389,7 +1417,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1470305278-controle-longa-distancia-jfa-k1200-vermelho-similar-stetsom-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1470305278-controle-longa-distancia-jfa-k1200-vermelho-similar-stetsom-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b4307f1-c585-4cc5-b1ec-85cbcd5b7a28</t>
         </is>
       </c>
     </row>
@@ -1399,15 +1427,19 @@
           <t xml:space="preserve">Fonte Carregador Jfa 200a Sci Redline Voltímetro Bivolt </t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>1050</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1420,25 +1452,29 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569053-fonte-carregador-jfa-200a-sci-redline-voltimetro-bivolt-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569053-fonte-carregador-jfa-200a-sci-redline-voltimetro-bivolt-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b4307f1-c585-4cc5-b1ec-85cbcd5b7a28</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 200 Amperes Jfa Carregador Original</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+          <t>Fonte Carregador 200 Amperes Jfa Sci Inteligente 10.000w Rms</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>939.86</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1451,25 +1487,29 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1049919967-fonte-automotiva-200-amperes-jfa-carregador-original-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182763848-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b4307f1-c585-4cc5-b1ec-85cbcd5b7a28</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200 Amperes Sci Mais Vendido Do Brasil</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+          <t>Fonte Automotiva 200 Amperes Jfa Carregador Original</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>939.86</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1482,25 +1522,29 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182758232-fonte-carregador-jfa-200-amperes-sci-mais-vendido-do-brasil-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1049919967-fonte-automotiva-200-amperes-jfa-carregador-original-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b4307f1-c585-4cc5-b1ec-85cbcd5b7a28</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 200 Amperes Jfa Storm Redline Cca Sci Smart</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+          <t>Fonte Carregador Jfa 200 Amperes Sci Mais Vendido Do Brasil</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>939.86</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1513,25 +1557,29 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174612894-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182758232-fonte-carregador-jfa-200-amperes-sci-mais-vendido-do-brasil-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b4307f1-c585-4cc5-b1ec-85cbcd5b7a28</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200 Amperes Sci Mais Forte Do Brasil</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
+          <t>Fonte Automotiva 200 Amperes Jfa Storm Redline Cca Sci Smart</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>939.86</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1544,25 +1592,29 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498563555-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174612894-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b4307f1-c585-4cc5-b1ec-85cbcd5b7a28</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Sci Digital Bivolt 110 / 220v</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+          <t>Fonte Carregador Jfa 200 Amperes Sci Mais Forte Do Brasil</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>939.86</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1575,23 +1627,23 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569128-fonte-carregador-jfa-200a-sci-digital-bivolt-110-220v-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b9f3141-7d59-4eed-9cf5-1a2e8b850bbd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498563555-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b4307f1-c585-4cc5-b1ec-85cbcd5b7a28</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Bivolt Flutuação Proteção</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+          <t>Fonte Carregador Jfa 200a Sci Digital Bivolt 110 / 220v</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
         <v>939.86</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
@@ -1606,25 +1658,29 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174611533-fonte-carregador-jfa-storm-200a-bivolt-flutuaco-proteco-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569128-fonte-carregador-jfa-200a-sci-digital-bivolt-110-220v-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 60a Slim Azul Bivolt Voltímetro Digital</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>799</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Storm 200a Bivolt Flutuação Proteção</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>939.86</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1637,25 +1693,29 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566936-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-digital-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174611533-fonte-carregador-jfa-storm-200a-bivolt-flutuaco-proteco-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Sci Redline Red Line</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>738.9</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa 60a Slim Azul Bivolt Voltímetro Digital</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>799</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1668,25 +1728,29 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569066-fonte-carregador-automotivo-jfa-120a-sci-redline-red-line-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566936-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-digital-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Melhor Fonte 200a Caixa Bob Jfa 200a Storm Lite 110/220v</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>716.71</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>Fonte Carregador Automotivo Jfa 120a Sci Redline Red Line</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>738.9</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1699,23 +1763,23 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3603511670-melhor-fonte-200a-caixa-bob-jfa-200a-storm-lite-110220v-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569066-fonte-carregador-automotivo-jfa-120a-sci-redline-red-line-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>699</v>
-      </c>
-      <c r="C41" t="inlineStr">
+          <t>Melhor Fonte 200a Caixa Bob Jfa 200a Storm Lite 110/220v</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C41" t="n">
+        <v>716.71</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
@@ -1730,29 +1794,25 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1046249773-fonte-automotiva-spark-usina-120a-controle-jfa-k600-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3603511670-melhor-fonte-200a-caixa-bob-jfa-200a-storm-lite-110220v-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo 2019</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>699</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1765,24 +1825,24 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237796256-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2019-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1046249773-fonte-automotiva-spark-usina-120a-controle-jfa-k600-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Amperes Redline Voltímetro Digital</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo 2019</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D43" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1800,27 +1860,27 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1564745106-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digital-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237796256-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2019-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120 Amperes Sci Redline Volt/amp</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Automotiva Jfa 70a Slim Bivolt Voltímetro Digital Som</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>581.8200000000001</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1835,24 +1895,24 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305190307-fonte-carregador-jfa-120-amperes-sci-redline-voltamp-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1186951471-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Automotivo 120a Jfa Digital Sci Bivolt </t>
-        </is>
-      </c>
-      <c r="B45" t="n">
+          <t>Fonte Automotiva Jfa 120a Amperes Redline Voltímetro Digital</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1870,27 +1930,27 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569100-fonte-carregador-automotivo-120a-jfa-digital-sci-bivolt-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1564745106-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digital-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador Sci Automatico 2019</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Carregador Jfa 70a Sci  Slim Bivolt Volt / Amp Oferta</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>581.8200000000001</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1905,24 +1965,24 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1046393142-fonte-automotiva-120-a-jfa-carregador-sci-automatico-2019-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1186960628-fonte-carregador-jfa-70a-sci-slim-bivolt-volt-amp-oferta-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Sci Redline Digital Pwm</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
+          <t>Fonte Carregador Jfa 120 Amperes Sci Redline Volt/amp</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1940,27 +2000,27 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305188255-fonte-carregador-jfa-120a-sci-redline-digital-pwm-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305190307-fonte-carregador-jfa-120-amperes-sci-redline-voltamp-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo 2020</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Carregador Para Sistema Solar Jfa 70a 110/220v</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>581.8200000000001</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1975,25 +2035,29 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569093-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2020-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562481526-fonte-carregador-para-sistema-solar-jfa-70a-110220v-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 70a Slim Bivolt Voltímetro Digital Som</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>581.8200000000001</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t xml:space="preserve">Fonte Carregador Automotivo 120a Jfa Digital Sci Bivolt </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2006,25 +2070,29 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1186951471-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569100-fonte-carregador-automotivo-120a-jfa-digital-sci-bivolt-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Sci  Slim Bivolt Volt / Amp Oferta</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>581.8200000000001</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Storm 70a Carga Lenta Motor Home</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>581.8099999999999</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2037,25 +2105,29 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1186960628-fonte-carregador-jfa-70a-sci-slim-bivolt-volt-amp-oferta-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164536163-fonte-carregador-jfa-storm-70a-carga-lenta-motor-home-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fonte Carregador Para Sistema Solar Jfa 70a 110/220v</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>581.8200000000001</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>Fonte Automotiva 120 A Jfa Carregador Sci Automatico 2019</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2068,25 +2140,29 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562481526-fonte-carregador-para-sistema-solar-jfa-70a-110220v-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1046393142-fonte-automotiva-120-a-jfa-carregador-sci-automatico-2019-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 70a Carga Lenta Motor Home</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>581.8099999999999</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 120a Sci Redline Digital Pwm</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2099,25 +2175,29 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164536163-fonte-carregador-jfa-storm-70a-carga-lenta-motor-home-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305188255-fonte-carregador-jfa-120a-sci-redline-digital-pwm-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Jfa 60 A Slim Sci Fonte Carregador Bateria 12v Inteligente</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>525.87</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo 2020</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2130,25 +2210,29 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1096690112-jfa-60-a-slim-sci-fonte-carregador-bateria-12v-inteligente-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569093-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2020-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Melhor Fonte Automotiva 60a Jfa Carregador Inteligente +fret</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
+          <t>Jfa 60 A Slim Sci Fonte Carregador Bateria 12v Inteligente</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
         <v>525.87</v>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2161,25 +2245,29 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1096690109-melhor-fonte-automotiva-60a-jfa-carregador-inteligente-fret-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1096690112-jfa-60-a-slim-sci-fonte-carregador-bateria-12v-inteligente-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Estacionaria Jfa 60a Slim 110/220v</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
+          <t>Melhor Fonte Automotiva 60a Jfa Carregador Inteligente +fret</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
         <v>525.87</v>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2192,25 +2280,29 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562481066-fonte-carregador-bateria-estacionaria-jfa-60a-slim-110220v-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1096690109-melhor-fonte-automotiva-60a-jfa-carregador-inteligente-fret-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 60 Amperes Jfa Storm Red Line Cca Sci Smart</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
+          <t>Fonte Carregador Bateria Estacionaria Jfa 60a Slim 110/220v</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
         <v>525.87</v>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2223,25 +2315,29 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164404273-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a235f5f-9b38-4507-8c64-c3036a017380</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562481066-fonte-carregador-bateria-estacionaria-jfa-60a-slim-110220v-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De77752f4-8e57-4ce0-80ef-690517514a45</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Melhor Fonte 70a Caixa Bob Jfa 70a Storm Lite 110/220v</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>529.38</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>Fonte Automotiva 60 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>525.87</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2254,23 +2350,23 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312769683-melhor-fonte-70a-caixa-bob-jfa-70a-storm-lite-110220v-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De8848868-22f9-421f-80ff-4a48ae903992</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164404273-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De77752f4-8e57-4ce0-80ef-690517514a45</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Storm Lite Bivolt P/ Caixa Bob</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
+          <t>Melhor Fonte 70a Caixa Bob Jfa 70a Storm Lite 110/220v</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
         <v>529.38</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
@@ -2285,23 +2381,23 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312798635-fonte-carregador-jfa-70a-storm-lite-bivolt-p-caixa-bob-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De8848868-22f9-421f-80ff-4a48ae903992</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312769683-melhor-fonte-70a-caixa-bob-jfa-70a-storm-lite-110220v-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De77752f4-8e57-4ce0-80ef-690517514a45</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 60a Slim Azul Bivolt Voltímetro Digital</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>525.87</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Fonte Carregador Jfa 70a Storm Lite Bivolt P/ Caixa Bob</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>529.38</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
@@ -2316,25 +2412,29 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474108302-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-digital-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De8848868-22f9-421f-80ff-4a48ae903992</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312798635-fonte-carregador-jfa-70a-storm-lite-bivolt-p-caixa-bob-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De77752f4-8e57-4ce0-80ef-690517514a45</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Fonte Caregador Jfa 60a Voltímetro/ Amp Redline Sci Bivolt</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
+          <t>Fonte Automotiva Jfa 60a Slim Azul Bivolt Voltímetro Digital</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
         <v>525.87</v>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2347,7 +2447,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498563524-fonte-caregador-jfa-60a-voltimetro-amp-redline-sci-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De8848868-22f9-421f-80ff-4a48ae903992</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474108302-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-digital-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De77752f4-8e57-4ce0-80ef-690517514a45</t>
         </is>
       </c>
     </row>
@@ -2357,17 +2457,17 @@
           <t>Fonte Caregador Jfa 60a Voltímetro/ Amp Redline Sci Bivolt</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>473.28</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>525.87</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2382,25 +2482,29 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305130684-fonte-caregador-jfa-60a-voltimetro-amp-redline-sci-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De8848868-22f9-421f-80ff-4a48ae903992</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498563524-fonte-caregador-jfa-60a-voltimetro-amp-redline-sci-bivolt-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De77752f4-8e57-4ce0-80ef-690517514a45</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Kit 5 Unid Controle Loga Distancia Jfa K600 Cores Variadas</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>359</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>Fonte Caregador Jfa 60a Voltímetro/ Amp Redline Sci Bivolt</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>473.28</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2413,7 +2517,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566625-kit-5-unid-controle-loga-distancia-jfa-k600-cores-variadas-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De8848868-22f9-421f-80ff-4a48ae903992</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305130684-fonte-caregador-jfa-60a-voltimetro-amp-redline-sci-bivolt-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De77752f4-8e57-4ce0-80ef-690517514a45</t>
         </is>
       </c>
     </row>
@@ -2423,14 +2527,14 @@
           <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
         <v>422.93</v>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -2448,7 +2552,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927400034-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4950312c-9a34-4eb2-bb19-d8dfa4f5c1ac</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927400034-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De28861ba-e532-4520-bf5c-76867a85c505</t>
         </is>
       </c>
     </row>
@@ -2458,15 +2562,19 @@
           <t>Jfa 60 A Slim Sci Fonte Carregador Bateria 12v Inteligente</t>
         </is>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
         <v>492.3</v>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2479,7 +2587,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1096687395-jfa-60-a-slim-sci-fonte-carregador-bateria-12v-inteligente-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4950312c-9a34-4eb2-bb19-d8dfa4f5c1ac</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1096687395-jfa-60-a-slim-sci-fonte-carregador-bateria-12v-inteligente-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De28861ba-e532-4520-bf5c-76867a85c505</t>
         </is>
       </c>
     </row>
@@ -2489,15 +2597,19 @@
           <t>Fonte Carregador 200 Amperes Jfa Sci Inteligente 10.000w Rms</t>
         </is>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
         <v>895.1</v>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2510,7 +2622,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569129-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4950312c-9a34-4eb2-bb19-d8dfa4f5c1ac</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569129-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De28861ba-e532-4520-bf5c-76867a85c505</t>
         </is>
       </c>
     </row>
@@ -2520,15 +2632,19 @@
           <t>Fonte Carregador Automotiva 200 A Jfa Sci 2019 Oferta</t>
         </is>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
         <v>895.1</v>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2541,7 +2657,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1046354083-fonte-carregador-automotiva-200-a-jfa-sci-2019-oferta-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4950312c-9a34-4eb2-bb19-d8dfa4f5c1ac</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1046354083-fonte-carregador-automotiva-200-a-jfa-sci-2019-oferta-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De28861ba-e532-4520-bf5c-76867a85c505</t>
         </is>
       </c>
     </row>
@@ -2551,14 +2667,14 @@
           <t>Fonte Automotiva Jfa 120a Amperes Redline Voltímetro Digita</t>
         </is>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
         <v>634.4</v>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -2576,7 +2692,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562506276-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4950312c-9a34-4eb2-bb19-d8dfa4f5c1ac</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562506276-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
         </is>
       </c>
     </row>
@@ -2586,15 +2702,19 @@
           <t>Fonte Automotiva 60 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
         <v>492.3</v>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2607,7 +2727,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164410356-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164410356-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
         </is>
       </c>
     </row>
@@ -2617,15 +2737,19 @@
           <t>Carregador Fonte Para Bateria Estacionaria Nobraque Jfa 70a</t>
         </is>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
         <v>548.24</v>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2638,23 +2762,23 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562477727-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562477727-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciado Jfa Digital Vs5hi Alta/baixa Voltagem</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="C70" t="inlineStr">
+          <t>Fonte Usina 200ah Bivolt + Controle Jfa K600 Brinde</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C70" t="n">
+        <v>819</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
@@ -2664,28 +2788,28 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569281-voltimetro-sequenciado-jfa-digital-vs5hi-altabaixa-voltagem-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1968888554-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Fonte Usina 200ah Bivolt + Controle Jfa K600 Brinde</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>819</v>
-      </c>
-      <c r="C71" t="inlineStr">
+          <t>Voltímetro Sequenciado Jfa Digital Vs5hi Alta/baixa Voltagem</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C71" t="n">
+        <v>66.8</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
@@ -2695,12 +2819,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1968888554-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569281-voltimetro-sequenciado-jfa-digital-vs5hi-altabaixa-voltagem-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
         </is>
       </c>
     </row>
@@ -2710,13 +2834,13 @@
           <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
         </is>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
         <v>100.98</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
@@ -2731,25 +2855,29 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1331585000-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1331585000-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Sci  Slim Bivolt Volt / Amp Oferta</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>548.24</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>693.7</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2762,25 +2890,29 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1186960840-fonte-carregador-jfa-70a-sci-slim-bivolt-volt-amp-oferta-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717192566-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>693.7</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 70a Sci  Slim Bivolt Volt / Amp Oferta</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>548.24</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2793,29 +2925,25 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717192566-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1186960840-fonte-carregador-jfa-70a-sci-slim-bivolt-volt-amp-oferta-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva Jfa 60a Slim Azul Bivolt Voltímetro </t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle De Suspensão Ar Jfa Air Control Black</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>193</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2828,25 +2956,29 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474104454-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1814402952-controle-de-suspenso-ar-jfa-air-control-black-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Controle De Suspensão Ar Jfa Air Control Black</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>193</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t xml:space="preserve">Fonte Carregador 120a Jfa P/ Sistema Solar Estacionária </t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>634.4</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2859,23 +2991,23 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1814402952-controle-de-suspenso-ar-jfa-air-control-black-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790206-fonte-carregador-120a-jfa-p-sistema-solar-estacionaria-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador 120a Jfa P/ Sistema Solar Estacionária </t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t xml:space="preserve">Fonte Automotiva Jfa 60a Slim Azul Bivolt Voltímetro </t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>443.07</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2894,7 +3026,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790206-fonte-carregador-120a-jfa-p-sistema-solar-estacionaria-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474104454-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
         </is>
       </c>
     </row>
@@ -2904,13 +3036,13 @@
           <t>Voltímetro Sequenciador Jfa Digital Vs5hi Alta/baixa Voltage</t>
         </is>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
         <v>67.8</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
@@ -2925,7 +3057,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1490301022-voltimetro-sequenciador-jfa-digital-vs5hi-altabaixa-voltage-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1490301022-voltimetro-sequenciador-jfa-digital-vs5hi-altabaixa-voltage-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
         </is>
       </c>
     </row>
@@ -2935,15 +3067,19 @@
           <t>Fonte Automotiva 200 Amperes Jfa Storm Redline Cca Sci Smart</t>
         </is>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
         <v>895.1</v>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2956,7 +3092,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174593764-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174593764-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
         </is>
       </c>
     </row>
@@ -2966,13 +3102,13 @@
           <t>Voltímetro Sequenciado Jfa Digital Vs5hi Alta/baixa Voltagem</t>
         </is>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
         <v>77.98999999999999</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
@@ -2987,7 +3123,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1490301023-voltimetro-sequenciado-jfa-digital-vs5hi-altabaixa-voltagem-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1490301023-voltimetro-sequenciado-jfa-digital-vs5hi-altabaixa-voltagem-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
         </is>
       </c>
     </row>
@@ -2997,15 +3133,19 @@
           <t>Melhor Fonte Automotiva 60a Jfa Carregador Inteligente +fret</t>
         </is>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
         <v>799</v>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3018,7 +3158,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569191-melhor-fonte-automotiva-60a-jfa-carregador-inteligente-fret-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb9cedd-3296-4468-b6ca-27ae2a767b9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569191-melhor-fonte-automotiva-60a-jfa-carregador-inteligente-fret-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
         </is>
       </c>
     </row>
@@ -3028,13 +3168,13 @@
           <t>Controle Jfa Suspensão Ar Air Control Longa Distancia 2019</t>
         </is>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
         <v>193</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
@@ -3049,7 +3189,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1046440886-controle-jfa-suspenso-ar-air-control-longa-distancia-2019-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1046440886-controle-jfa-suspenso-ar-air-control-longa-distancia-2019-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
         </is>
       </c>
     </row>
@@ -3059,13 +3199,13 @@
           <t>Melhor Voltímetro Sequenciador Jfa Vs5hi 12v + Vendido</t>
         </is>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
         <v>67.8</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
@@ -3080,7 +3220,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875306704-melhor-voltimetro-sequenciador-jfa-vs5hi-12v-vendido-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1875306704-melhor-voltimetro-sequenciador-jfa-vs5hi-12v-vendido-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
         </is>
       </c>
     </row>
@@ -3090,14 +3230,14 @@
           <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Volt/ampe</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
         <v>634.4</v>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -3115,7 +3255,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305194830-fonte-carregador-jfa-120-amperes-sci-red-line-voltampe-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305194830-fonte-carregador-jfa-120-amperes-sci-red-line-voltampe-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
         </is>
       </c>
     </row>
@@ -3125,13 +3265,13 @@
           <t>Voltímetro Sequenciador Jfa Digital Vs5hi Alta/baixa Voltage</t>
         </is>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
         <v>78.8</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
@@ -3146,7 +3286,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569282-voltimetro-sequenciador-jfa-digital-vs5hi-altabaixa-voltage-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569282-voltimetro-sequenciador-jfa-digital-vs5hi-altabaixa-voltage-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
         </is>
       </c>
     </row>
@@ -3156,13 +3296,13 @@
           <t>Sequenciador Voltimetro Medidor Bateria Digital Jfa Vs5 Hi</t>
         </is>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
         <v>77.98999999999999</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
@@ -3177,7 +3317,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875294056-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1875294056-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
         </is>
       </c>
     </row>
@@ -3187,15 +3327,19 @@
           <t>Fonte Jfa Para Caixa Bob Esponja Storm 200a Bivolt Forte</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
         <v>693.7</v>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3208,7 +3352,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717191411-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717191411-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
         </is>
       </c>
     </row>
@@ -3218,15 +3362,19 @@
           <t>Fonte Automotiva 200a Jfa Carregador Original 2019</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
         <v>895.1</v>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3239,7 +3387,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1046357841-fonte-automotiva-200a-jfa-carregador-original-2019-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1046357841-fonte-automotiva-200a-jfa-carregador-original-2019-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
         </is>
       </c>
     </row>
@@ -3249,15 +3397,19 @@
           <t xml:space="preserve">Fonte Automotiva 200a Jfa Sci Carregador Automático Full </t>
         </is>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
         <v>895.1</v>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3270,7 +3422,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182755306-fonte-automotiva-200a-jfa-sci-carregador-automatico-full-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182755306-fonte-automotiva-200a-jfa-sci-carregador-automatico-full-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
         </is>
       </c>
     </row>
@@ -3280,14 +3432,14 @@
           <t>Fonte Carregador Jfa 120a Sci Digital Automatica</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
         <v>634.4</v>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -3305,7 +3457,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237799972-fonte-carregador-jfa-120a-sci-digital-automatica-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237799972-fonte-carregador-jfa-120a-sci-digital-automatica-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
         </is>
       </c>
     </row>
@@ -3315,13 +3467,13 @@
           <t>Fonte Carregador Jfa 200a Sci Redline Bivolt 110/220v</t>
         </is>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
         <v>1020</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
@@ -3336,25 +3488,29 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567020-fonte-carregador-jfa-200a-sci-redline-bivolt-110220v-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567020-fonte-carregador-jfa-200a-sci-redline-bivolt-110220v-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Automotiva Pwm Sci Bivolt</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>799</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+          <t>Fonte Carregador 120 A Jfa Com Sistema Sci Volt/amp</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>634.4</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3367,25 +3523,29 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569097-fonte-carregador-jfa-120a-automotiva-pwm-sci-bivolt-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569045-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Rca Cd Dvd Eletromagnético Stereo</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>59.99</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 120a Automotiva Pwm Sci Bivolt</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>799</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3398,23 +3558,23 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2087198179-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569097-fonte-carregador-jfa-120a-automotiva-pwm-sci-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Resistente A Água Branco</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="C94" t="inlineStr">
+          <t>Filtro Anti-ruido Jfa Rca Cd Dvd Eletromagnético Stereo</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C94" t="n">
+        <v>59.99</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
@@ -3424,28 +3584,28 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724243915-controle-longa-distncia-jfa-k1200-resistente-a-agua-branco-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a883ef2-3082-4a91-809a-fd716314d6b3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2087198179-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>469.92</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Longa Distância Jfa K1200 Resistente A Água Branco</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>87.90000000000001</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
@@ -3455,12 +3615,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927448002-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724243915-controle-longa-distncia-jfa-k1200-resistente-a-agua-branco-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
         </is>
       </c>
     </row>
@@ -3470,13 +3630,13 @@
           <t>Melhor Fonte 200a Caixa Bob Jfa 200a Storm Lite 110/220v</t>
         </is>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
         <v>681.83</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
@@ -3491,7 +3651,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312850141-melhor-fonte-200a-caixa-bob-jfa-200a-storm-lite-110220v-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312850141-melhor-fonte-200a-caixa-bob-jfa-200a-storm-lite-110220v-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
         </is>
       </c>
     </row>
@@ -3501,13 +3661,13 @@
           <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600</t>
         </is>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
         <v>719</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
@@ -3522,7 +3682,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1087811559-fonte-automotiva-spark-usina-120a-controle-jfa-k600-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1087811559-fonte-automotiva-spark-usina-120a-controle-jfa-k600-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
         </is>
       </c>
     </row>
@@ -3532,15 +3692,19 @@
           <t>Fonte Automotiva Jfa 60a Slim Bivolt Voltimetro Redline Pwm</t>
         </is>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
         <v>492.3</v>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3553,7 +3717,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305130707-fonte-automotiva-jfa-60a-slim-bivolt-voltimetro-redline-pwm-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305130707-fonte-automotiva-jfa-60a-slim-bivolt-voltimetro-redline-pwm-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
         </is>
       </c>
     </row>
@@ -3563,14 +3727,14 @@
           <t>Fonte Carregador Jfa 120 Amperes Sci Redline Pwm</t>
         </is>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
         <v>634.4</v>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -3588,7 +3752,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305185086-fonte-carregador-jfa-120-amperes-sci-redline-pwm-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305185086-fonte-carregador-jfa-120-amperes-sci-redline-pwm-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
         </is>
       </c>
     </row>
@@ -3598,13 +3762,13 @@
           <t>Controle Longa Distancia Jfa K1200 Azul Similar  Stetsom</t>
         </is>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
         <v>64.90000000000001</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
@@ -3619,7 +3783,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1470305417-controle-longa-distancia-jfa-k1200-azul-similar-stetsom-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1470305417-controle-longa-distancia-jfa-k1200-azul-similar-stetsom-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
         </is>
       </c>
     </row>
@@ -3629,13 +3793,13 @@
           <t>Combo 10 Kits Jfa K600 - Controle Longa Distancia P/ Pioneer</t>
         </is>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
         <v>695</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
@@ -3650,27 +3814,27 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566633-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566633-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Fonte Carregador 120 A Jfa Com Sistema Sci Volt/amp</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Carregador Bateria Estacionaria Jfa 60a Slim Bivolt Azul</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>492.3</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3685,23 +3849,23 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569045-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562481180-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Carregador Bateria Estacionaria Jfa 60a Slim Bivolt Azul</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Sequenciador Voltímetro Medidor Bateria Digital Jfa Vs5 Hi</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>67.8</v>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
@@ -3716,23 +3880,23 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562481180-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1875293878-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sequenciador Voltímetro Medidor Bateria Digital Jfa Vs5 Hi</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="C104" t="inlineStr">
+          <t>Melhor Voltímetro Com Sequenciador Jfa Vs5hi Hv 12v</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C104" t="n">
+        <v>77.98999999999999</v>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
@@ -3742,30 +3906,34 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875293878-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1875306853-melhor-voltimetro-com-sequenciador-jfa-vs5hi-hv-12v-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Melhor Voltímetro Com Sequenciador Jfa Vs5hi Hv 12v</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 60a Redline Red Line Smart Cooler</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>492.3</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3773,28 +3941,28 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875306853-melhor-voltimetro-com-sequenciador-jfa-vs5hi-hv-12v-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1983201495-fonte-carregador-jfa-60a-redline-red-line-smart-cooler-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Redline Red Line Smart Cooler</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Filtro Anti Ruido Jfa Rca Com Blindagem P/ Som Automotivo</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>69.90000000000001</v>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
@@ -3804,30 +3972,34 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983201495-fonte-carregador-jfa-60a-redline-red-line-smart-cooler-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2044232386-filtro-anti-ruido-jfa-rca-com-blindagem-p-som-automotivo-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruido Jfa Rca Com Blindagem P/ Som Automotivo</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>548.24</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3835,28 +4007,28 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2044232386-filtro-anti-ruido-jfa-rca-com-blindagem-p-som-automotivo-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164438433-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>548.24</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>84.42</v>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
@@ -3871,25 +4043,29 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164438433-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724100903-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>84.42</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>469.92</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3902,7 +4078,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724100903-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927448002-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
         </is>
       </c>
     </row>
@@ -3912,13 +4088,13 @@
           <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
         </is>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
         <v>818.46</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
@@ -3933,7 +4109,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3284173925-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3284173925-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
         </is>
       </c>
     </row>
@@ -3943,13 +4119,13 @@
           <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca 220v</t>
         </is>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
         <v>818.46</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
@@ -3964,7 +4140,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3284200713-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3284200713-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
         </is>
       </c>
     </row>
@@ -3974,15 +4150,19 @@
           <t>Fonte Jfa 200a Slim Sci Carga Lenta / Rápida 110/220 Volts</t>
         </is>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
         <v>895.1</v>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3995,7 +4175,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182764919-fonte-jfa-200a-slim-sci-carga-lenta-rapida-110220-volts-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182764919-fonte-jfa-200a-slim-sci-carga-lenta-rapida-110220-volts-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
         </is>
       </c>
     </row>
@@ -4005,15 +4185,19 @@
           <t>Fonte Automotiva Jfa 70a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
         <v>548.24</v>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4026,25 +4210,29 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1186957553-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D491c880f-5392-4d7a-83d7-5aada44f832b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1186957553-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 70a Slim Bivolt Voltímetro Digital Som</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>548.24</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 120a Automotiva Pwm Sci Bivolt</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>634.4</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4057,24 +4245,24 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1186957553-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237791569-fonte-carregador-jfa-120a-automotiva-pwm-sci-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Automotiva Pwm Sci Bivolt</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo 2019</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
         <v>634.4</v>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D115" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -4092,29 +4280,25 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237791569-fonte-carregador-jfa-120a-automotiva-pwm-sci-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237799937-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2019-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo 2019</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distancia Jfa Preto / Cinza K600 Full</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4122,12 +4306,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237799937-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2019-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465503280-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
         </is>
       </c>
     </row>
@@ -4137,13 +4321,13 @@
           <t>Controle Longa Distancia Jfa Preto / Cinza K600 Full</t>
         </is>
       </c>
-      <c r="B117" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="C117" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C117" t="n">
+        <v>799</v>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
@@ -4153,30 +4337,34 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465503280-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566617-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Preto / Cinza K600 Full</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>799</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
+          <t>Jfa K600 - Combo 10 Peças Longa Distancia Cores Variadas</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>689</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4189,25 +4377,29 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566617-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566631-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Jfa K600 - Combo 10 Peças Longa Distancia Cores Variadas</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>689</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+          <t>Fonte Carregador Automotivo Jfa 60a Redline 110/220v</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>492.3</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4220,25 +4412,29 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566631-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567051-fonte-carregador-automotivo-jfa-60a-redline-110220v-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Redline 110/220v</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 120a Bivolt Brinde Strobo Rgb</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>679</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4251,25 +4447,29 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567051-fonte-carregador-automotivo-jfa-60a-redline-110220v-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1976483717-fonte-carregador-jfa-120a-bivolt-brinde-strobo-rgb-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bivolt Brinde Strobo Rgb</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>679</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+          <t>Fonte Carregador Automotivo Jfa 60a Redline Bivolt</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>492.3</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4282,23 +4482,23 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1976483717-fonte-carregador-jfa-120a-bivolt-brinde-strobo-rgb-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1983196761-fonte-carregador-automotivo-jfa-60a-redline-bivolt-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Redline Bivolt</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>69.90000000000001</v>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
@@ -4308,30 +4508,34 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983196761-fonte-carregador-automotivo-jfa-60a-redline-bivolt-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2044206582-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+          <t>Nova Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>681.83</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4339,34 +4543,30 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2044206582-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312829707-nova-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Jfa Suspensão Ar Air Control Longa Distancia 2019</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>209</v>
+      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4374,30 +4574,34 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312829707-nova-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0c3bc665-03b4-4727-9f20-8bc882ba5870</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1046435472-controle-jfa-suspenso-ar-air-control-longa-distancia-2019-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Controle Jfa Suspensão Ar Air Control Longa Distancia 2019</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>209</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
+          <t>Fonte Automotiva 120a Jfa Sci Carregador Slim Oferta</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E125" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4410,24 +4614,24 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1046435472-controle-jfa-suspenso-ar-air-control-longa-distancia-2019-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790188-fonte-automotiva-120a-jfa-sci-carregador-slim-oferta-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Jfa Sci Carregador Slim Oferta</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
+          <t xml:space="preserve">Fonte Carregador 120a Jfa Carregador Pwm Muito Forte </t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -4445,23 +4649,23 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790188-fonte-automotiva-120a-jfa-sci-carregador-slim-oferta-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790634-fonte-carregador-120a-jfa-carregador-pwm-muito-forte-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador 120a Jfa Carregador Pwm Muito Forte </t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Automotiva 120a Jfa Carregador Slim Pwm</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>634.4</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -4475,29 +4679,29 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790634-fonte-carregador-120a-jfa-carregador-pwm-muito-forte-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790716-fonte-automotiva-120a-jfa-carregador-slim-pwm-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Jfa Carregador Slim Pwm</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
+          <t>Fonte Carregador 120a Jfa Sci Digital Pwm Muito Forte</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
         <v>634.4</v>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D128" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -4515,23 +4719,23 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790716-fonte-automotiva-120a-jfa-carregador-slim-pwm-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237795118-fonte-carregador-120a-jfa-sci-digital-pwm-muito-forte-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Fonte Carregador 120a Jfa Sci Digital Pwm Muito Forte</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Carregador Bateria Inteligente Jfa 120a Sci Pwm Muito Forte</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -4545,34 +4749,30 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237795118-fonte-carregador-120a-jfa-sci-digital-pwm-muito-forte-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237796310-carregador-bateria-inteligente-jfa-120a-sci-pwm-muito-forte-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Carregador Bateria Inteligente Jfa 120a Sci Pwm Muito Forte</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle K600 Jfa Preto Cinza Mais Barato Do Brasil</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>54.99</v>
+      </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4580,30 +4780,34 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237796310-carregador-bateria-inteligente-jfa-120a-sci-pwm-muito-forte-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465516645-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Controle K600 Jfa Preto Cinza Mais Barato Do Brasil</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>54.99</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+          <t>Carregador Bateria Estacionaria Jfa 60a Slim Bivolt Azul</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>525.87</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4611,28 +4815,28 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465516645-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474108877-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Carregador Bateria Estacionaria Jfa 60a Slim Bivolt Azul</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>525.87</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Kit 5 Unid Controle Loga Distancia Jfa K600 Cores Variadas</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>359</v>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
@@ -4647,7 +4851,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474108877-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566625-kit-5-unid-controle-loga-distancia-jfa-k600-cores-variadas-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
         </is>
       </c>
     </row>
@@ -4657,15 +4861,19 @@
           <t>Jfa K600 - Combo 10 Peças Longa Distancia Cores Variadas</t>
         </is>
       </c>
-      <c r="B133" t="n">
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
         <v>705</v>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4678,7 +4886,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566632-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566632-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
         </is>
       </c>
     </row>
@@ -4688,14 +4896,14 @@
           <t>Fonte Carregador Jfa 120a Sci Redline Bivolt Digital Pwm</t>
         </is>
       </c>
-      <c r="B134" t="n">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -4713,7 +4921,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567049-fonte-carregador-jfa-120a-sci-redline-bivolt-digital-pwm-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567049-fonte-carregador-jfa-120a-sci-redline-bivolt-digital-pwm-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
         </is>
       </c>
     </row>
@@ -4723,14 +4931,14 @@
           <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo 2020</t>
         </is>
       </c>
-      <c r="B135" t="n">
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
         <v>634.4</v>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D135" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -4748,7 +4956,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567068-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2020-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567068-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2020-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
         </is>
       </c>
     </row>
@@ -4758,14 +4966,14 @@
           <t>Fonte Carregador 120a Jfa P/ Sistema Solar</t>
         </is>
       </c>
-      <c r="B136" t="n">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
         <v>634.4</v>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -4783,7 +4991,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567076-fonte-carregador-120a-jfa-p-sistema-solar-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567076-fonte-carregador-120a-jfa-p-sistema-solar-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
         </is>
       </c>
     </row>
@@ -4793,14 +5001,14 @@
           <t>Fonte Automotiva 120 A Jfa Carregador Sci Automatico 2020</t>
         </is>
       </c>
-      <c r="B137" t="n">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D137" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -4818,7 +5026,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567214-fonte-automotiva-120-a-jfa-carregador-sci-automatico-2020-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567214-fonte-automotiva-120-a-jfa-carregador-sci-automatico-2020-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
         </is>
       </c>
     </row>
@@ -4828,13 +5036,13 @@
           <t>Combo 10 Kits Jfa K600 - Controle Longa Distancia P/ Pioneer</t>
         </is>
       </c>
-      <c r="B138" t="n">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
         <v>689</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
@@ -4849,7 +5057,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498568735-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498568735-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
         </is>
       </c>
     </row>
@@ -4859,15 +5067,19 @@
           <t>Carregador Fonte Para Bateria Estacionaria Nobraque Jfa 70a</t>
         </is>
       </c>
-      <c r="B139" t="n">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
         <v>581.8200000000001</v>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4880,7 +5092,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562475887-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b247452-cff4-4dab-b849-bbc45796819c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562475887-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D338f7c22-7736-4a58-8a45-6a4ffac43d66</t>
         </is>
       </c>
     </row>
@@ -4890,15 +5102,19 @@
           <t>Fonte Carregador Jfa 70a Slim Mais Forte Que 60a Azul</t>
         </is>
       </c>
-      <c r="B140" t="n">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
         <v>581.8200000000001</v>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4911,7 +5127,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562481255-fonte-carregador-jfa-70a-slim-mais-forte-que-60a-azul-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a874812-5690-4207-851b-72d4cbbc2870</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562481255-fonte-carregador-jfa-70a-slim-mais-forte-que-60a-azul-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D338f7c22-7736-4a58-8a45-6a4ffac43d66</t>
         </is>
       </c>
     </row>
@@ -4921,13 +5137,13 @@
           <t>Voltímetro Jfa Vs5hi 3 Em 1 Sequenciador High Voltagem /12v</t>
         </is>
       </c>
-      <c r="B141" t="n">
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
         <v>67.8</v>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
@@ -4942,7 +5158,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875295364-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a874812-5690-4207-851b-72d4cbbc2870</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1875295364-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D338f7c22-7736-4a58-8a45-6a4ffac43d66</t>
         </is>
       </c>
     </row>
@@ -4952,13 +5168,13 @@
           <t>Voltímetro Digital  Jfa Vs5hi Lançamento 3 Em 1 Som Paredão</t>
         </is>
       </c>
-      <c r="B142" t="n">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
         <v>67.8</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
@@ -4973,7 +5189,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875297661-voltimetro-digital-jfa-vs5hi-lancamento-3-em-1-som-paredo-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a874812-5690-4207-851b-72d4cbbc2870</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1875297661-voltimetro-digital-jfa-vs5hi-lancamento-3-em-1-som-paredo-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D338f7c22-7736-4a58-8a45-6a4ffac43d66</t>
         </is>
       </c>
     </row>
@@ -4983,13 +5199,13 @@
           <t>Voltímetro Jfa Vs5hi Hv/12v Sequenciador Caixa Bob Paredão</t>
         </is>
       </c>
-      <c r="B143" t="n">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
         <v>77.98999999999999</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
@@ -5004,7 +5220,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875305674-voltimetro-jfa-vs5hi-hv12v-sequenciador-caixa-bob-paredo-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a874812-5690-4207-851b-72d4cbbc2870</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1875305674-voltimetro-jfa-vs5hi-hv12v-sequenciador-caixa-bob-paredo-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D338f7c22-7736-4a58-8a45-6a4ffac43d66</t>
         </is>
       </c>
     </row>
@@ -5014,13 +5230,13 @@
           <t>Voltímetro Jfa Vs5hi Hv/12v Sequenciador Caixa Bob Paredão</t>
         </is>
       </c>
-      <c r="B144" t="n">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
         <v>67.8</v>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
@@ -5035,7 +5251,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875307435-voltimetro-jfa-vs5hi-hv12v-sequenciador-caixa-bob-paredo-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a874812-5690-4207-851b-72d4cbbc2870</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1875307435-voltimetro-jfa-vs5hi-hv12v-sequenciador-caixa-bob-paredo-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D338f7c22-7736-4a58-8a45-6a4ffac43d66</t>
         </is>
       </c>
     </row>
@@ -5045,14 +5261,14 @@
           <t xml:space="preserve">Fonte Carregador Jfa 120a Sci Bivolt Mais Vendida </t>
         </is>
       </c>
-      <c r="B145" t="n">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
         <v>634.4</v>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D145" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -5070,7 +5286,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1980641916-fonte-carregador-jfa-120a-sci-bivolt-mais-vendida-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a874812-5690-4207-851b-72d4cbbc2870</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1980641916-fonte-carregador-jfa-120a-sci-bivolt-mais-vendida-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D338f7c22-7736-4a58-8a45-6a4ffac43d66</t>
         </is>
       </c>
     </row>
@@ -5080,15 +5296,19 @@
           <t>Fonte Carregador Automotivo Jfa 60a Red Line</t>
         </is>
       </c>
-      <c r="B146" t="n">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
         <v>525.87</v>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E146" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5101,7 +5321,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983200882-fonte-carregador-automotivo-jfa-60a-red-line-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a874812-5690-4207-851b-72d4cbbc2870</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1983200882-fonte-carregador-automotivo-jfa-60a-red-line-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D338f7c22-7736-4a58-8a45-6a4ffac43d66</t>
         </is>
       </c>
     </row>
@@ -5111,13 +5331,13 @@
           <t>Filtro Anti-ruido Jfa Rca Cd Dvd Eletromagnético Stereo</t>
         </is>
       </c>
-      <c r="B147" t="n">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
         <v>75.33</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
@@ -5132,7 +5352,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2087227820-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2087227820-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
         </is>
       </c>
     </row>
@@ -5142,14 +5362,14 @@
           <t>Carregador Fonte Automotivo 120a Jfa Stomr</t>
         </is>
       </c>
-      <c r="B148" t="n">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
         <v>634.4</v>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D148" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -5167,7 +5387,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161655203-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161655203-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
         </is>
       </c>
     </row>
@@ -5177,15 +5397,19 @@
           <t>Fonte Automotiva Storm Jfa 60a Multifunção Inteligente Slim</t>
         </is>
       </c>
-      <c r="B149" t="n">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
         <v>525.87</v>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5198,7 +5422,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164391968-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164391968-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
         </is>
       </c>
     </row>
@@ -5208,15 +5432,19 @@
           <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
-      <c r="B150" t="n">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
         <v>581.8099999999999</v>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5229,7 +5457,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164486791-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164486791-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
         </is>
       </c>
     </row>
@@ -5239,15 +5467,19 @@
           <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca Sci</t>
         </is>
       </c>
-      <c r="B151" t="n">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
         <v>939.86</v>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E151" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5260,7 +5492,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174554291-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174554291-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
         </is>
       </c>
     </row>
@@ -5270,15 +5502,19 @@
           <t>Fonte Jfa Storm 60a Com Medidor Cca Slim Bivolt</t>
         </is>
       </c>
-      <c r="B152" t="n">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
         <v>492.3</v>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E152" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5291,7 +5527,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164397552-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164397552-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
         </is>
       </c>
     </row>
@@ -5301,15 +5537,19 @@
           <t>Fonte Carregador Jfa Storm 70a Carga Lenta Motor Home</t>
         </is>
       </c>
-      <c r="B153" t="n">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
         <v>548.24</v>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5322,7 +5562,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164536185-fonte-carregador-jfa-storm-70a-carga-lenta-motor-home-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164536185-fonte-carregador-jfa-storm-70a-carga-lenta-motor-home-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
         </is>
       </c>
     </row>
@@ -5332,15 +5572,19 @@
           <t>Fonte Carregador Jfa Storm 200a Carga Lenta Motor Home</t>
         </is>
       </c>
-      <c r="B154" t="n">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
         <v>939.86</v>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E154" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5353,7 +5597,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174580386-fonte-carregador-jfa-storm-200a-carga-lenta-motor-home-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174580386-fonte-carregador-jfa-storm-200a-carga-lenta-motor-home-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
         </is>
       </c>
     </row>
@@ -5363,15 +5607,19 @@
           <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
         </is>
       </c>
-      <c r="B155" t="n">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
         <v>939.86</v>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E155" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5384,7 +5632,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174605405-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174605405-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
         </is>
       </c>
     </row>
@@ -5394,15 +5642,19 @@
           <t>Fonte Carregador Jfa Storm 200a Bivolt Flutuação Proteção</t>
         </is>
       </c>
-      <c r="B156" t="n">
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
         <v>895.1</v>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E156" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5415,7 +5667,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174611729-fonte-carregador-jfa-storm-200a-bivolt-flutuaco-proteco-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174611729-fonte-carregador-jfa-storm-200a-bivolt-flutuaco-proteco-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
         </is>
       </c>
     </row>
@@ -5425,15 +5677,19 @@
           <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
         </is>
       </c>
-      <c r="B157" t="n">
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
         <v>772.02</v>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5446,7 +5702,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717163730-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717163730-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
         </is>
       </c>
     </row>
@@ -5456,13 +5712,13 @@
           <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top Branco</t>
         </is>
       </c>
-      <c r="B158" t="n">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
         <v>108.99</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
@@ -5477,7 +5733,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724250171-controle-longa-distancia-jfa-k1200-acqua-completo-top-branco-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724250171-controle-longa-distancia-jfa-k1200-acqua-completo-top-branco-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
         </is>
       </c>
     </row>
@@ -5487,15 +5743,19 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
         </is>
       </c>
-      <c r="B159" t="n">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
         <v>492.3</v>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E159" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5508,7 +5768,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927430681-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927430681-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
         </is>
       </c>
     </row>
@@ -5518,15 +5778,19 @@
           <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
         </is>
       </c>
-      <c r="B160" t="n">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
         <v>492.3</v>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E160" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5539,7 +5803,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927505074-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927505074-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
         </is>
       </c>
     </row>
@@ -5549,13 +5813,13 @@
           <t>Controle Longa Jfa K600 Branco / Cinza + Central Universal</t>
         </is>
       </c>
-      <c r="B161" t="n">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
         <v>54.99</v>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
@@ -5570,7 +5834,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3311521185-controle-longa-jfa-k600-branco-cinza-central-universal-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cf89ee4-373e-4ec5-8578-e1fb801a0469</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3311521185-controle-longa-jfa-k600-branco-cinza-central-universal-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
         </is>
       </c>
     </row>
@@ -5580,15 +5844,19 @@
           <t>Fonte Automotiva 200 A Jfa Sci Carregador Automático Slim</t>
         </is>
       </c>
-      <c r="B162" t="n">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
         <v>939.86</v>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E162" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5601,7 +5869,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182755295-fonte-automotiva-200-a-jfa-sci-carregador-automatico-slim-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182755295-fonte-automotiva-200-a-jfa-sci-carregador-automatico-slim-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
         </is>
       </c>
     </row>
@@ -5611,14 +5879,14 @@
           <t>Fonte Carregador Jfa 120a Automotiva Pwm Sci Bivolt</t>
         </is>
       </c>
-      <c r="B163" t="n">
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D163" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -5636,7 +5904,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790138-fonte-carregador-jfa-120a-automotiva-pwm-sci-bivolt-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790138-fonte-carregador-jfa-120a-automotiva-pwm-sci-bivolt-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
         </is>
       </c>
     </row>
@@ -5646,15 +5914,19 @@
           <t>Fonte Carregador Automotivo Jfa 60a Redline Pwm</t>
         </is>
       </c>
-      <c r="B164" t="n">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
         <v>525.87</v>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E164" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5667,7 +5939,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305139125-fonte-carregador-automotivo-jfa-60a-redline-pwm-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305139125-fonte-carregador-automotivo-jfa-60a-redline-pwm-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
         </is>
       </c>
     </row>
@@ -5677,14 +5949,14 @@
           <t xml:space="preserve">Fonte Automotiva 120 A Jfa Com Sistema Sci Flutuação </t>
         </is>
       </c>
-      <c r="B165" t="n">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
         <v>634.4</v>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D165" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -5702,7 +5974,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311934406-fonte-automotiva-120-a-jfa-com-sistema-sci-flutuaco-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1311934406-fonte-automotiva-120-a-jfa-com-sistema-sci-flutuaco-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
         </is>
       </c>
     </row>
@@ -5712,14 +5984,14 @@
           <t>Fonte Carregador 120a Jfa Bivolt Com Sistema Sci Volt/amp</t>
         </is>
       </c>
-      <c r="B166" t="n">
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D166" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -5737,7 +6009,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311934437-fonte-carregador-120a-jfa-bivolt-com-sistema-sci-voltamp-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1311934437-fonte-carregador-120a-jfa-bivolt-com-sistema-sci-voltamp-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
         </is>
       </c>
     </row>
@@ -5747,14 +6019,14 @@
           <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Pwm</t>
         </is>
       </c>
-      <c r="B167" t="n">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D167" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -5772,7 +6044,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311936409-fonte-automotiva-120-a-jfa-carregador-com-sistema-pwm-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1311936409-fonte-automotiva-120-a-jfa-carregador-com-sistema-pwm-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
         </is>
       </c>
     </row>
@@ -5782,13 +6054,13 @@
           <t>Controle Longa Distancia Completo Jfa K600 Preto / Laranja</t>
         </is>
       </c>
-      <c r="B168" t="n">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
@@ -5803,7 +6075,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465507273-controle-longa-distancia-completo-jfa-k600-preto-laranja-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465507273-controle-longa-distancia-completo-jfa-k600-preto-laranja-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
         </is>
       </c>
     </row>
@@ -5813,15 +6085,19 @@
           <t>Carregador Bateria Jfa 60a Slim Bivolt 2020 Azul</t>
         </is>
       </c>
-      <c r="B169" t="n">
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
         <v>525.87</v>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5834,7 +6110,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474108345-carregador-bateria-jfa-60a-slim-bivolt-2020-azul-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474108345-carregador-bateria-jfa-60a-slim-bivolt-2020-azul-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
         </is>
       </c>
     </row>
@@ -5844,15 +6120,19 @@
           <t>Fonte Carregador Para Sistema Solar Jfa 70a Bivolt</t>
         </is>
       </c>
-      <c r="B170" t="n">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
         <v>548.24</v>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E170" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5865,7 +6145,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474155591-fonte-carregador-para-sistema-solar-jfa-70a-bivolt-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474155591-fonte-carregador-para-sistema-solar-jfa-70a-bivolt-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
         </is>
       </c>
     </row>
@@ -5875,14 +6155,14 @@
           <t>Fonte Automotiva Jfa 120a Redline Digital Sci Pwm Eae Bivolt</t>
         </is>
       </c>
-      <c r="B171" t="n">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D171" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -5900,7 +6180,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1485101170-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1485101170-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
         </is>
       </c>
     </row>
@@ -5910,13 +6190,13 @@
           <t>Controle K600 Jfa Preto Cinza Mais Barato Do Brasil</t>
         </is>
       </c>
-      <c r="B172" t="n">
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
         <v>57.9</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
@@ -5931,7 +6211,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498563111-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498563111-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
         </is>
       </c>
     </row>
@@ -5941,13 +6221,13 @@
           <t>Kit 5 Unid Controle Loga Distancia Jfa K600 Cores Variadas</t>
         </is>
       </c>
-      <c r="B173" t="n">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
         <v>339</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
@@ -5962,7 +6242,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498563138-kit-5-unid-controle-loga-distancia-jfa-k600-cores-variadas-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498563138-kit-5-unid-controle-loga-distancia-jfa-k600-cores-variadas-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
         </is>
       </c>
     </row>
@@ -5972,13 +6252,13 @@
           <t>Controle Longa Distancia Completo Jfa K600 Preto / Verde</t>
         </is>
       </c>
-      <c r="B174" t="n">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
         <v>73.90000000000001</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
@@ -5993,7 +6273,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566607-controle-longa-distancia-completo-jfa-k600-preto-verde-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566607-controle-longa-distancia-completo-jfa-k600-preto-verde-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
         </is>
       </c>
     </row>
@@ -6003,14 +6283,14 @@
           <t>Fonte Automotiva Jfa 120a Redline Digital Sci Pwm Eae Bivolt</t>
         </is>
       </c>
-      <c r="B175" t="n">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
         <v>634.4</v>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D175" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -6028,7 +6308,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566856-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566856-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
         </is>
       </c>
     </row>
@@ -6038,13 +6318,13 @@
           <t>Controle Longa Distancia Completo Jfa K600 Preto / Verde</t>
         </is>
       </c>
-      <c r="B176" t="n">
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
         <v>69.42</v>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
@@ -6059,7 +6339,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498568726-controle-longa-distancia-completo-jfa-k600-preto-verde-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498568726-controle-longa-distancia-completo-jfa-k600-preto-verde-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
         </is>
       </c>
     </row>
@@ -6069,13 +6349,13 @@
           <t xml:space="preserve">Controle Longa Distancia Completo Jfa Branco / Cinza K600 </t>
         </is>
       </c>
-      <c r="B177" t="n">
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
         <v>62</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
@@ -6090,7 +6370,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498568731-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82ad178b-c70e-4809-b7a2-3ad4f83eab26</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498568731-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
         </is>
       </c>
     </row>
@@ -6100,14 +6380,14 @@
           <t>Fonte Carregador 120a Jfa Com Sistema Sci Volt/amp</t>
         </is>
       </c>
-      <c r="B178" t="n">
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
         <v>634.4</v>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D178" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -6125,7 +6405,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562414197-fonte-carregador-120a-jfa-com-sistema-sci-voltamp-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09aee6a3-ae6f-4751-9f5d-147451df144e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562414197-fonte-carregador-120a-jfa-com-sistema-sci-voltamp-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
         </is>
       </c>
     </row>
@@ -6135,13 +6415,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B179" t="n">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
         <v>64.90000000000001</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
@@ -6156,7 +6436,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562475230-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09aee6a3-ae6f-4751-9f5d-147451df144e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562475230-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
         </is>
       </c>
     </row>
@@ -6166,15 +6446,19 @@
           <t>Fonte Carregador Jfa 70a Azul Slim Mais Forte Que 60a</t>
         </is>
       </c>
-      <c r="B180" t="n">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
         <v>548.24</v>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E180" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6187,7 +6471,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562475864-fonte-carregador-jfa-70a-azul-slim-mais-forte-que-60a-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09aee6a3-ae6f-4751-9f5d-147451df144e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562475864-fonte-carregador-jfa-70a-azul-slim-mais-forte-que-60a-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
         </is>
       </c>
     </row>
@@ -6197,13 +6481,13 @@
           <t xml:space="preserve">Controle Longa Distancia Completo Jfa Branco / Cinza K600 </t>
         </is>
       </c>
-      <c r="B181" t="n">
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
         <v>54.99</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
@@ -6218,7 +6502,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562477035-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09aee6a3-ae6f-4751-9f5d-147451df144e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562477035-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
         </is>
       </c>
     </row>
@@ -6228,15 +6512,19 @@
           <t xml:space="preserve">Fonte Carregador Jfa 70a Sistema Inteligente Para Bateria </t>
         </is>
       </c>
-      <c r="B182" t="n">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
         <v>581.8200000000001</v>
       </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E182" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6249,7 +6537,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562477596-fonte-carregador-jfa-70a-sistema-inteligente-para-bateria-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09aee6a3-ae6f-4751-9f5d-147451df144e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562477596-fonte-carregador-jfa-70a-sistema-inteligente-para-bateria-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
         </is>
       </c>
     </row>
@@ -6259,13 +6547,13 @@
           <t xml:space="preserve">Jfa Shop </t>
         </is>
       </c>
-      <c r="B183" t="n">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
@@ -6280,7 +6568,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562480366-jfa-shop-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09aee6a3-ae6f-4751-9f5d-147451df144e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562480366-jfa-shop-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
         </is>
       </c>
     </row>
@@ -6290,15 +6578,19 @@
           <t xml:space="preserve">Fonte Carregador Jfa 70a Sistema Inteligente Para Bateria </t>
         </is>
       </c>
-      <c r="B184" t="n">
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
         <v>548.24</v>
       </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E184" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6311,7 +6603,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562481544-fonte-carregador-jfa-70a-sistema-inteligente-para-bateria-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09aee6a3-ae6f-4751-9f5d-147451df144e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562481544-fonte-carregador-jfa-70a-sistema-inteligente-para-bateria-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
         </is>
       </c>
     </row>
@@ -6321,14 +6613,14 @@
           <t>Fonte Carregadorjfa 120a Redline Voltímetro Digital 110/220v</t>
         </is>
       </c>
-      <c r="B185" t="n">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
         <v>634.4</v>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D185" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -6346,7 +6638,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1564738805-fonte-carregadorjfa-120a-redline-voltimetro-digital-110220v-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09aee6a3-ae6f-4751-9f5d-147451df144e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1564738805-fonte-carregadorjfa-120a-redline-voltimetro-digital-110220v-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
         </is>
       </c>
     </row>
@@ -6356,13 +6648,13 @@
           <t>Voltímetro Jfa Vs5hi 3 Em 1 Sequenciador High Voltagem /12v</t>
         </is>
       </c>
-      <c r="B186" t="n">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
         <v>77.98999999999999</v>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
@@ -6377,7 +6669,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875290430-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09aee6a3-ae6f-4751-9f5d-147451df144e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1875290430-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
         </is>
       </c>
     </row>
@@ -6387,13 +6679,13 @@
           <t>Voltímetro Digital  Jfa Vs5hi Lançamento 3 Em 1 Som Paredão</t>
         </is>
       </c>
-      <c r="B187" t="n">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
         <v>77.98999999999999</v>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
@@ -6408,7 +6700,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875304180-voltimetro-digital-jfa-vs5hi-lancamento-3-em-1-som-paredo-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09aee6a3-ae6f-4751-9f5d-147451df144e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1875304180-voltimetro-digital-jfa-vs5hi-lancamento-3-em-1-som-paredo-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
         </is>
       </c>
     </row>
@@ -6418,15 +6710,19 @@
           <t>Fonte Carregador Jfa 120a Bivolt Brinde Strobo Rgb</t>
         </is>
       </c>
-      <c r="B188" t="n">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
         <v>720</v>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E188" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6439,7 +6735,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1976479269-fonte-carregador-jfa-120a-bivolt-brinde-strobo-rgb-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debc9e243-0959-48bd-af37-39ff0c452412</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1976479269-fonte-carregador-jfa-120a-bivolt-brinde-strobo-rgb-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D22bd9bcd-589e-42d1-a82c-1b10d21ce8d3</t>
         </is>
       </c>
     </row>
@@ -6449,15 +6745,19 @@
           <t>Fonte Carregador Automotivo Jfa 60a Redline Bivolt</t>
         </is>
       </c>
-      <c r="B189" t="n">
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
         <v>525.87</v>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E189" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6470,7 +6770,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983196648-fonte-carregador-automotivo-jfa-60a-redline-bivolt-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debc9e243-0959-48bd-af37-39ff0c452412</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1983196648-fonte-carregador-automotivo-jfa-60a-redline-bivolt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D22bd9bcd-589e-42d1-a82c-1b10d21ce8d3</t>
         </is>
       </c>
     </row>
@@ -6480,15 +6780,19 @@
           <t>Fonte Carregador Automotivo Jfa 60a Redline Slim</t>
         </is>
       </c>
-      <c r="B190" t="n">
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
         <v>525.87</v>
       </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E190" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6501,7 +6805,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983200742-fonte-carregador-automotivo-jfa-60a-redline-slim-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debc9e243-0959-48bd-af37-39ff0c452412</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1983200742-fonte-carregador-automotivo-jfa-60a-redline-slim-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D22bd9bcd-589e-42d1-a82c-1b10d21ce8d3</t>
         </is>
       </c>
     </row>
@@ -6511,13 +6815,13 @@
           <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
         </is>
       </c>
-      <c r="B191" t="n">
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
         <v>64.98999999999999</v>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
@@ -6532,7 +6836,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2044193699-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debc9e243-0959-48bd-af37-39ff0c452412</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2044193699-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D22bd9bcd-589e-42d1-a82c-1b10d21ce8d3</t>
         </is>
       </c>
     </row>
@@ -6542,14 +6846,14 @@
           <t>Carregador Fonte Automotivo 120a Jfa Stomr</t>
         </is>
       </c>
-      <c r="B192" t="n">
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D192" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -6567,7 +6871,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161597045-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161597045-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
         </is>
       </c>
     </row>
@@ -6577,15 +6881,19 @@
           <t>Fonte Jfa Storm 60a Com Medidor Cca Slim Bivolt</t>
         </is>
       </c>
-      <c r="B193" t="n">
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
         <v>525.87</v>
       </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E193" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6598,25 +6906,29 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164409762-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164409762-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 70a Bivolt 14,4v Sci Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>548.24</v>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr"/>
+          <t>Nova Fonte Carregador Jfa Storm 120a Bivolt</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E194" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6624,30 +6936,34 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164480855-fonte-carregador-jfa-storm-70a-bivolt-144v-sci-medidor-cca-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161609580-nova-fonte-carregador-jfa-storm-120a-bivolt-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca Sci</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>895.1</v>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr"/>
+          <t>Fonte Automotiva Storm Jfa 60a Multifunção Inteligente Slim</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>492.3</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E195" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6660,27 +6976,27 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174573675-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164411159-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Storm 120a Bivolt</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Carregador Jfa Storm 70a Bivolt 14,4v Sci Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>548.24</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6690,30 +7006,34 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161609580-nova-fonte-carregador-jfa-storm-120a-bivolt-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164480855-fonte-carregador-jfa-storm-70a-bivolt-144v-sci-medidor-cca-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Storm Jfa 60a Multifunção Inteligente Slim</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr"/>
+          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca Sci</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>895.1</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E197" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6726,25 +7046,29 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164411159-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174573675-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Storm Jfa 70a Multifunção Inteligente Slim</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>581.8099999999999</v>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr"/>
+          <t>Melhor Fonte 120a Caixa Bob Jfa 120a Storm 110/220v</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E198" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6757,25 +7081,29 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164487978-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161609777-melhor-fonte-120a-caixa-bob-jfa-120a-storm-110220v-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 200a Com Medidor Cca Slim Bivolt Full</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>895.1</v>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr"/>
+          <t>Carregador Jfa Storm 60a 14,4v Mais Completa Smart Cca Sci</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>525.87</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E199" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6783,30 +7111,34 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174594279-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164415644-carregador-jfa-storm-60a-144v-mais-completa-smart-cca-sci-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Melhor Fonte 120a Caixa Bob Jfa 120a Storm 110/220v</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr"/>
+          <t>Fonte Automotiva Storm Jfa 70a Multifunção Inteligente Slim</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>581.8099999999999</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E200" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6819,25 +7151,29 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161609777-melhor-fonte-120a-caixa-bob-jfa-120a-storm-110220v-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164487978-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 60a 14,4v Mais Completa Smart Cca Sci</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>525.87</v>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr"/>
+          <t>Fonte Jfa Storm 200a Com Medidor Cca Slim Bivolt Full</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>895.1</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E201" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6845,30 +7181,34 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164415644-carregador-jfa-storm-60a-144v-mais-completa-smart-cca-sci-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174594279-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 70a Com Medidor Cca Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>581.8099999999999</v>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr"/>
+          <t>Melhor Fonte 120a Caixa Bob Jfa 120a Storm 110/220v</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>634.4</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E202" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6876,30 +7216,34 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164523374-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161654997-melhor-fonte-120a-caixa-bob-jfa-120a-storm-110220v-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>895.1</v>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr"/>
+          <t>Fonte Jfa Storm 70a Com Medidor Cca Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>581.8099999999999</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E203" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6907,30 +7251,34 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174605702-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164523374-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Melhor Fonte 120a Caixa Bob Jfa 120a Storm 110/220v</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>895.1</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E204" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6943,7 +7291,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161654997-melhor-fonte-120a-caixa-bob-jfa-120a-storm-110220v-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174605702-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
         </is>
       </c>
     </row>
@@ -6953,15 +7301,19 @@
           <t>Carregador Jfa Storm 70a 14,4v Mais Completa Smart Cca Sci</t>
         </is>
       </c>
-      <c r="B205" t="n">
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
         <v>581.8099999999999</v>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E205" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6974,7 +7326,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164523624-carregador-jfa-storm-70a-144v-mais-completa-smart-cca-sci-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164523624-carregador-jfa-storm-70a-144v-mais-completa-smart-cca-sci-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
         </is>
       </c>
     </row>
@@ -6984,15 +7336,19 @@
           <t>Fonte Jfa Storm 200a Com Medidor Cca Slim Bivolt Full</t>
         </is>
       </c>
-      <c r="B206" t="n">
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
         <v>939.86</v>
       </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E206" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7005,7 +7361,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174613433-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174613433-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
         </is>
       </c>
     </row>
@@ -7015,15 +7371,19 @@
           <t>Fonte Jfa Storm 70a Com Medidor Cca Slim Bivolt</t>
         </is>
       </c>
-      <c r="B207" t="n">
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
         <v>548.24</v>
       </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E207" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7036,7 +7396,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164529899-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164529899-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
         </is>
       </c>
     </row>
@@ -7046,15 +7406,19 @@
           <t>Fonte Automotiva Storm Jfa 70a Multifunção Inteligente Slim</t>
         </is>
       </c>
-      <c r="B208" t="n">
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
         <v>548.24</v>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E208" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7067,7 +7431,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164536144-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1dfb427-0024-4d89-af0c-38111142ed57</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164536144-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
         </is>
       </c>
     </row>
@@ -7077,15 +7441,19 @@
           <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
         </is>
       </c>
-      <c r="B209" t="n">
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
         <v>693.7</v>
       </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E209" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7098,7 +7466,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717118463-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717118463-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
         </is>
       </c>
     </row>
@@ -7108,13 +7476,13 @@
           <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top</t>
         </is>
       </c>
-      <c r="B210" t="n">
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
         <v>131.99</v>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
@@ -7129,7 +7497,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724067657-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724067657-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
         </is>
       </c>
     </row>
@@ -7139,15 +7507,19 @@
           <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt</t>
         </is>
       </c>
-      <c r="B211" t="n">
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
         <v>772.02</v>
       </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E211" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7160,7 +7532,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717151233-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717151233-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
         </is>
       </c>
     </row>
@@ -7170,13 +7542,13 @@
           <t>Controle Longa Distância Jfa K1200 Resistente A Água  Preto</t>
         </is>
       </c>
-      <c r="B212" t="n">
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
         <v>132.48</v>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
@@ -7191,7 +7563,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724073524-controle-longa-distncia-jfa-k1200-resistente-a-agua-preto-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724073524-controle-longa-distncia-jfa-k1200-resistente-a-agua-preto-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
         </is>
       </c>
     </row>
@@ -7201,15 +7573,19 @@
           <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
         </is>
       </c>
-      <c r="B213" t="n">
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
         <v>693.7</v>
       </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E213" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7222,7 +7598,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717157049-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717157049-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
         </is>
       </c>
     </row>
@@ -7232,13 +7608,13 @@
           <t>Controle Longa Distancia Jfa K1200 Acqua Som Completo Top</t>
         </is>
       </c>
-      <c r="B214" t="n">
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
         <v>132.45</v>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
@@ -7253,7 +7629,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724077994-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724077994-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
         </is>
       </c>
     </row>
@@ -7263,15 +7639,19 @@
           <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
         </is>
       </c>
-      <c r="B215" t="n">
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
         <v>772.02</v>
       </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E215" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7284,7 +7664,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717169947-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717169947-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
         </is>
       </c>
     </row>
@@ -7294,13 +7674,13 @@
           <t>Controle Longa Distância Jfa K1200 Resistente A Água Preto</t>
         </is>
       </c>
-      <c r="B216" t="n">
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
         <v>108.99</v>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
@@ -7315,7 +7695,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724101310-controle-longa-distncia-jfa-k1200-resistente-a-agua-preto-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724101310-controle-longa-distncia-jfa-k1200-resistente-a-agua-preto-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
         </is>
       </c>
     </row>
@@ -7325,15 +7705,19 @@
           <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
         </is>
       </c>
-      <c r="B217" t="n">
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
         <v>772.02</v>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E217" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7346,7 +7730,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717191676-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717191676-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
         </is>
       </c>
     </row>
@@ -7356,13 +7740,13 @@
           <t>Controle Longa Distância Jfa K1200 Resistente A Água Branco</t>
         </is>
       </c>
-      <c r="B218" t="n">
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
         <v>108.98</v>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
@@ -7377,7 +7761,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724219332-controle-longa-distncia-jfa-k1200-resistente-a-agua-branco-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724219332-controle-longa-distncia-jfa-k1200-resistente-a-agua-branco-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
         </is>
       </c>
     </row>
@@ -7387,15 +7771,19 @@
           <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt</t>
         </is>
       </c>
-      <c r="B219" t="n">
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
         <v>693.7</v>
       </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E219" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7408,7 +7796,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717192368-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717192368-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
         </is>
       </c>
     </row>
@@ -7418,13 +7806,13 @@
           <t>Controle Longa Distancia Jfa K1200 Acqua Som Completo Top</t>
         </is>
       </c>
-      <c r="B220" t="n">
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
         <v>108.97</v>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
@@ -7439,7 +7827,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724231286-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724231286-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
         </is>
       </c>
     </row>
@@ -7449,13 +7837,13 @@
           <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top Branco</t>
         </is>
       </c>
-      <c r="B221" t="n">
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
         <v>87.90000000000001</v>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
@@ -7470,7 +7858,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724250206-controle-longa-distancia-jfa-k1200-acqua-completo-top-branco-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44a097a9-99f3-44cc-b8fc-dfebfbd00f63</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724250206-controle-longa-distancia-jfa-k1200-acqua-completo-top-branco-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
         </is>
       </c>
     </row>
@@ -7480,13 +7868,13 @@
           <t>Controle Universal Longa Jfa K600 Branco Cinza Modo Aprender</t>
         </is>
       </c>
-      <c r="B222" t="n">
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
@@ -7501,7 +7889,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3311520957-controle-universal-longa-jfa-k600-branco-cinza-modo-aprender-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db92b05bf-d2f0-450f-b21b-f86de5dc1495</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3311520957-controle-universal-longa-jfa-k600-branco-cinza-modo-aprender-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D20f95ff1-564d-4fd2-8002-94054d416017</t>
         </is>
       </c>
     </row>
@@ -7511,13 +7899,13 @@
           <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
         </is>
       </c>
-      <c r="B223" t="n">
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
         <v>860.98</v>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
       </c>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
@@ -7532,23 +7920,23 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3452375078-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db92b05bf-d2f0-450f-b21b-f86de5dc1495</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3452375078-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D20f95ff1-564d-4fd2-8002-94054d416017</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Fonte Carregador 200 Amperes Jfa Sci Inteligente 10.000w Rms</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>939.86</v>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Combo 10 Kits Jfa K600 - Controle Longa Distancia P/ Pioneer</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>699</v>
       </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
@@ -7563,25 +7951,29 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182763848-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D48a23f88-129d-4d72-bcbf-39042ed979de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465447643-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D27462872-76e4-425e-a2e0-c3c19b669571</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Combo 10 Kits Jfa K600 - Controle Longa Distancia P/ Pioneer</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>699</v>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt 110v 220v</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>492.3</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E225" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7594,23 +7986,23 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465447643-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D48a23f88-129d-4d72-bcbf-39042ed979de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927412551-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-110v-220v-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D27462872-76e4-425e-a2e0-c3c19b669571</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt 110v 220v</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>799</v>
       </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
@@ -7620,30 +8012,34 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927412551-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-110v-220v-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D48a23f88-129d-4d72-bcbf-39042ed979de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567196-fonte-automotiva-spark-usina-120a-controle-jfa-k600-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D27462872-76e4-425e-a2e0-c3c19b669571</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
-        <v>799</v>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr"/>
+          <t>Fonte Carregador 200 Amperes Jfa Sci Inteligente 10.000w Rms</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>895.1</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E227" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7656,25 +8052,29 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567196-fonte-automotiva-spark-usina-120a-controle-jfa-k600-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D48a23f88-129d-4d72-bcbf-39042ed979de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182763864-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D27462872-76e4-425e-a2e0-c3c19b669571</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Fonte Carregador 200 Amperes Jfa Sci Inteligente 10.000w Rms</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
-        <v>895.1</v>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr"/>
+          <t>Jfa K600 - Combo 5 Peças Longa Distancia Cores Variadas</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>269</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E228" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7687,25 +8087,29 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182763864-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D48a23f88-129d-4d72-bcbf-39042ed979de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465466759-jfa-k600-combo-5-pecas-longa-distancia-cores-variadas-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D27462872-76e4-425e-a2e0-c3c19b669571</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Jfa K600 - Combo 5 Peças Longa Distancia Cores Variadas</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>269</v>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 200 Amperes Sci Mais Forte Do Brasil</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>939.86</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E229" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7713,30 +8117,34 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465466759-jfa-k600-combo-5-pecas-longa-distancia-cores-variadas-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D48a23f88-129d-4d72-bcbf-39042ed979de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182763875-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D27462872-76e4-425e-a2e0-c3c19b669571</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200 Amperes Sci Mais Forte Do Brasil</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>939.86</v>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr"/>
+          <t>Fonte Carregador 120a Jfa Sci Digital Pwm Muito Forte</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>634.4</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E230" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7744,32 +8152,32 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182763875-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D48a23f88-129d-4d72-bcbf-39042ed979de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498563536-fonte-carregador-120a-jfa-sci-digital-pwm-muito-forte-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De95022b3-d42c-446b-bd7e-e95da5fdad71</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Fonte Carregador 120a Jfa Sci Digital Pwm Muito Forte</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Automotiva 200 A Jfa Sci Carregador Automático Slim</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>939.86</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -7779,30 +8187,34 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498563536-fonte-carregador-120a-jfa-sci-digital-pwm-muito-forte-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D54c102e2-fb79-4a84-b3ec-0e057f07cb05</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567121-fonte-automotiva-200-a-jfa-sci-carregador-automatico-slim-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De95022b3-d42c-446b-bd7e-e95da5fdad71</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 200 A Jfa Sci Carregador Automático Slim</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>939.86</v>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr"/>
+          <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Pwm</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E232" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7815,23 +8227,23 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567121-fonte-automotiva-200-a-jfa-sci-carregador-automatico-slim-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D54c102e2-fb79-4a84-b3ec-0e057f07cb05</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567012-fonte-automotiva-120-a-jfa-carregador-com-sistema-pwm-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De95022b3-d42c-446b-bd7e-e95da5fdad71</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Pwm</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Automotiva 120a Jfa Carregador Slim Pwm</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>634.4</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -7845,28 +8257,28 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567012-fonte-automotiva-120-a-jfa-carregador-com-sistema-pwm-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D54c102e2-fb79-4a84-b3ec-0e057f07cb05</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567073-fonte-automotiva-120a-jfa-carregador-slim-pwm-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De95022b3-d42c-446b-bd7e-e95da5fdad71</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Jfa Carregador Slim Pwm</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Automotiva 120a Jfa Sci Carregador Slim Oferta</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -7880,34 +8292,30 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567073-fonte-automotiva-120a-jfa-carregador-slim-pwm-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D54c102e2-fb79-4a84-b3ec-0e057f07cb05</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569101-fonte-automotiva-120a-jfa-sci-carregador-slim-oferta-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De95022b3-d42c-446b-bd7e-e95da5fdad71</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Jfa Sci Carregador Slim Oferta</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distancia Jfa Redline Wr P Multimídia Import</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>90.78</v>
+      </c>
+      <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7915,43 +8323,12 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569101-fonte-automotiva-120a-jfa-sci-carregador-slim-oferta-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D54c102e2-fb79-4a84-b3ec-0e057f07cb05</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Multimídia Import</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>90.78</v>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr"/>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566645-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D54c102e2-fb79-4a84-b3ec-0e057f07cb05</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566645-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De95022b3-d42c-446b-bd7e-e95da5fdad71</t>
         </is>
       </c>
     </row>

--- a/dados/radicalsom shop.xlsx
+++ b/dados/radicalsom shop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G235"/>
+  <dimension ref="A1:G222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,13 +478,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>NA</t>
@@ -497,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:98447332#searchVariation=MLB27685629&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:98447332#searchVariation=MLB27685629&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=fbc7cc12-537d-47d7-99f3-59ab82ba998c</t>
         </is>
       </c>
     </row>
@@ -509,13 +513,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>54.99</v>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>NA</t>
@@ -528,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:98447332#searchVariation=MLB27970249&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:98447332#searchVariation=MLB27970249&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=fbc7cc12-537d-47d7-99f3-59ab82ba998c</t>
         </is>
       </c>
     </row>
@@ -540,13 +548,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>90.78</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -559,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:98447332#searchVariation=MLB28557249&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:98447332#searchVariation=MLB28557249&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=fbc7cc12-537d-47d7-99f3-59ab82ba998c</t>
         </is>
       </c>
     </row>
@@ -571,13 +583,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>84.42</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>NA</t>
@@ -590,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:98447332#searchVariation=MLB27687422&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:98447332#searchVariation=MLB27687422&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=fbc7cc12-537d-47d7-99f3-59ab82ba998c</t>
         </is>
       </c>
     </row>
@@ -602,13 +618,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>54.99</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>NA</t>
@@ -621,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:98447332#searchVariation=MLB32364344&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:98447332#searchVariation=MLB32364344&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=fbc7cc12-537d-47d7-99f3-59ab82ba998c</t>
         </is>
       </c>
     </row>
@@ -656,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:98447332#searchVariation=MLB21392652&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:98447332#searchVariation=MLB21392652&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=fbc7cc12-537d-47d7-99f3-59ab82ba998c</t>
         </is>
       </c>
     </row>
@@ -668,13 +688,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>860.98</v>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>NA</t>
@@ -687,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:98447332#searchVariation=MLB24006449&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:98447332#searchVariation=MLB24006449&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=fbc7cc12-537d-47d7-99f3-59ab82ba998c</t>
         </is>
       </c>
     </row>
@@ -722,7 +746,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:98447332#searchVariation=MLB22144397&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:98447332#searchVariation=MLB22144397&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=fbc7cc12-537d-47d7-99f3-59ab82ba998c</t>
         </is>
       </c>
     </row>
@@ -757,7 +781,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:98447332#searchVariation=MLB21348561&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:98447332#searchVariation=MLB21348561&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=fbc7cc12-537d-47d7-99f3-59ab82ba998c</t>
         </is>
       </c>
     </row>
@@ -769,13 +793,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>61.19</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -788,7 +816,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:98447332#searchVariation=MLB34210379&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:98447332#searchVariation=MLB34210379&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=fbc7cc12-537d-47d7-99f3-59ab82ba998c</t>
         </is>
       </c>
     </row>
@@ -823,7 +851,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:98447332#searchVariation=MLB24154371&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:98447332#searchVariation=MLB24154371&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=fbc7cc12-537d-47d7-99f3-59ab82ba998c</t>
         </is>
       </c>
     </row>
@@ -858,7 +886,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:98447332#searchVariation=MLB24834408&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:98447332#searchVariation=MLB24834408&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=fbc7cc12-537d-47d7-99f3-59ab82ba998c</t>
         </is>
       </c>
     </row>
@@ -870,13 +898,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>61.19</v>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -889,7 +921,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:98447332#searchVariation=MLB28687615&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:98447332#searchVariation=MLB28687615&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=fbc7cc12-537d-47d7-99f3-59ab82ba998c</t>
         </is>
       </c>
     </row>
@@ -901,13 +933,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>61.19</v>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -920,7 +956,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:98447332#searchVariation=MLB28722231&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:98447332#searchVariation=MLB28722231&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=fbc7cc12-537d-47d7-99f3-59ab82ba998c</t>
         </is>
       </c>
     </row>
@@ -955,7 +991,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:98447332#searchVariation=MLB21562641&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:98447332#searchVariation=MLB21562641&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=fbc7cc12-537d-47d7-99f3-59ab82ba998c</t>
         </is>
       </c>
     </row>
@@ -990,7 +1026,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-k600-combo-5-pecas-longa-distancia-cores-variadas/p/MLB27993263?pdp_filters=seller_id:98447332#searchVariation=MLB27993263&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
+          <t>https://www.mercadolivre.com.br/jfa-k600-combo-5-pecas-longa-distancia-cores-variadas/p/MLB27993263?pdp_filters=seller_id:98447332#searchVariation=MLB27993263&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=fbc7cc12-537d-47d7-99f3-59ab82ba998c</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1061,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:98447332#searchVariation=MLB21455208&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:98447332#searchVariation=MLB21455208&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=fbc7cc12-537d-47d7-99f3-59ab82ba998c</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1096,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:98447332#searchVariation=MLB21320712&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7ca3bae-15df-4d21-9ad8-57a7ae8fcfd0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:98447332#searchVariation=MLB21320712&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=fbc7cc12-537d-47d7-99f3-59ab82ba998c</t>
         </is>
       </c>
     </row>
@@ -1072,13 +1108,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>54.99</v>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1091,7 +1131,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:98447332#searchVariation=MLB32381086&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=db0c3ee1-841d-48f3-b5b5-8b8394af7ec8</t>
+          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:98447332#searchVariation=MLB32381086&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=fbc7cc12-537d-47d7-99f3-59ab82ba998c</t>
         </is>
       </c>
     </row>
@@ -1103,13 +1143,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1122,25 +1166,29 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:98447332#searchVariation=MLB31403178&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=db0c3ee1-841d-48f3-b5b5-8b8394af7ec8</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:98447332#searchVariation=MLB31403178&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=73e0965f-027b-4adb-b1df-ab27cb237fff</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Usina 200ah Bivolt + Controle Jfa K600 Brinde</t>
+          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>899</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>772.02</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1153,7 +1201,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1968888369-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddb0c3ee1-841d-48f3-b5b5-8b8394af7ec8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717157810-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D73e0965f-027b-4adb-b1df-ab27cb237fff</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1236,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305184466-fonte-carregador-automotivo-jfa-120a-sci-redline-red-line-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddb0c3ee1-841d-48f3-b5b5-8b8394af7ec8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305184466-fonte-carregador-automotivo-jfa-120a-sci-redline-red-line-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D73e0965f-027b-4adb-b1df-ab27cb237fff</t>
         </is>
       </c>
     </row>
@@ -1200,13 +1248,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>805.59</v>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1219,7 +1271,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305212758-fonte-carregador-jfa-200a-sci-redline-voltamp-110-220v-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddb0c3ee1-841d-48f3-b5b5-8b8394af7ec8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305212758-fonte-carregador-jfa-200a-sci-redline-voltamp-110-220v-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D73e0965f-027b-4adb-b1df-ab27cb237fff</t>
         </is>
       </c>
     </row>
@@ -1231,13 +1283,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>99</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>100.98</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1250,29 +1306,25 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498563162-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddb0c3ee1-841d-48f3-b5b5-8b8394af7ec8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1331581740-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D73e0965f-027b-4adb-b1df-ab27cb237fff</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jfa 60 A - Fonte Carregador Bateria Inteligente Estabilizada</t>
+          <t>Fonte Usina 200ah Bivolt + Controle Jfa K600 Brinde</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>899</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1280,12 +1332,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1096690111-jfa-60-a-fonte-carregador-bateria-inteligente-estabilizada-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddb0c3ee1-841d-48f3-b5b5-8b8394af7ec8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1968888369-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D73e0965f-027b-4adb-b1df-ab27cb237fff</t>
         </is>
       </c>
     </row>
@@ -1297,13 +1349,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>100.98</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+        <v>99</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1316,23 +1372,23 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1331581740-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b4307f1-c585-4cc5-b1ec-85cbcd5b7a28</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498563162-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D73e0965f-027b-4adb-b1df-ab27cb237fff</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
+          <t>Jfa 60 A - Fonte Carregador Bateria Inteligente Estabilizada</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>772.02</v>
+        <v>492.3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1346,32 +1402,32 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717157810-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b4307f1-c585-4cc5-b1ec-85cbcd5b7a28</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1096690111-jfa-60-a-fonte-carregador-bateria-inteligente-estabilizada-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D73e0965f-027b-4adb-b1df-ab27cb237fff</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Jfa Para Caixa Bob Esponja Storm 200a Bivolt Forte</t>
+          <t>Controle Longa Distancia Jfa K1200 Vermelho Similar  Stetsom</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>772.02</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1386,25 +1442,29 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717143773-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b4307f1-c585-4cc5-b1ec-85cbcd5b7a28</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1470305278-controle-longa-distancia-jfa-k1200-vermelho-similar-stetsom-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfd731244-5224-4992-af20-ef62ad4ab95f</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Vermelho Similar  Stetsom</t>
+          <t xml:space="preserve">Fonte Carregador Jfa 200a Sci Redline Voltímetro Bivolt </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>1050</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1417,14 +1477,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1470305278-controle-longa-distancia-jfa-k1200-vermelho-similar-stetsom-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b4307f1-c585-4cc5-b1ec-85cbcd5b7a28</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569053-fonte-carregador-jfa-200a-sci-redline-voltimetro-bivolt-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfd731244-5224-4992-af20-ef62ad4ab95f</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Jfa 200a Sci Redline Voltímetro Bivolt </t>
+          <t>Fonte Automotiva 200 Amperes Jfa Carregador Original</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1433,7 +1493,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1050</v>
+        <v>939.86</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1452,14 +1512,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569053-fonte-carregador-jfa-200a-sci-redline-voltimetro-bivolt-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b4307f1-c585-4cc5-b1ec-85cbcd5b7a28</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1049919967-fonte-automotiva-200-amperes-jfa-carregador-original-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfd731244-5224-4992-af20-ef62ad4ab95f</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fonte Carregador 200 Amperes Jfa Sci Inteligente 10.000w Rms</t>
+          <t>Fonte Carregador Jfa 200 Amperes Sci Mais Vendido Do Brasil</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1487,14 +1547,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182763848-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b4307f1-c585-4cc5-b1ec-85cbcd5b7a28</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182758232-fonte-carregador-jfa-200-amperes-sci-mais-vendido-do-brasil-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfd731244-5224-4992-af20-ef62ad4ab95f</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 200 Amperes Jfa Carregador Original</t>
+          <t>Fonte Automotiva 200 Amperes Jfa Storm Redline Cca Sci Smart</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1522,14 +1582,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1049919967-fonte-automotiva-200-amperes-jfa-carregador-original-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b4307f1-c585-4cc5-b1ec-85cbcd5b7a28</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174612894-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfd731244-5224-4992-af20-ef62ad4ab95f</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200 Amperes Sci Mais Vendido Do Brasil</t>
+          <t>Fonte Carregador Jfa 200 Amperes Sci Mais Forte Do Brasil</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1557,19 +1617,19 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182758232-fonte-carregador-jfa-200-amperes-sci-mais-vendido-do-brasil-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b4307f1-c585-4cc5-b1ec-85cbcd5b7a28</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498563555-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfd731244-5224-4992-af20-ef62ad4ab95f</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 200 Amperes Jfa Storm Redline Cca Sci Smart</t>
+          <t>Fonte Carregador Jfa 200a Sci Digital Bivolt 110 / 220v</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1592,14 +1652,14 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174612894-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b4307f1-c585-4cc5-b1ec-85cbcd5b7a28</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569128-fonte-carregador-jfa-200a-sci-digital-bivolt-110-220v-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfd731244-5224-4992-af20-ef62ad4ab95f</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200 Amperes Sci Mais Forte Do Brasil</t>
+          <t>Fonte Carregador Jfa Storm 200a Bivolt Flutuação Proteção</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1627,25 +1687,29 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498563555-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b4307f1-c585-4cc5-b1ec-85cbcd5b7a28</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174611533-fonte-carregador-jfa-storm-200a-bivolt-flutuaco-proteco-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfd731244-5224-4992-af20-ef62ad4ab95f</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Sci Digital Bivolt 110 / 220v</t>
+          <t>Fonte Automotiva Jfa 60a Slim Azul Bivolt Voltímetro Digital</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>939.86</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
+        <v>799</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1658,23 +1722,23 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569128-fonte-carregador-jfa-200a-sci-digital-bivolt-110-220v-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566936-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-digital-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfd731244-5224-4992-af20-ef62ad4ab95f</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Bivolt Flutuação Proteção</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Sci Redline Red Line</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>939.86</v>
+        <v>738.9</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1693,29 +1757,25 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174611533-fonte-carregador-jfa-storm-200a-bivolt-flutuaco-proteco-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569066-fonte-carregador-automotivo-jfa-120a-sci-redline-red-line-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 60a Slim Azul Bivolt Voltímetro Digital</t>
+          <t>Melhor Fonte 200a Caixa Bob Jfa 200a Storm Lite 110/220v</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>799</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>716.71</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1728,29 +1788,25 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566936-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-digital-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3603511670-melhor-fonte-200a-caixa-bob-jfa-200a-storm-lite-110220v-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Sci Redline Red Line</t>
+          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>738.9</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1763,25 +1819,29 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569066-fonte-carregador-automotivo-jfa-120a-sci-redline-red-line-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1046249773-fonte-automotiva-spark-usina-120a-controle-jfa-k600-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Melhor Fonte 200a Caixa Bob Jfa 200a Storm Lite 110/220v</t>
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo 2019</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>716.71</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1794,25 +1854,29 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3603511670-melhor-fonte-200a-caixa-bob-jfa-200a-storm-lite-110220v-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237796256-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2019-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600</t>
+          <t>Fonte Automotiva Jfa 120a Amperes Redline Voltímetro Digital</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>699</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1825,14 +1889,14 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1046249773-fonte-automotiva-spark-usina-120a-controle-jfa-k600-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1564745106-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digital-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo 2019</t>
+          <t>Fonte Carregador Jfa 120 Amperes Sci Redline Volt/amp</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1860,27 +1924,27 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237796256-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2019-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305190307-fonte-carregador-jfa-120-amperes-sci-redline-voltamp-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 70a Slim Bivolt Voltímetro Digital Som</t>
+          <t>Fonte Automotiva 120 A Jfa Carregador Sci Automatico 2019</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>581.8200000000001</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1895,14 +1959,14 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1186951471-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1046393142-fonte-automotiva-120-a-jfa-carregador-sci-automatico-2019-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Amperes Redline Voltímetro Digital</t>
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo 2020</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1930,27 +1994,27 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1564745106-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digital-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569093-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2020-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Sci  Slim Bivolt Volt / Amp Oferta</t>
+          <t xml:space="preserve">Fonte Carregador Automotivo 120a Jfa Digital Sci Bivolt </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>581.8200000000001</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1965,14 +2029,14 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1186960628-fonte-carregador-jfa-70a-sci-slim-bivolt-volt-amp-oferta-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569100-fonte-carregador-automotivo-120a-jfa-digital-sci-bivolt-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120 Amperes Sci Redline Volt/amp</t>
+          <t>Fonte Carregador Jfa 120a Sci Redline Digital Pwm</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2000,14 +2064,14 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305190307-fonte-carregador-jfa-120-amperes-sci-redline-voltamp-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305188255-fonte-carregador-jfa-120a-sci-redline-digital-pwm-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Fonte Carregador Para Sistema Solar Jfa 70a 110/220v</t>
+          <t>Fonte Automotiva Jfa 70a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2035,27 +2099,27 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562481526-fonte-carregador-para-sistema-solar-jfa-70a-110220v-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1186951471-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Automotivo 120a Jfa Digital Sci Bivolt </t>
+          <t>Fonte Carregador Jfa 70a Sci  Slim Bivolt Volt / Amp Oferta</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>674.6799999999999</v>
+        <v>581.8200000000001</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2070,14 +2134,14 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569100-fonte-carregador-automotivo-120a-jfa-digital-sci-bivolt-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1186960628-fonte-carregador-jfa-70a-sci-slim-bivolt-volt-amp-oferta-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 70a Carga Lenta Motor Home</t>
+          <t>Fonte Carregador Para Sistema Solar Jfa 70a 110/220v</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2086,7 +2150,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>581.8099999999999</v>
+        <v>581.8200000000001</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2105,27 +2169,27 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164536163-fonte-carregador-jfa-storm-70a-carga-lenta-motor-home-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562481526-fonte-carregador-para-sistema-solar-jfa-70a-110220v-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador Sci Automatico 2019</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>674.6799999999999</v>
+        <v>581.8099999999999</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2140,27 +2204,27 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1046393142-fonte-automotiva-120-a-jfa-carregador-sci-automatico-2019-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164486791-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Sci Redline Digital Pwm</t>
+          <t>Fonte Carregador Jfa Storm 70a Carga Lenta Motor Home</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>674.6799999999999</v>
+        <v>581.8099999999999</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2175,27 +2239,27 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305188255-fonte-carregador-jfa-120a-sci-redline-digital-pwm-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164536163-fonte-carregador-jfa-storm-70a-carga-lenta-motor-home-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo 2020</t>
+          <t>Melhor Fonte Automotiva 60a Jfa Carregador Inteligente +fret</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>674.6799999999999</v>
+        <v>525.87</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2210,7 +2274,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569093-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2020-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1096690109-melhor-fonte-automotiva-60a-jfa-carregador-inteligente-fret-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
@@ -2245,14 +2309,14 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1096690112-jfa-60-a-slim-sci-fonte-carregador-bateria-12v-inteligente-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1096690112-jfa-60-a-slim-sci-fonte-carregador-bateria-12v-inteligente-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Melhor Fonte Automotiva 60a Jfa Carregador Inteligente +fret</t>
+          <t>Fonte Automotiva 60 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2280,7 +2344,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1096690109-melhor-fonte-automotiva-60a-jfa-carregador-inteligente-fret-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35041435-79b0-4d33-82ae-6d3878f7fe95</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164404273-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
@@ -2315,29 +2379,25 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562481066-fonte-carregador-bateria-estacionaria-jfa-60a-slim-110220v-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De77752f4-8e57-4ce0-80ef-690517514a45</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562481066-fonte-carregador-bateria-estacionaria-jfa-60a-slim-110220v-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 60 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Melhor Fonte 70a Caixa Bob Jfa 70a Storm Lite 110/220v</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>525.87</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>529.38</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2350,14 +2410,14 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164404273-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De77752f4-8e57-4ce0-80ef-690517514a45</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312769683-melhor-fonte-70a-caixa-bob-jfa-70a-storm-lite-110220v-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Melhor Fonte 70a Caixa Bob Jfa 70a Storm Lite 110/220v</t>
+          <t>Fonte Carregador Jfa 70a Storm Lite Bivolt P/ Caixa Bob</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2381,25 +2441,29 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312769683-melhor-fonte-70a-caixa-bob-jfa-70a-storm-lite-110220v-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De77752f4-8e57-4ce0-80ef-690517514a45</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312798635-fonte-carregador-jfa-70a-storm-lite-bivolt-p-caixa-bob-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Storm Lite Bivolt P/ Caixa Bob</t>
+          <t>Fonte Automotiva Jfa 60a Slim Azul Bivolt Voltímetro Digital</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>529.38</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
+        <v>525.87</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2412,7 +2476,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312798635-fonte-carregador-jfa-70a-storm-lite-bivolt-p-caixa-bob-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De77752f4-8e57-4ce0-80ef-690517514a45</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474108302-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-digital-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddee01e6b-b5e1-4a11-ba19-783b7453ef11</t>
         </is>
       </c>
     </row>
@@ -2447,14 +2511,14 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474108302-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-digital-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De77752f4-8e57-4ce0-80ef-690517514a45</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474108302-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-digital-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da09730be-0ac2-46d9-95f9-0aec52c0b499</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Fonte Caregador Jfa 60a Voltímetro/ Amp Redline Sci Bivolt</t>
+          <t>Carregador Bateria Estacionaria Jfa 60a Slim Bivolt Azul</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2482,7 +2546,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498563524-fonte-caregador-jfa-60a-voltimetro-amp-redline-sci-bivolt-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De77752f4-8e57-4ce0-80ef-690517514a45</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474108877-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da09730be-0ac2-46d9-95f9-0aec52c0b499</t>
         </is>
       </c>
     </row>
@@ -2498,11 +2562,11 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>473.28</v>
+        <v>525.87</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2517,14 +2581,14 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305130684-fonte-caregador-jfa-60a-voltimetro-amp-redline-sci-bivolt-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De77752f4-8e57-4ce0-80ef-690517514a45</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498563524-fonte-caregador-jfa-60a-voltimetro-amp-redline-sci-bivolt-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da09730be-0ac2-46d9-95f9-0aec52c0b499</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
+          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt 110v 220v</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2533,11 +2597,11 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>422.93</v>
+        <v>492.3</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2547,19 +2611,19 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927400034-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De28861ba-e532-4520-bf5c-76867a85c505</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927412551-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-110v-220v-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da09730be-0ac2-46d9-95f9-0aec52c0b499</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Jfa 60 A Slim Sci Fonte Carregador Bateria 12v Inteligente</t>
+          <t>Fonte Caregador Jfa 60a Voltímetro/ Amp Redline Sci Bivolt</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2568,11 +2632,11 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>492.3</v>
+        <v>473.28</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2582,19 +2646,19 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1096687395-jfa-60-a-slim-sci-fonte-carregador-bateria-12v-inteligente-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De28861ba-e532-4520-bf5c-76867a85c505</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305130684-fonte-caregador-jfa-60a-voltimetro-amp-redline-sci-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da09730be-0ac2-46d9-95f9-0aec52c0b499</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Fonte Carregador 200 Amperes Jfa Sci Inteligente 10.000w Rms</t>
+          <t>Fonte Carregador Automotiva 200 A Jfa Sci 2019 Oferta</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2622,27 +2686,27 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569129-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De28861ba-e532-4520-bf5c-76867a85c505</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1046354083-fonte-carregador-automotiva-200-a-jfa-sci-2019-oferta-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D47fe4b00-5733-4048-b847-9bc5b5052dd5</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva 200 A Jfa Sci 2019 Oferta</t>
+          <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>895.1</v>
+        <v>422.93</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2657,27 +2721,27 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1046354083-fonte-carregador-automotiva-200-a-jfa-sci-2019-oferta-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De28861ba-e532-4520-bf5c-76867a85c505</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927400034-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D47fe4b00-5733-4048-b847-9bc5b5052dd5</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Amperes Redline Voltímetro Digita</t>
+          <t>Jfa 60 A Slim Sci Fonte Carregador Bateria 12v Inteligente</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>634.4</v>
+        <v>492.3</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2692,23 +2756,23 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562506276-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1096687395-jfa-60-a-slim-sci-fonte-carregador-bateria-12v-inteligente-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6952b8df-a0e9-4bf1-acc1-fbae7fe9681e</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 60 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Carregador 200 Amperes Jfa Sci Inteligente 10.000w Rms</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>492.3</v>
+        <v>895.1</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2727,27 +2791,27 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164410356-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569129-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6952b8df-a0e9-4bf1-acc1-fbae7fe9681e</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Carregador Fonte Para Bateria Estacionaria Nobraque Jfa 70a</t>
+          <t>Fonte Automotiva Jfa 120a Amperes Redline Voltímetro Digita</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>548.24</v>
+        <v>634.4</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2762,25 +2826,29 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562477727-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562506276-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6952b8df-a0e9-4bf1-acc1-fbae7fe9681e</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Fonte Usina 200ah Bivolt + Controle Jfa K600 Brinde</t>
+          <t>Fonte Automotiva 60 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>819</v>
-      </c>
-      <c r="D70" t="inlineStr"/>
+        <v>492.3</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2793,25 +2861,29 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1968888554-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164410356-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6952b8df-a0e9-4bf1-acc1-fbae7fe9681e</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciado Jfa Digital Vs5hi Alta/baixa Voltagem</t>
+          <t>Carregador Fonte Para Bateria Estacionaria Nobraque Jfa 70a</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D71" t="inlineStr"/>
+        <v>548.24</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2819,19 +2891,19 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569281-voltimetro-sequenciado-jfa-digital-vs5hi-altabaixa-voltagem-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562477727-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6952b8df-a0e9-4bf1-acc1-fbae7fe9681e</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
+          <t>Fonte Usina 200ah Bivolt + Controle Jfa K600 Brinde</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2840,7 +2912,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>100.98</v>
+        <v>819</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
@@ -2850,32 +2922,32 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1331585000-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1968888554-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6952b8df-a0e9-4bf1-acc1-fbae7fe9681e</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>693.7</v>
+        <v>100.98</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2885,32 +2957,32 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717192566-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1331585000-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6952b8df-a0e9-4bf1-acc1-fbae7fe9681e</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Sci  Slim Bivolt Volt / Amp Oferta</t>
+          <t xml:space="preserve">Fonte Carregador 120a Jfa P/ Sistema Solar Estacionária </t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>548.24</v>
+        <v>634.4</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2925,25 +2997,29 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1186960840-fonte-carregador-jfa-70a-sci-slim-bivolt-volt-amp-oferta-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790206-fonte-carregador-120a-jfa-p-sistema-solar-estacionaria-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6952b8df-a0e9-4bf1-acc1-fbae7fe9681e</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Controle De Suspensão Ar Jfa Air Control Black</t>
+          <t>Fonte Carregador Jfa 70a Sci  Slim Bivolt Volt / Amp Oferta</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>193</v>
-      </c>
-      <c r="D75" t="inlineStr"/>
+        <v>548.24</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2956,29 +3032,25 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1814402952-controle-de-suspenso-ar-jfa-air-control-black-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1186960840-fonte-carregador-jfa-70a-sci-slim-bivolt-volt-amp-oferta-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6952b8df-a0e9-4bf1-acc1-fbae7fe9681e</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador 120a Jfa P/ Sistema Solar Estacionária </t>
+          <t>Controle De Suspensão Ar Jfa Air Control Black</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2991,27 +3063,27 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790206-fonte-carregador-120a-jfa-p-sistema-solar-estacionaria-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1814402952-controle-de-suspenso-ar-jfa-air-control-black-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6952b8df-a0e9-4bf1-acc1-fbae7fe9681e</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva Jfa 60a Slim Azul Bivolt Voltímetro </t>
+          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>443.07</v>
+        <v>693.7</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3026,25 +3098,29 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474104454-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717192566-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6952b8df-a0e9-4bf1-acc1-fbae7fe9681e</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciador Jfa Digital Vs5hi Alta/baixa Voltage</t>
+          <t xml:space="preserve">Fonte Automotiva Jfa 60a Slim Azul Bivolt Voltímetro </t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="D78" t="inlineStr"/>
+        <v>443.07</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3057,7 +3133,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1490301022-voltimetro-sequenciador-jfa-digital-vs5hi-altabaixa-voltage-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474104454-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6952b8df-a0e9-4bf1-acc1-fbae7fe9681e</t>
         </is>
       </c>
     </row>
@@ -3092,25 +3168,29 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174593764-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174593764-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6952b8df-a0e9-4bf1-acc1-fbae7fe9681e</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciado Jfa Digital Vs5hi Alta/baixa Voltagem</t>
+          <t>Melhor Fonte Automotiva 60a Jfa Carregador Inteligente +fret</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="D80" t="inlineStr"/>
+        <v>799</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3118,34 +3198,30 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1490301023-voltimetro-sequenciado-jfa-digital-vs5hi-altabaixa-voltagem-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfdf0f073-4df0-4ad5-969d-4299a1c365e1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569191-melhor-fonte-automotiva-60a-jfa-carregador-inteligente-fret-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D13644c84-1fd8-4be7-a1b1-c0f019251f5d</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Melhor Fonte Automotiva 60a Jfa Carregador Inteligente +fret</t>
+          <t>Controle Jfa Suspensão Ar Air Control Longa Distancia 2019</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>799</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3158,25 +3234,29 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569191-melhor-fonte-automotiva-60a-jfa-carregador-inteligente-fret-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1046440886-controle-jfa-suspenso-ar-air-control-longa-distancia-2019-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D13644c84-1fd8-4be7-a1b1-c0f019251f5d</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Controle Jfa Suspensão Ar Air Control Longa Distancia 2019</t>
+          <t>Fonte Jfa Para Caixa Bob Esponja Storm 200a Bivolt Forte</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>193</v>
-      </c>
-      <c r="D82" t="inlineStr"/>
+        <v>693.7</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3189,25 +3269,29 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1046440886-controle-jfa-suspenso-ar-air-control-longa-distancia-2019-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717191411-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D13644c84-1fd8-4be7-a1b1-c0f019251f5d</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Melhor Voltímetro Sequenciador Jfa Vs5hi 12v + Vendido</t>
+          <t>Fonte Automotiva 200a Jfa Carregador Original 2019</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="D83" t="inlineStr"/>
+        <v>895.1</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3220,14 +3304,14 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875306704-melhor-voltimetro-sequenciador-jfa-vs5hi-12v-vendido-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1046357841-fonte-automotiva-200a-jfa-carregador-original-2019-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D13644c84-1fd8-4be7-a1b1-c0f019251f5d</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Volt/ampe</t>
+          <t>Fonte Carregador Jfa 120a Automotiva Pwm Sci Bivolt</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3255,25 +3339,29 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305194830-fonte-carregador-jfa-120-amperes-sci-red-line-voltampe-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237791569-fonte-carregador-jfa-120a-automotiva-pwm-sci-bivolt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D13644c84-1fd8-4be7-a1b1-c0f019251f5d</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciador Jfa Digital Vs5hi Alta/baixa Voltage</t>
+          <t xml:space="preserve">Fonte Automotiva 200a Jfa Sci Carregador Automático Full </t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="D85" t="inlineStr"/>
+        <v>895.1</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3286,25 +3374,29 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569282-voltimetro-sequenciador-jfa-digital-vs5hi-altabaixa-voltage-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182755306-fonte-automotiva-200a-jfa-sci-carregador-automatico-full-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D13644c84-1fd8-4be7-a1b1-c0f019251f5d</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sequenciador Voltimetro Medidor Bateria Digital Jfa Vs5 Hi</t>
+          <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Volt/ampe</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="D86" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3312,32 +3404,32 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875294056-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305194830-fonte-carregador-jfa-120-amperes-sci-red-line-voltampe-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D13644c84-1fd8-4be7-a1b1-c0f019251f5d</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Fonte Jfa Para Caixa Bob Esponja Storm 200a Bivolt Forte</t>
+          <t>Controle Longa Distancia Jfa K1200 Azul Similar  Stetsom</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>693.7</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3347,28 +3439,28 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717191411-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1470305417-controle-longa-distancia-jfa-k1200-azul-similar-stetsom-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D13644c84-1fd8-4be7-a1b1-c0f019251f5d</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 200a Jfa Carregador Original 2019</t>
+          <t>Fonte Carregador Jfa 200a Sci Redline Bivolt 110/220v</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>895.1</v>
+        <v>1020</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3387,27 +3479,27 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1046357841-fonte-automotiva-200a-jfa-carregador-original-2019-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567020-fonte-carregador-jfa-200a-sci-redline-bivolt-110220v-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D13644c84-1fd8-4be7-a1b1-c0f019251f5d</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva 200a Jfa Sci Carregador Automático Full </t>
+          <t>Fonte Carregador 120 A Jfa Com Sistema Sci Volt/amp</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>895.1</v>
+        <v>634.4</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3422,14 +3514,14 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182755306-fonte-automotiva-200a-jfa-sci-carregador-automatico-full-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569045-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D13644c84-1fd8-4be7-a1b1-c0f019251f5d</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Sci Digital Automatica</t>
+          <t>Fonte Carregador Jfa 120a Automotiva Pwm Sci Bivolt</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3438,11 +3530,11 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>634.4</v>
+        <v>799</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3457,25 +3549,29 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237799972-fonte-carregador-jfa-120a-sci-digital-automatica-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569097-fonte-carregador-jfa-120a-automotiva-pwm-sci-bivolt-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D13644c84-1fd8-4be7-a1b1-c0f019251f5d</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Sci Redline Bivolt 110/220v</t>
+          <t>Fonte Carregador Jfa 60a Redline Red Line Smart Cooler</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1020</v>
-      </c>
-      <c r="D91" t="inlineStr"/>
+        <v>492.3</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3488,29 +3584,25 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567020-fonte-carregador-jfa-200a-sci-redline-bivolt-110220v-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1983201495-fonte-carregador-jfa-60a-redline-red-line-smart-cooler-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D13644c84-1fd8-4be7-a1b1-c0f019251f5d</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Fonte Carregador 120 A Jfa Com Sistema Sci Volt/amp</t>
+          <t>Filtro Anti Ruido Jfa Rca Com Blindagem P/ Som Automotivo</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>69.90000000000001</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3518,34 +3610,30 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569045-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2044232386-filtro-anti-ruido-jfa-rca-com-blindagem-p-som-automotivo-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a0790f0-8693-47de-9ea4-09fe7af3535a</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Automotiva Pwm Sci Bivolt</t>
+          <t>Filtro Anti-ruido Jfa Rca Cd Dvd Eletromagnético Stereo</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>799</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>59.99</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3558,25 +3646,29 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569097-fonte-carregador-jfa-120a-automotiva-pwm-sci-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2087198179-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a0790f0-8693-47de-9ea4-09fe7af3535a</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Rca Cd Dvd Eletromagnético Stereo</t>
+          <t>Controle Longa Distância Jfa K1200 Resistente A Água Branco</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>59.99</v>
-      </c>
-      <c r="D94" t="inlineStr"/>
+        <v>87.90000000000001</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3584,19 +3676,19 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2087198179-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De91c6402-0819-48ec-afe3-795a38b95564</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724243915-controle-longa-distncia-jfa-k1200-resistente-a-agua-branco-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a0790f0-8693-47de-9ea4-09fe7af3535a</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Resistente A Água Branco</t>
+          <t>Melhor Fonte 200a Caixa Bob Jfa 200a Storm Lite 110/220v</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3605,7 +3697,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>87.90000000000001</v>
+        <v>681.83</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
@@ -3615,19 +3707,19 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724243915-controle-longa-distncia-jfa-k1200-resistente-a-agua-branco-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312850141-melhor-fonte-200a-caixa-bob-jfa-200a-storm-lite-110220v-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a0790f0-8693-47de-9ea4-09fe7af3535a</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Melhor Fonte 200a Caixa Bob Jfa 200a Storm Lite 110/220v</t>
+          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3636,7 +3728,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>681.83</v>
+        <v>719</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
@@ -3651,25 +3743,29 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312850141-melhor-fonte-200a-caixa-bob-jfa-200a-storm-lite-110220v-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1087811559-fonte-automotiva-spark-usina-120a-controle-jfa-k600-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a0790f0-8693-47de-9ea4-09fe7af3535a</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600</t>
+          <t>Fonte Carregador Jfa 120a Sci Digital Automatica</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>719</v>
-      </c>
-      <c r="D97" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3682,7 +3778,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1087811559-fonte-automotiva-spark-usina-120a-controle-jfa-k600-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237799972-fonte-carregador-jfa-120a-sci-digital-automatica-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a0790f0-8693-47de-9ea4-09fe7af3535a</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3813,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305130707-fonte-automotiva-jfa-60a-slim-bivolt-voltimetro-redline-pwm-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305130707-fonte-automotiva-jfa-60a-slim-bivolt-voltimetro-redline-pwm-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a0790f0-8693-47de-9ea4-09fe7af3535a</t>
         </is>
       </c>
     </row>
@@ -3752,25 +3848,29 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305185086-fonte-carregador-jfa-120-amperes-sci-redline-pwm-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305185086-fonte-carregador-jfa-120-amperes-sci-redline-pwm-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a0790f0-8693-47de-9ea4-09fe7af3535a</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Azul Similar  Stetsom</t>
+          <t>Combo 10 Kits Jfa K600 - Controle Longa Distancia P/ Pioneer</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="D100" t="inlineStr"/>
+        <v>695</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3778,30 +3878,34 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1470305417-controle-longa-distancia-jfa-k1200-azul-similar-stetsom-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566633-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a0790f0-8693-47de-9ea4-09fe7af3535a</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Combo 10 Kits Jfa K600 - Controle Longa Distancia P/ Pioneer</t>
+          <t>Carregador Bateria Estacionaria Jfa 60a Slim Bivolt Azul</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>695</v>
-      </c>
-      <c r="D101" t="inlineStr"/>
+        <v>492.3</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3814,23 +3918,23 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566633-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562481180-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a0790f0-8693-47de-9ea4-09fe7af3535a</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Carregador Bateria Estacionaria Jfa 60a Slim Bivolt Azul</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>492.3</v>
+        <v>548.24</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3849,25 +3953,29 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562481180-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164438433-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a0790f0-8693-47de-9ea4-09fe7af3535a</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sequenciador Voltímetro Medidor Bateria Digital Jfa Vs5 Hi</t>
+          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="D103" t="inlineStr"/>
+        <v>84.42</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3880,25 +3988,29 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875293878-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724100903-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a0790f0-8693-47de-9ea4-09fe7af3535a</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Melhor Voltímetro Com Sequenciador Jfa Vs5hi Hv 12v</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="D104" t="inlineStr"/>
+        <v>469.92</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3906,28 +4018,28 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875306853-melhor-voltimetro-com-sequenciador-jfa-vs5hi-hv-12v-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927448002-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a0790f0-8693-47de-9ea4-09fe7af3535a</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Redline Red Line Smart Cooler</t>
+          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>492.3</v>
+        <v>818.46</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3946,25 +4058,29 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983201495-fonte-carregador-jfa-60a-redline-red-line-smart-cooler-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3284173925-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a0790f0-8693-47de-9ea4-09fe7af3535a</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruido Jfa Rca Com Blindagem P/ Som Automotivo</t>
+          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca 220v</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="D106" t="inlineStr"/>
+        <v>818.46</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3972,28 +4088,28 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2044232386-filtro-anti-ruido-jfa-rca-com-blindagem-p-som-automotivo-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3284200713-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a0790f0-8693-47de-9ea4-09fe7af3535a</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Jfa 200a Slim Sci Carga Lenta / Rápida 110/220 Volts</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>548.24</v>
+        <v>895.1</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -4012,25 +4128,29 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164438433-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182764919-fonte-jfa-200a-slim-sci-carga-lenta-rapida-110220-volts-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df84c4523-1660-49d6-8cc3-0e3679c8d361</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top</t>
+          <t>Fonte Automotiva Jfa 70a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>84.42</v>
-      </c>
-      <c r="D108" t="inlineStr"/>
+        <v>548.24</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4043,27 +4163,27 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724100903-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1186957553-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df84c4523-1660-49d6-8cc3-0e3679c8d361</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+          <t>Fonte Automotiva 120a Jfa Carregador Slim Pwm</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>469.92</v>
+        <v>634.4</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4078,25 +4198,29 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927448002-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790716-fonte-automotiva-120a-jfa-carregador-slim-pwm-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df84c4523-1660-49d6-8cc3-0e3679c8d361</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
+          <t>Fonte Carregador 120a Jfa Sci Digital Pwm Muito Forte</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>818.46</v>
-      </c>
-      <c r="D110" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4109,25 +4233,29 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3284173925-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237795118-fonte-carregador-120a-jfa-sci-digital-pwm-muito-forte-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df84c4523-1660-49d6-8cc3-0e3679c8d361</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca 220v</t>
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo 2019</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>818.46</v>
-      </c>
-      <c r="D111" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4140,27 +4268,27 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3284200713-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad49cea4-11c0-4c5c-8fdc-251956670f6d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237799937-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2019-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df84c4523-1660-49d6-8cc3-0e3679c8d361</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Fonte Jfa 200a Slim Sci Carga Lenta / Rápida 110/220 Volts</t>
+          <t>Controle Longa Distancia Jfa Preto / Cinza K600 Full</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>895.1</v>
+        <v>59.9</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4170,28 +4298,28 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182764919-fonte-jfa-200a-slim-sci-carga-lenta-rapida-110220-volts-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465503280-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df84c4523-1660-49d6-8cc3-0e3679c8d361</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 70a Slim Bivolt Voltímetro Digital Som</t>
+          <t>Controle Longa Distancia Jfa Preto / Cinza K600 Full</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>548.24</v>
+        <v>799</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -4210,27 +4338,27 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1186957553-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566617-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df84c4523-1660-49d6-8cc3-0e3679c8d361</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Automotiva Pwm Sci Bivolt</t>
+          <t>Jfa K600 - Combo 10 Peças Longa Distancia Cores Variadas</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>634.4</v>
+        <v>689</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4245,27 +4373,27 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237791569-fonte-carregador-jfa-120a-automotiva-pwm-sci-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566631-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df84c4523-1660-49d6-8cc3-0e3679c8d361</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo 2019</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Redline 110/220v</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>634.4</v>
+        <v>492.3</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4280,25 +4408,29 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237799937-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2019-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567051-fonte-carregador-automotivo-jfa-60a-redline-110220v-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df84c4523-1660-49d6-8cc3-0e3679c8d361</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Preto / Cinza K600 Full</t>
+          <t>Fonte Carregador Jfa 120a Bivolt Brinde Strobo Rgb</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D116" t="inlineStr"/>
+        <v>679</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4306,30 +4438,34 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465503280-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1976483717-fonte-carregador-jfa-120a-bivolt-brinde-strobo-rgb-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df84c4523-1660-49d6-8cc3-0e3679c8d361</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Preto / Cinza K600 Full</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Redline Bivolt</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>799</v>
-      </c>
-      <c r="D117" t="inlineStr"/>
+        <v>492.3</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4342,29 +4478,25 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566617-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1983196761-fonte-carregador-automotivo-jfa-60a-redline-bivolt-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df84c4523-1660-49d6-8cc3-0e3679c8d361</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Jfa K600 - Combo 10 Peças Longa Distancia Cores Variadas</t>
+          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>689</v>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>69.90000000000001</v>
+      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4372,32 +4504,32 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566631-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2044206582-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df84c4523-1660-49d6-8cc3-0e3679c8d361</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Redline 110/220v</t>
+          <t>Nova Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>492.3</v>
+        <v>681.83</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4412,29 +4544,25 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567051-fonte-carregador-automotivo-jfa-60a-redline-110220v-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312829707-nova-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df84c4523-1660-49d6-8cc3-0e3679c8d361</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bivolt Brinde Strobo Rgb</t>
+          <t>Controle Jfa Suspensão Ar Air Control Longa Distancia 2019</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>679</v>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4442,32 +4570,32 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1976483717-fonte-carregador-jfa-120a-bivolt-brinde-strobo-rgb-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1046435472-controle-jfa-suspenso-ar-air-control-longa-distancia-2019-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5134b1b7-0974-4a85-a344-c74363cf82cb</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Redline Bivolt</t>
+          <t>Fonte Carregador Jfa 120a Automotiva Pwm Sci Bivolt</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>492.3</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4477,30 +4605,34 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983196761-fonte-carregador-automotivo-jfa-60a-redline-bivolt-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790138-fonte-carregador-jfa-120a-automotiva-pwm-sci-bivolt-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5134b1b7-0974-4a85-a344-c74363cf82cb</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
+          <t>Fonte Automotiva 120a Jfa Sci Carregador Slim Oferta</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="D122" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4513,23 +4645,23 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2044206582-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790188-fonte-automotiva-120a-jfa-sci-carregador-slim-oferta-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5134b1b7-0974-4a85-a344-c74363cf82cb</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
+          <t xml:space="preserve">Fonte Carregador 120a Jfa Carregador Pwm Muito Forte </t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>681.83</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -4543,30 +4675,34 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312829707-nova-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfbb8796a-3275-4bd2-a9f1-d9fcf8162dae</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790634-fonte-carregador-120a-jfa-carregador-pwm-muito-forte-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5134b1b7-0974-4a85-a344-c74363cf82cb</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Controle Jfa Suspensão Ar Air Control Longa Distancia 2019</t>
+          <t>Carregador Bateria Inteligente Jfa 120a Sci Pwm Muito Forte</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>209</v>
-      </c>
-      <c r="D124" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4579,27 +4715,27 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1046435472-controle-jfa-suspenso-ar-air-control-longa-distancia-2019-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237796310-carregador-bateria-inteligente-jfa-120a-sci-pwm-muito-forte-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5134b1b7-0974-4a85-a344-c74363cf82cb</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Jfa Sci Carregador Slim Oferta</t>
+          <t>Controle K600 Jfa Preto Cinza Mais Barato Do Brasil</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>674.6799999999999</v>
+        <v>54.99</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4609,32 +4745,32 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790188-fonte-automotiva-120a-jfa-sci-carregador-slim-oferta-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465516645-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5134b1b7-0974-4a85-a344-c74363cf82cb</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador 120a Jfa Carregador Pwm Muito Forte </t>
+          <t>Kit 5 Unid Controle Loga Distancia Jfa K600 Cores Variadas</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>674.6799999999999</v>
+        <v>339</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4644,32 +4780,32 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790634-fonte-carregador-120a-jfa-carregador-pwm-muito-forte-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498563138-kit-5-unid-controle-loga-distancia-jfa-k600-cores-variadas-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5134b1b7-0974-4a85-a344-c74363cf82cb</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Jfa Carregador Slim Pwm</t>
+          <t>Kit 5 Unid Controle Loga Distancia Jfa K600 Cores Variadas</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>634.4</v>
+        <v>359</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4679,32 +4815,32 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790716-fonte-automotiva-120a-jfa-carregador-slim-pwm-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566625-kit-5-unid-controle-loga-distancia-jfa-k600-cores-variadas-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5134b1b7-0974-4a85-a344-c74363cf82cb</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Fonte Carregador 120a Jfa Sci Digital Pwm Muito Forte</t>
+          <t>Jfa K600 - Combo 10 Peças Longa Distancia Cores Variadas</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>634.4</v>
+        <v>705</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4714,19 +4850,19 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237795118-fonte-carregador-120a-jfa-sci-digital-pwm-muito-forte-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566632-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5134b1b7-0974-4a85-a344-c74363cf82cb</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Carregador Bateria Inteligente Jfa 120a Sci Pwm Muito Forte</t>
+          <t>Fonte Carregador Jfa 120a Sci Redline Bivolt Digital Pwm</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4754,25 +4890,29 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237796310-carregador-bateria-inteligente-jfa-120a-sci-pwm-muito-forte-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567049-fonte-carregador-jfa-120a-sci-redline-bivolt-digital-pwm-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5134b1b7-0974-4a85-a344-c74363cf82cb</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Controle K600 Jfa Preto Cinza Mais Barato Do Brasil</t>
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo 2020</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>54.99</v>
-      </c>
-      <c r="D130" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4785,27 +4925,27 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465516645-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567068-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2020-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5134b1b7-0974-4a85-a344-c74363cf82cb</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Carregador Bateria Estacionaria Jfa 60a Slim Bivolt Azul</t>
+          <t>Fonte Carregador 120a Jfa P/ Sistema Solar</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>525.87</v>
+        <v>634.4</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4815,30 +4955,34 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474108877-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567076-fonte-carregador-120a-jfa-p-sistema-solar-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5134b1b7-0974-4a85-a344-c74363cf82cb</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Kit 5 Unid Controle Loga Distancia Jfa K600 Cores Variadas</t>
+          <t>Fonte Automotiva 120 A Jfa Carregador Sci Automatico 2020</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>359</v>
-      </c>
-      <c r="D132" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4851,23 +4995,23 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566625-kit-5-unid-controle-loga-distancia-jfa-k600-cores-variadas-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567214-fonte-automotiva-120-a-jfa-carregador-sci-automatico-2020-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5134b1b7-0974-4a85-a344-c74363cf82cb</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Jfa K600 - Combo 10 Peças Longa Distancia Cores Variadas</t>
+          <t>Combo 10 Kits Jfa K600 - Controle Longa Distancia P/ Pioneer</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -4881,32 +5025,32 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566632-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498568735-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5134b1b7-0974-4a85-a344-c74363cf82cb</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Sci Redline Bivolt Digital Pwm</t>
+          <t>Carregador Fonte Para Bateria Estacionaria Nobraque Jfa 70a</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>674.6799999999999</v>
+        <v>581.8200000000001</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4921,27 +5065,27 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567049-fonte-carregador-jfa-120a-sci-redline-bivolt-digital-pwm-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562475887-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd150ab11-69af-43bc-9fc5-37941e728004</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo 2020</t>
+          <t>Fonte Carregador Jfa 70a Slim Mais Forte Que 60a Azul</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>634.4</v>
+        <v>581.8200000000001</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4951,19 +5095,19 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567068-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-2020-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562481255-fonte-carregador-jfa-70a-slim-mais-forte-que-60a-azul-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd150ab11-69af-43bc-9fc5-37941e728004</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Fonte Carregador 120a Jfa P/ Sistema Solar</t>
+          <t xml:space="preserve">Fonte Carregador Jfa 120a Sci Bivolt Mais Vendida </t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4991,27 +5135,27 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567076-fonte-carregador-120a-jfa-p-sistema-solar-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1980641916-fonte-carregador-jfa-120a-sci-bivolt-mais-vendida-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd150ab11-69af-43bc-9fc5-37941e728004</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador Sci Automatico 2020</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Red Line</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>674.6799999999999</v>
+        <v>525.87</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5026,14 +5170,14 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567214-fonte-automotiva-120-a-jfa-carregador-sci-automatico-2020-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1983200882-fonte-carregador-automotivo-jfa-60a-red-line-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd150ab11-69af-43bc-9fc5-37941e728004</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Combo 10 Kits Jfa K600 - Controle Longa Distancia P/ Pioneer</t>
+          <t>Filtro Anti-ruido Jfa Rca Cd Dvd Eletromagnético Stereo</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5042,7 +5186,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>689</v>
+        <v>75.33</v>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
@@ -5052,28 +5196,28 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498568735-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1ab6266-f141-4e8a-b19d-c1c253fdb4fe</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2087227820-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e154654-77ef-4f02-a9fe-96cb0e996cd1</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Carregador Fonte Para Bateria Estacionaria Nobraque Jfa 70a</t>
+          <t>Melhor Fonte 120a Caixa Bob Jfa 120a Storm 110/220v</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>581.8200000000001</v>
+        <v>634.4</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -5087,28 +5231,28 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562475887-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D338f7c22-7736-4a58-8a45-6a4ffac43d66</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161654997-melhor-fonte-120a-caixa-bob-jfa-120a-storm-110220v-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e154654-77ef-4f02-a9fe-96cb0e996cd1</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Slim Mais Forte Que 60a Azul</t>
+          <t>Fonte Automotiva Storm Jfa 60a Multifunção Inteligente Slim</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>581.8200000000001</v>
+        <v>525.87</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -5127,25 +5271,29 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562481255-fonte-carregador-jfa-70a-slim-mais-forte-que-60a-azul-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D338f7c22-7736-4a58-8a45-6a4ffac43d66</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164391968-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e154654-77ef-4f02-a9fe-96cb0e996cd1</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Voltímetro Jfa Vs5hi 3 Em 1 Sequenciador High Voltagem /12v</t>
+          <t>Fonte Carregador Jfa Storm 70a Carga Lenta Motor Home</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="D141" t="inlineStr"/>
+        <v>548.24</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5158,25 +5306,29 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875295364-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D338f7c22-7736-4a58-8a45-6a4ffac43d66</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164536185-fonte-carregador-jfa-storm-70a-carga-lenta-motor-home-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e154654-77ef-4f02-a9fe-96cb0e996cd1</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Voltímetro Digital  Jfa Vs5hi Lançamento 3 Em 1 Som Paredão</t>
+          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca Sci</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="D142" t="inlineStr"/>
+        <v>939.86</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5184,30 +5336,34 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875297661-voltimetro-digital-jfa-vs5hi-lancamento-3-em-1-som-paredo-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D338f7c22-7736-4a58-8a45-6a4ffac43d66</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174554291-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e154654-77ef-4f02-a9fe-96cb0e996cd1</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Voltímetro Jfa Vs5hi Hv/12v Sequenciador Caixa Bob Paredão</t>
+          <t>Carregador Fonte Automotivo 120a Jfa Stomr</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="D143" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5215,30 +5371,34 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875305674-voltimetro-jfa-vs5hi-hv12v-sequenciador-caixa-bob-paredo-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D338f7c22-7736-4a58-8a45-6a4ffac43d66</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161655203-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e154654-77ef-4f02-a9fe-96cb0e996cd1</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Voltímetro Jfa Vs5hi Hv/12v Sequenciador Caixa Bob Paredão</t>
+          <t>Fonte Jfa Storm 60a Com Medidor Cca Slim Bivolt</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="D144" t="inlineStr"/>
+        <v>492.3</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5251,27 +5411,27 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875307435-voltimetro-jfa-vs5hi-hv12v-sequenciador-caixa-bob-paredo-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D338f7c22-7736-4a58-8a45-6a4ffac43d66</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164397552-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e154654-77ef-4f02-a9fe-96cb0e996cd1</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Jfa 120a Sci Bivolt Mais Vendida </t>
+          <t>Fonte Carregador Jfa Storm 200a Carga Lenta Motor Home</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>634.4</v>
+        <v>939.86</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5281,28 +5441,28 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1980641916-fonte-carregador-jfa-120a-sci-bivolt-mais-vendida-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D338f7c22-7736-4a58-8a45-6a4ffac43d66</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174580386-fonte-carregador-jfa-storm-200a-carga-lenta-motor-home-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e154654-77ef-4f02-a9fe-96cb0e996cd1</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Red Line</t>
+          <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>525.87</v>
+        <v>939.86</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -5321,25 +5481,29 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983200882-fonte-carregador-automotivo-jfa-60a-red-line-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D338f7c22-7736-4a58-8a45-6a4ffac43d66</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174605405-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e154654-77ef-4f02-a9fe-96cb0e996cd1</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Rca Cd Dvd Eletromagnético Stereo</t>
+          <t>Fonte Carregador Jfa Storm 200a Bivolt Flutuação Proteção</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>75.33</v>
-      </c>
-      <c r="D147" t="inlineStr"/>
+        <v>895.1</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5347,32 +5511,32 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2087227820-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174611729-fonte-carregador-jfa-storm-200a-bivolt-flutuaco-proteco-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e154654-77ef-4f02-a9fe-96cb0e996cd1</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Carregador Fonte Automotivo 120a Jfa Stomr</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>634.4</v>
+        <v>772.02</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5382,28 +5546,28 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161655203-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717163730-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e154654-77ef-4f02-a9fe-96cb0e996cd1</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Storm Jfa 60a Multifunção Inteligente Slim</t>
+          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top Branco</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>525.87</v>
+        <v>108.99</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -5417,28 +5581,28 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164391968-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724250171-controle-longa-distancia-jfa-k1200-acqua-completo-top-branco-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e154654-77ef-4f02-a9fe-96cb0e996cd1</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>581.8099999999999</v>
+        <v>492.3</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -5457,23 +5621,23 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164486791-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927430681-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e154654-77ef-4f02-a9fe-96cb0e996cd1</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca Sci</t>
+          <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>939.86</v>
+        <v>492.3</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -5492,27 +5656,27 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174554291-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927505074-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e154654-77ef-4f02-a9fe-96cb0e996cd1</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 60a Com Medidor Cca Slim Bivolt</t>
+          <t>Controle Longa Jfa K600 Branco / Cinza + Central Universal</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>492.3</v>
+        <v>54.99</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5527,23 +5691,23 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164397552-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3311521185-controle-longa-jfa-k600-branco-cinza-central-universal-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e154654-77ef-4f02-a9fe-96cb0e996cd1</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 70a Carga Lenta Motor Home</t>
+          <t>Fonte Automotiva 200 A Jfa Sci Carregador Automático Slim</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>548.24</v>
+        <v>939.86</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -5557,28 +5721,28 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164536185-fonte-carregador-jfa-storm-70a-carga-lenta-motor-home-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182755295-fonte-automotiva-200-a-jfa-sci-carregador-automatico-slim-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4480529e-f99f-479e-b382-5e4a0868ba56</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Carga Lenta Motor Home</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Redline Pwm</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>939.86</v>
+        <v>525.87</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -5597,27 +5761,27 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174580386-fonte-carregador-jfa-storm-200a-carga-lenta-motor-home-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305139125-fonte-carregador-automotivo-jfa-60a-redline-pwm-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4480529e-f99f-479e-b382-5e4a0868ba56</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
+          <t xml:space="preserve">Fonte Automotiva 120 A Jfa Com Sistema Sci Flutuação </t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>939.86</v>
+        <v>634.4</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5627,32 +5791,32 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174605405-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1311934406-fonte-automotiva-120-a-jfa-com-sistema-sci-flutuaco-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4480529e-f99f-479e-b382-5e4a0868ba56</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Bivolt Flutuação Proteção</t>
+          <t>Fonte Carregador 120a Jfa Bivolt Com Sistema Sci Volt/amp</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>895.1</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5662,32 +5826,32 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174611729-fonte-carregador-jfa-storm-200a-bivolt-flutuaco-proteco-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1311934437-fonte-carregador-120a-jfa-bivolt-com-sistema-sci-voltamp-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4480529e-f99f-479e-b382-5e4a0868ba56</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
+          <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Pwm</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>772.02</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5702,25 +5866,29 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717163730-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1311936409-fonte-automotiva-120-a-jfa-carregador-com-sistema-pwm-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4480529e-f99f-479e-b382-5e4a0868ba56</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top Branco</t>
+          <t>Controle Longa Distancia Completo Jfa K600 Preto / Laranja</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>108.99</v>
-      </c>
-      <c r="D158" t="inlineStr"/>
+        <v>59.9</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5728,28 +5896,28 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724250171-controle-longa-distancia-jfa-k1200-acqua-completo-top-branco-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465507273-controle-longa-distancia-completo-jfa-k600-preto-laranja-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4480529e-f99f-479e-b382-5e4a0868ba56</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+          <t>Carregador Bateria Jfa 60a Slim Bivolt 2020 Azul</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>492.3</v>
+        <v>525.87</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -5768,23 +5936,23 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927430681-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474108345-carregador-bateria-jfa-60a-slim-bivolt-2020-azul-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4480529e-f99f-479e-b382-5e4a0868ba56</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
+          <t>Fonte Carregador Para Sistema Solar Jfa 70a Bivolt</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>492.3</v>
+        <v>548.24</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -5798,30 +5966,34 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927505074-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06cecca8-6f79-4f5e-a9e6-305ed74b68de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474155591-fonte-carregador-para-sistema-solar-jfa-70a-bivolt-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4480529e-f99f-479e-b382-5e4a0868ba56</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Controle Longa Jfa K600 Branco / Cinza + Central Universal</t>
+          <t>Fonte Automotiva Jfa 120a Redline Digital Sci Pwm Eae Bivolt</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>54.99</v>
-      </c>
-      <c r="D161" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5829,32 +6001,32 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3311521185-controle-longa-jfa-k600-branco-cinza-central-universal-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1485101170-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4480529e-f99f-479e-b382-5e4a0868ba56</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 200 A Jfa Sci Carregador Automático Slim</t>
+          <t>Controle K600 Jfa Preto Cinza Mais Barato Do Brasil</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>939.86</v>
+        <v>57.9</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5864,32 +6036,32 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182755295-fonte-automotiva-200-a-jfa-sci-carregador-automatico-slim-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498563111-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4480529e-f99f-479e-b382-5e4a0868ba56</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Automotiva Pwm Sci Bivolt</t>
+          <t>Controle Longa Distancia Completo Jfa K600 Preto / Verde</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>674.6799999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5904,27 +6076,27 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790138-fonte-carregador-jfa-120a-automotiva-pwm-sci-bivolt-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566607-controle-longa-distancia-completo-jfa-k600-preto-verde-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4480529e-f99f-479e-b382-5e4a0868ba56</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Redline Pwm</t>
+          <t>Fonte Automotiva Jfa 120a Redline Digital Sci Pwm Eae Bivolt</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>525.87</v>
+        <v>634.4</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5934,32 +6106,32 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305139125-fonte-carregador-automotivo-jfa-60a-redline-pwm-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566856-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4480529e-f99f-479e-b382-5e4a0868ba56</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva 120 A Jfa Com Sistema Sci Flutuação </t>
+          <t>Controle Longa Distancia Completo Jfa K600 Preto / Verde</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>634.4</v>
+        <v>69.42</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5974,27 +6146,27 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311934406-fonte-automotiva-120-a-jfa-com-sistema-sci-flutuaco-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498568726-controle-longa-distancia-completo-jfa-k600-preto-verde-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4480529e-f99f-479e-b382-5e4a0868ba56</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Fonte Carregador 120a Jfa Bivolt Com Sistema Sci Volt/amp</t>
+          <t xml:space="preserve">Controle Longa Distancia Completo Jfa Branco / Cinza K600 </t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>674.6799999999999</v>
+        <v>62</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6004,19 +6176,19 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311934437-fonte-carregador-120a-jfa-bivolt-com-sistema-sci-voltamp-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498568731-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4480529e-f99f-479e-b382-5e4a0868ba56</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Pwm</t>
+          <t>Fonte Carregador 120a Jfa Com Sistema Sci Volt/amp</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -6025,7 +6197,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>674.6799999999999</v>
+        <v>634.4</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -6039,30 +6211,34 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311936409-fonte-automotiva-120-a-jfa-carregador-com-sistema-pwm-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562414197-fonte-carregador-120a-jfa-com-sistema-sci-voltamp-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedde0389-b45c-4629-9773-7c8a868c49e0</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Completo Jfa K600 Preto / Laranja</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D168" t="inlineStr"/>
+        <v>64.90000000000001</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E168" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6075,23 +6251,23 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465507273-controle-longa-distancia-completo-jfa-k600-preto-laranja-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562475230-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedde0389-b45c-4629-9773-7c8a868c49e0</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Carregador Bateria Jfa 60a Slim Bivolt 2020 Azul</t>
+          <t>Fonte Carregador Jfa 70a Azul Slim Mais Forte Que 60a</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>525.87</v>
+        <v>548.24</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -6105,32 +6281,32 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474108345-carregador-bateria-jfa-60a-slim-bivolt-2020-azul-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562475864-fonte-carregador-jfa-70a-azul-slim-mais-forte-que-60a-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedde0389-b45c-4629-9773-7c8a868c49e0</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Fonte Carregador Para Sistema Solar Jfa 70a Bivolt</t>
+          <t xml:space="preserve">Controle Longa Distancia Completo Jfa Branco / Cinza K600 </t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>548.24</v>
+        <v>54.99</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -6145,27 +6321,27 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474155591-fonte-carregador-para-sistema-solar-jfa-70a-bivolt-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562477035-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedde0389-b45c-4629-9773-7c8a868c49e0</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Redline Digital Sci Pwm Eae Bivolt</t>
+          <t xml:space="preserve">Fonte Carregador Jfa 70a Sistema Inteligente Para Bateria </t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>674.6799999999999</v>
+        <v>581.8200000000001</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -6180,14 +6356,14 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1485101170-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562477596-fonte-carregador-jfa-70a-sistema-inteligente-para-bateria-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedde0389-b45c-4629-9773-7c8a868c49e0</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Controle K600 Jfa Preto Cinza Mais Barato Do Brasil</t>
+          <t xml:space="preserve">Jfa Shop </t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -6196,7 +6372,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>57.9</v>
+        <v>59.9</v>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
@@ -6206,30 +6382,34 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498563111-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562480366-jfa-shop-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedde0389-b45c-4629-9773-7c8a868c49e0</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Kit 5 Unid Controle Loga Distancia Jfa K600 Cores Variadas</t>
+          <t xml:space="preserve">Fonte Carregador Jfa 70a Sistema Inteligente Para Bateria </t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>339</v>
-      </c>
-      <c r="D173" t="inlineStr"/>
+        <v>548.24</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6242,25 +6422,29 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498563138-kit-5-unid-controle-loga-distancia-jfa-k600-cores-variadas-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1562481544-fonte-carregador-jfa-70a-sistema-inteligente-para-bateria-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedde0389-b45c-4629-9773-7c8a868c49e0</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Completo Jfa K600 Preto / Verde</t>
+          <t>Fonte Carregadorjfa 120a Redline Voltímetro Digital 110/220v</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="D174" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E174" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6268,19 +6452,19 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566607-controle-longa-distancia-completo-jfa-k600-preto-verde-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1564738805-fonte-carregadorjfa-120a-redline-voltimetro-digital-110220v-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedde0389-b45c-4629-9773-7c8a868c49e0</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Redline Digital Sci Pwm Eae Bivolt</t>
+          <t>Fonte Carregador Jfa 120a Bivolt Brinde Strobo Rgb</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6289,11 +6473,11 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>634.4</v>
+        <v>720</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6303,30 +6487,34 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566856-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1976479269-fonte-carregador-jfa-120a-bivolt-brinde-strobo-rgb-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2beab2cf-4088-4599-b1c8-a977e09708a0</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Completo Jfa K600 Preto / Verde</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Redline Bivolt</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>69.42</v>
-      </c>
-      <c r="D176" t="inlineStr"/>
+        <v>525.87</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E176" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6334,30 +6522,34 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498568726-controle-longa-distancia-completo-jfa-k600-preto-verde-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28901873-6fb3-4b6c-9cf1-985caceb68b2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1983196648-fonte-carregador-automotivo-jfa-60a-redline-bivolt-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2beab2cf-4088-4599-b1c8-a977e09708a0</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Completo Jfa Branco / Cinza K600 </t>
+          <t>Fonte Carregador Automotivo Jfa 60a Redline Slim</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>62</v>
-      </c>
-      <c r="D177" t="inlineStr"/>
+        <v>525.87</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6365,34 +6557,30 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498568731-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1983200742-fonte-carregador-automotivo-jfa-60a-redline-slim-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2beab2cf-4088-4599-b1c8-a977e09708a0</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Fonte Carregador 120a Jfa Com Sistema Sci Volt/amp</t>
+          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>64.98999999999999</v>
+      </c>
+      <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6405,25 +6593,29 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562414197-fonte-carregador-120a-jfa-com-sistema-sci-voltamp-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2044193699-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2beab2cf-4088-4599-b1c8-a977e09708a0</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Carregador Fonte Automotivo 120a Jfa Stomr</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="D179" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6436,23 +6628,23 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562475230-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161597045-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Azul Slim Mais Forte Que 60a</t>
+          <t>Fonte Jfa Storm 60a Com Medidor Cca Slim Bivolt</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>548.24</v>
+        <v>525.87</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -6466,30 +6658,34 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562475864-fonte-carregador-jfa-70a-azul-slim-mais-forte-que-60a-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164409762-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Completo Jfa Branco / Cinza K600 </t>
+          <t>Fonte Carregador Jfa Storm 70a Bivolt 14,4v Sci Medidor Cca</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>54.99</v>
-      </c>
-      <c r="D181" t="inlineStr"/>
+        <v>548.24</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E181" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6502,23 +6698,23 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562477035-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164480855-fonte-carregador-jfa-storm-70a-bivolt-144v-sci-medidor-cca-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Jfa 70a Sistema Inteligente Para Bateria </t>
+          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca Sci</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>581.8200000000001</v>
+        <v>895.1</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -6532,30 +6728,34 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562477596-fonte-carregador-jfa-70a-sistema-inteligente-para-bateria-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174573675-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jfa Shop </t>
+          <t>Nova Fonte Carregador Jfa Storm 120a Bivolt</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D183" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E183" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6568,23 +6768,23 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562480366-jfa-shop-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161609580-nova-fonte-carregador-jfa-storm-120a-bivolt-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Jfa 70a Sistema Inteligente Para Bateria </t>
+          <t>Fonte Automotiva Storm Jfa 60a Multifunção Inteligente Slim</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>548.24</v>
+        <v>492.3</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -6603,27 +6803,27 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1562481544-fonte-carregador-jfa-70a-sistema-inteligente-para-bateria-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164411159-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Fonte Carregadorjfa 120a Redline Voltímetro Digital 110/220v</t>
+          <t>Fonte Automotiva Storm Jfa 70a Multifunção Inteligente Slim</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>634.4</v>
+        <v>581.8099999999999</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -6633,30 +6833,34 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1564738805-fonte-carregadorjfa-120a-redline-voltimetro-digital-110220v-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164487978-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Voltímetro Jfa Vs5hi 3 Em 1 Sequenciador High Voltagem /12v</t>
+          <t>Fonte Jfa Storm 200a Com Medidor Cca Slim Bivolt Full</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="D186" t="inlineStr"/>
+        <v>895.1</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E186" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6664,30 +6868,34 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875290430-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174594279-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Voltímetro Digital  Jfa Vs5hi Lançamento 3 Em 1 Som Paredão</t>
+          <t>Melhor Fonte 120a Caixa Bob Jfa 120a Storm 110/220v</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="D187" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E187" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6700,23 +6908,23 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875304180-voltimetro-digital-jfa-vs5hi-lancamento-3-em-1-som-paredo-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70b80be4-7f43-4ea0-be28-6989ae171386</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161609777-melhor-fonte-120a-caixa-bob-jfa-120a-storm-110220v-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bivolt Brinde Strobo Rgb</t>
+          <t>Carregador Jfa Storm 60a 14,4v Mais Completa Smart Cca Sci</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>720</v>
+        <v>525.87</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -6735,23 +6943,23 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1976479269-fonte-carregador-jfa-120a-bivolt-brinde-strobo-rgb-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D22bd9bcd-589e-42d1-a82c-1b10d21ce8d3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164415644-carregador-jfa-storm-60a-144v-mais-completa-smart-cca-sci-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Redline Bivolt</t>
+          <t>Fonte Jfa Storm 70a Com Medidor Cca Slim Bivolt</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>525.87</v>
+        <v>581.8099999999999</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -6770,23 +6978,23 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983196648-fonte-carregador-automotivo-jfa-60a-redline-bivolt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D22bd9bcd-589e-42d1-a82c-1b10d21ce8d3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164523374-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Redline Slim</t>
+          <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>525.87</v>
+        <v>895.1</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -6800,30 +7008,34 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983200742-fonte-carregador-automotivo-jfa-60a-redline-slim-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D22bd9bcd-589e-42d1-a82c-1b10d21ce8d3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174605702-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
+          <t>Carregador Jfa Storm 70a 14,4v Mais Completa Smart Cca Sci</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>64.98999999999999</v>
-      </c>
-      <c r="D191" t="inlineStr"/>
+        <v>581.8099999999999</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E191" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6831,32 +7043,32 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2044193699-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D22bd9bcd-589e-42d1-a82c-1b10d21ce8d3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164523624-carregador-jfa-storm-70a-144v-mais-completa-smart-cca-sci-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Carregador Fonte Automotivo 120a Jfa Stomr</t>
+          <t>Fonte Jfa Storm 200a Com Medidor Cca Slim Bivolt Full</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>674.6799999999999</v>
+        <v>939.86</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -6871,23 +7083,23 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161597045-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174613433-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 60a Com Medidor Cca Slim Bivolt</t>
+          <t>Fonte Jfa Storm 70a Com Medidor Cca Slim Bivolt</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>525.87</v>
+        <v>548.24</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -6901,32 +7113,32 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164409762-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164529899-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Storm 120a Bivolt</t>
+          <t>Fonte Automotiva Storm Jfa 70a Multifunção Inteligente Slim</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>674.6799999999999</v>
+        <v>548.24</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6936,28 +7148,28 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161609580-nova-fonte-carregador-jfa-storm-120a-bivolt-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164536144-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Storm Jfa 60a Multifunção Inteligente Slim</t>
+          <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>492.3</v>
+        <v>693.7</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -6976,23 +7188,23 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164411159-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717118463-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 70a Bivolt 14,4v Sci Medidor Cca</t>
+          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>548.24</v>
+        <v>772.02</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7006,28 +7218,28 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164480855-fonte-carregador-jfa-storm-70a-bivolt-144v-sci-medidor-cca-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717151233-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca Sci</t>
+          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>895.1</v>
+        <v>131.99</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7041,28 +7253,28 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174573675-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724067657-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Melhor Fonte 120a Caixa Bob Jfa 120a Storm 110/220v</t>
+          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>674.6799999999999</v>
+        <v>693.7</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -7076,28 +7288,28 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161609777-melhor-fonte-120a-caixa-bob-jfa-120a-storm-110220v-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717157049-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 60a 14,4v Mais Completa Smart Cca Sci</t>
+          <t>Controle Longa Distância Jfa K1200 Resistente A Água  Preto</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>525.87</v>
+        <v>132.48</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -7116,23 +7328,23 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164415644-carregador-jfa-storm-60a-144v-mais-completa-smart-cca-sci-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724073524-controle-longa-distncia-jfa-k1200-resistente-a-agua-preto-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Storm Jfa 70a Multifunção Inteligente Slim</t>
+          <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>581.8099999999999</v>
+        <v>772.02</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -7151,23 +7363,23 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164487978-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717169947-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 200a Com Medidor Cca Slim Bivolt Full</t>
+          <t>Controle Longa Distancia Jfa K1200 Acqua Som Completo Top</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>895.1</v>
+        <v>132.45</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -7181,28 +7393,28 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174594279-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724077994-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Melhor Fonte 120a Caixa Bob Jfa 120a Storm 110/220v</t>
+          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>634.4</v>
+        <v>772.02</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -7216,28 +7428,28 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161654997-melhor-fonte-120a-caixa-bob-jfa-120a-storm-110220v-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717191676-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 70a Com Medidor Cca Slim Bivolt</t>
+          <t>Controle Longa Distância Jfa K1200 Resistente A Água Preto</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>581.8099999999999</v>
+        <v>108.99</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -7251,28 +7463,28 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164523374-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724101310-controle-longa-distncia-jfa-k1200-resistente-a-agua-preto-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
+          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>895.1</v>
+        <v>693.7</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -7291,23 +7503,23 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174605702-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717192368-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 70a 14,4v Mais Completa Smart Cca Sci</t>
+          <t>Controle Longa Distância Jfa K1200 Resistente A Água Branco</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>581.8099999999999</v>
+        <v>108.98</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -7321,28 +7533,28 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164523624-carregador-jfa-storm-70a-144v-mais-completa-smart-cca-sci-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724219332-controle-longa-distncia-jfa-k1200-resistente-a-agua-branco-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 200a Com Medidor Cca Slim Bivolt Full</t>
+          <t>Controle Longa Distancia Jfa K1200 Acqua Som Completo Top</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>939.86</v>
+        <v>108.97</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -7356,32 +7568,32 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174613433-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724231286-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D772dbeaa-a59c-4343-87b4-b566b8d67348</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 70a Com Medidor Cca Slim Bivolt</t>
+          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top Branco</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>548.24</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -7391,32 +7603,32 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164529899-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c7af03e-6abb-488b-877f-a32680032e58</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724250206-controle-longa-distancia-jfa-k1200-acqua-completo-top-branco-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3bf113fe-c486-4f08-bc0a-517e4a981fc9</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Storm Jfa 70a Multifunção Inteligente Slim</t>
+          <t>Controle Universal Longa Jfa K600 Branco Cinza Modo Aprender</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>548.24</v>
+        <v>59.9</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -7426,28 +7638,28 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164536144-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3311520957-controle-universal-longa-jfa-k600-branco-cinza-modo-aprender-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3bf113fe-c486-4f08-bc0a-517e4a981fc9</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
+          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>693.7</v>
+        <v>860.98</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -7461,30 +7673,34 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717118463-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3452375078-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3bf113fe-c486-4f08-bc0a-517e4a981fc9</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top</t>
+          <t>Combo 10 Kits Jfa K600 - Controle Longa Distancia P/ Pioneer</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>131.99</v>
-      </c>
-      <c r="D210" t="inlineStr"/>
+        <v>699</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E210" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7497,14 +7713,14 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724067657-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465447643-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D50c2eb62-d158-4d49-978e-8bb38e784199</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt</t>
+          <t>Fonte Jfa Para Caixa Bob Esponja Storm 200a Bivolt Forte</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -7532,25 +7748,29 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717151233-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717143773-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D50c2eb62-d158-4d49-978e-8bb38e784199</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Resistente A Água  Preto</t>
+          <t>Fonte Carregador 200 Amperes Jfa Sci Inteligente 10.000w Rms</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>132.48</v>
-      </c>
-      <c r="D212" t="inlineStr"/>
+        <v>939.86</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E212" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7563,27 +7783,27 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724073524-controle-longa-distncia-jfa-k1200-resistente-a-agua-preto-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182763848-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D50c2eb62-d158-4d49-978e-8bb38e784199</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P Multimídia Import</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>693.7</v>
+        <v>90.78</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -7598,14 +7818,14 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717157049-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498566645-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D50c2eb62-d158-4d49-978e-8bb38e784199</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Acqua Som Completo Top</t>
+          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -7614,7 +7834,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>132.45</v>
+        <v>799</v>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
@@ -7624,28 +7844,28 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724077994-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567196-fonte-automotiva-spark-usina-120a-controle-jfa-k600-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D50c2eb62-d158-4d49-978e-8bb38e784199</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
+          <t>Fonte Carregador 200 Amperes Jfa Sci Inteligente 10.000w Rms</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>772.02</v>
+        <v>895.1</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -7659,30 +7879,34 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717169947-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182763864-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbbeedd87-6051-49df-9ee4-858eff1e4ded</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Resistente A Água Preto</t>
+          <t>Jfa K600 - Combo 5 Peças Longa Distancia Cores Variadas</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>108.99</v>
-      </c>
-      <c r="D216" t="inlineStr"/>
+        <v>269</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E216" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7695,23 +7919,23 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724101310-controle-longa-distncia-jfa-k1200-resistente-a-agua-preto-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465466759-jfa-k600-combo-5-pecas-longa-distancia-cores-variadas-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbbeedd87-6051-49df-9ee4-858eff1e4ded</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
+          <t>Fonte Carregador Jfa 200 Amperes Sci Mais Forte Do Brasil</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>772.02</v>
+        <v>939.86</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -7730,25 +7954,29 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717191676-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182763875-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbbeedd87-6051-49df-9ee4-858eff1e4ded</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Resistente A Água Branco</t>
+          <t>Fonte Carregador 120a Jfa Sci Digital Pwm Muito Forte</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>108.98</v>
-      </c>
-      <c r="D218" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E218" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7761,23 +7989,23 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724219332-controle-longa-distncia-jfa-k1200-resistente-a-agua-branco-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498563536-fonte-carregador-120a-jfa-sci-digital-pwm-muito-forte-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbbeedd87-6051-49df-9ee4-858eff1e4ded</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt</t>
+          <t>Fonte Automotiva 200 A Jfa Sci Carregador Automático Slim</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>693.7</v>
+        <v>939.86</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -7791,30 +8019,34 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717192368-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567121-fonte-automotiva-200-a-jfa-sci-carregador-automatico-slim-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbbeedd87-6051-49df-9ee4-858eff1e4ded</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Acqua Som Completo Top</t>
+          <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Pwm</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>108.97</v>
-      </c>
-      <c r="D220" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E220" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7822,30 +8054,34 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724231286-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567012-fonte-automotiva-120-a-jfa-carregador-com-sistema-pwm-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbbeedd87-6051-49df-9ee4-858eff1e4ded</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top Branco</t>
+          <t>Fonte Automotiva 120a Jfa Carregador Slim Pwm</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="D221" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E221" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7853,30 +8089,34 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724250206-controle-longa-distancia-jfa-k1200-acqua-completo-top-branco-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d9540f3-a2dc-4a97-8460-4aa38dc17efb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498567073-fonte-automotiva-120a-jfa-carregador-slim-pwm-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbbeedd87-6051-49df-9ee4-858eff1e4ded</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Jfa K600 Branco Cinza Modo Aprender</t>
+          <t>Fonte Automotiva 120a Jfa Sci Carregador Slim Oferta</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D222" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E222" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7889,446 +8129,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3311520957-controle-universal-longa-jfa-k600-branco-cinza-modo-aprender-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D20f95ff1-564d-4fd2-8002-94054d416017</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C223" t="n">
-        <v>860.98</v>
-      </c>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3452375078-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D20f95ff1-564d-4fd2-8002-94054d416017</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Combo 10 Kits Jfa K600 - Controle Longa Distancia P/ Pioneer</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C224" t="n">
-        <v>699</v>
-      </c>
-      <c r="D224" t="inlineStr"/>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465447643-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D27462872-76e4-425e-a2e0-c3c19b669571</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt 110v 220v</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C225" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927412551-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-110v-220v-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D27462872-76e4-425e-a2e0-c3c19b669571</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C226" t="n">
-        <v>799</v>
-      </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567196-fonte-automotiva-spark-usina-120a-controle-jfa-k600-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D27462872-76e4-425e-a2e0-c3c19b669571</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Fonte Carregador 200 Amperes Jfa Sci Inteligente 10.000w Rms</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C227" t="n">
-        <v>895.1</v>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182763864-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D27462872-76e4-425e-a2e0-c3c19b669571</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Jfa K600 - Combo 5 Peças Longa Distancia Cores Variadas</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C228" t="n">
-        <v>269</v>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465466759-jfa-k600-combo-5-pecas-longa-distancia-cores-variadas-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D27462872-76e4-425e-a2e0-c3c19b669571</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Jfa 200 Amperes Sci Mais Forte Do Brasil</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C229" t="n">
-        <v>939.86</v>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182763875-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D27462872-76e4-425e-a2e0-c3c19b669571</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Fonte Carregador 120a Jfa Sci Digital Pwm Muito Forte</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C230" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498563536-fonte-carregador-120a-jfa-sci-digital-pwm-muito-forte-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De95022b3-d42c-446b-bd7e-e95da5fdad71</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva 200 A Jfa Sci Carregador Automático Slim</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C231" t="n">
-        <v>939.86</v>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567121-fonte-automotiva-200-a-jfa-sci-carregador-automatico-slim-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De95022b3-d42c-446b-bd7e-e95da5fdad71</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Pwm</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C232" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567012-fonte-automotiva-120-a-jfa-carregador-com-sistema-pwm-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De95022b3-d42c-446b-bd7e-e95da5fdad71</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva 120a Jfa Carregador Slim Pwm</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C233" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498567073-fonte-automotiva-120a-jfa-carregador-slim-pwm-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De95022b3-d42c-446b-bd7e-e95da5fdad71</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva 120a Jfa Sci Carregador Slim Oferta</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C234" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498569101-fonte-automotiva-120a-jfa-sci-carregador-slim-oferta-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De95022b3-d42c-446b-bd7e-e95da5fdad71</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Multimídia Import</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C235" t="n">
-        <v>90.78</v>
-      </c>
-      <c r="D235" t="inlineStr"/>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1498566645-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De95022b3-d42c-446b-bd7e-e95da5fdad71</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1498569101-fonte-automotiva-120a-jfa-sci-carregador-slim-oferta-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbbeedd87-6051-49df-9ee4-858eff1e4ded</t>
         </is>
       </c>
     </row>
